--- a/output/Exam_timetable.xlsx
+++ b/output/Exam_timetable.xlsx
@@ -588,52 +588,52 @@
     <row r="4">
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>B1-PHD151</t>
+          <t>B3-CS473</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>B3-CS457</t>
+          <t>B1- CS308</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>B4-CS470</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>B1-HS156</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>B3-CS468</t>
+          <t>B3-DS458</t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>B1-CS251</t>
         </is>
       </c>
       <c r="H4" s="4" t="inlineStr">
         <is>
-          <t>B1-CS152</t>
+          <t>HS101</t>
         </is>
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>B1-DS456</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="K4" s="4" t="inlineStr">
         <is>
-          <t>B1-DS151</t>
+          <t>DS161</t>
         </is>
       </c>
     </row>
@@ -645,32 +645,32 @@
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>B1-EC252</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>B4-CS470</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>HSS/IE</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>B4-EC463</t>
+          <t>B1-DS301</t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="H5" s="4" t="inlineStr">
         <is>
-          <t>HS261</t>
+          <t>B1-CS152</t>
         </is>
       </c>
       <c r="I5" s="4" t="inlineStr">
@@ -680,59 +680,59 @@
       </c>
       <c r="J5" s="4" t="inlineStr">
         <is>
-          <t>B2-CS352</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>B1-CS366</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>B4-DS102</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>B1-HS157</t>
+          <t>B2-EC364</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>B1- CS463</t>
+          <t>B1-EC251</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>B1-DS301</t>
+          <t>B3-CS468</t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="H6" s="4" t="inlineStr">
         <is>
-          <t>HS101</t>
+          <t>B2-PH454</t>
         </is>
       </c>
       <c r="I6" s="4" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="J6" s="4" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="K6" s="4" t="inlineStr">
@@ -744,12 +744,12 @@
     <row r="7">
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>B4-DS102</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>B2-EC465</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>B3-DS458</t>
+          <t>B4-EC463</t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t>B1-DS401</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="H7" s="4" t="inlineStr">
         <is>
-          <t>B2-PH454</t>
+          <t>B1-NEW</t>
         </is>
       </c>
       <c r="I7" s="4" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>B1-DS456</t>
         </is>
       </c>
       <c r="J7" s="4" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>B2-CS151</t>
         </is>
       </c>
       <c r="K7" s="4" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>B1-DS151</t>
         </is>
       </c>
     </row>
@@ -801,17 +801,17 @@
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>B1-EC252</t>
+          <t>B3-CS457</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>B2-NEW</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>HSS/IE</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -821,95 +821,95 @@
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t>B1-CS251</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="H8" s="4" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>HS261</t>
         </is>
       </c>
       <c r="I8" s="4" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>CS262</t>
         </is>
       </c>
       <c r="J8" s="4" t="inlineStr">
         <is>
-          <t>B2-CS151</t>
+          <t>B2-CS352</t>
         </is>
       </c>
       <c r="K8" s="4" t="inlineStr">
         <is>
-          <t>B3-NEW</t>
+          <t>EC263</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>B2-DS359</t>
+          <t>B2-EC365</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>B2-EC364</t>
+          <t>B2-EC465</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>B1-EC251</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>B1-HS156</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr"/>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>B2-EC355</t>
         </is>
       </c>
       <c r="H9" s="4" t="inlineStr">
         <is>
-          <t>B1-NEW</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="I9" s="4" t="inlineStr"/>
       <c r="J9" s="4" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>B3-NEW</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>B2-EC365</t>
+          <t>B1-PHD151</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>B1- CS308</t>
+          <t>B1-HS157</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr"/>
       <c r="F10" s="4" t="inlineStr"/>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="H10" s="4" t="inlineStr"/>
@@ -917,27 +917,27 @@
       <c r="J10" s="4" t="inlineStr"/>
       <c r="K10" s="4" t="inlineStr">
         <is>
-          <t>B1-CS366</t>
+          <t>CS161</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>B3-CS473</t>
+          <t>B2-DS359</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr"/>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>B1- CS463</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr"/>
       <c r="F11" s="4" t="inlineStr"/>
       <c r="G11" s="4" t="inlineStr">
         <is>
-          <t>B2-EC355</t>
+          <t>B1-DS401</t>
         </is>
       </c>
       <c r="H11" s="4" t="inlineStr"/>
@@ -954,7 +954,7 @@
       <c r="C12" s="4" t="inlineStr"/>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>B2-NEW</t>
         </is>
       </c>
       <c r="E12" s="4" t="inlineStr"/>
@@ -979,7 +979,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I214"/>
+  <dimension ref="A1:I212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1048,7 +1048,7 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>Dr.Utkarsh Khaire</t>
+          <t>Dr. Sunil CK</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="H2" s="4" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="I2" s="4" t="n">
@@ -1091,7 +1091,7 @@
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>Dr. Girirsh</t>
+          <t>Dr. Ashwath Babu</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="H3" s="4" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>C408</t>
         </is>
       </c>
       <c r="I3" s="4" t="n">
@@ -1134,7 +1134,7 @@
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>Dr.Animesh Chaturvedi</t>
+          <t>Dr.Anushree Kini</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="H4" s="4" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C407</t>
         </is>
       </c>
       <c r="I4" s="4" t="n">
@@ -1177,7 +1177,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>Dr. Ashwath Babu</t>
+          <t>Dr. Manjuth KV</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -1220,7 +1220,7 @@
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sunil Saumya</t>
+          <t>Dr. Jagdeesh DN</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="H6" s="4" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="I6" s="4" t="n">
@@ -1263,7 +1263,7 @@
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>Dr. Shirshendu Layek</t>
+          <t>Dr. Mallikarjun</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="H7" s="4" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="I7" s="4" t="n">
@@ -1306,7 +1306,7 @@
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>Dr.Sandesh</t>
+          <t>Dr. Abdul Wahid</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="H8" s="4" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="I8" s="4" t="n">
@@ -1349,7 +1349,7 @@
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>Dr.Sandesh</t>
+          <t>Dr. Pramod Y</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="H9" s="4" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="I9" s="4" t="n">
@@ -1392,7 +1392,7 @@
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>Dr. Somen Bhattacharjee</t>
+          <t>Dr.Animesh Chaturvedi</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="H10" s="4" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="I10" s="4" t="n">
@@ -1435,7 +1435,7 @@
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagdeesh DN</t>
+          <t>Dr. Vivekraj</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
@@ -1445,17 +1445,17 @@
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>B4-DS102</t>
+          <t>B1-PHD151</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>Finance and Accounting</t>
+          <t>Introduction to Quantum Physics</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
@@ -1464,21 +1464,21 @@
         </is>
       </c>
       <c r="G11" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H11" s="4" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L307</t>
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>Dr. Ramesh Athe</t>
+          <t>Dr. Prakash Pawar</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
@@ -1488,17 +1488,17 @@
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>B1-PHD151</t>
+          <t>B2-DS359</t>
         </is>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>Introduction to Quantum Physics</t>
+          <t>Full stack Development</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
@@ -1507,21 +1507,21 @@
         </is>
       </c>
       <c r="G12" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H12" s="4" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C405</t>
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sibasankar Padhy</t>
+          <t>Dr. Vivekraj</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
@@ -1531,40 +1531,40 @@
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>B2-DS359</t>
+          <t>B1-PHD151</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>Full stack Development</t>
+          <t>Introduction to Quantum Physics</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G13" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H13" s="4" t="inlineStr">
         <is>
-          <t>C408</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="I13" s="4" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pavan</t>
+          <t>Dr. Jagadeesha R Bhat</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="H14" s="4" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="I14" s="4" t="n">
@@ -1607,7 +1607,7 @@
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagdish R.B</t>
+          <t>Dr.Manjunath K V</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
@@ -1617,40 +1617,40 @@
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>B1-PHD151</t>
+          <t>B1-EC456</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>Introduction to Quantum Physics</t>
+          <t>Reinforcement Learning</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H15" s="4" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C406</t>
         </is>
       </c>
       <c r="I15" s="4" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>Dr. Anand B</t>
+          <t>Dr. Vivekraj</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
@@ -1660,22 +1660,22 @@
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>B1-EC456</t>
+          <t>B3-CS473</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>Reinforcement Learning</t>
+          <t>Cloud SRE and Security</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G16" s="4" t="n">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="H16" s="4" t="inlineStr">
         <is>
-          <t>C407</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="I16" s="4" t="n">
@@ -1693,7 +1693,7 @@
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>Dr. Aswath Babu</t>
+          <t>Dr. Pankaj Kumar</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
@@ -1703,30 +1703,30 @@
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>B3-CS473</t>
+          <t>B2-EC365</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>Cloud SRE and Security</t>
+          <t>AI in biomedical signal interpretation</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H17" s="4" t="inlineStr">
         <is>
-          <t>C406</t>
+          <t>L208</t>
         </is>
       </c>
       <c r="I17" s="4" t="n">
@@ -1736,7 +1736,7 @@
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>Dr. Siddharth</t>
+          <t>Dr. Pramod Y</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
@@ -1746,30 +1746,30 @@
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>B2-EC365</t>
+          <t>B3-CS473</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>AI in biomedical signal interpretation</t>
+          <t>Cloud SRE and Security</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H18" s="4" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>L308</t>
         </is>
       </c>
       <c r="I18" s="4" t="n">
@@ -1779,7 +1779,7 @@
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>Dr.Animesh chaturvedi</t>
+          <t>Dr. Suvadip H</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
@@ -1789,40 +1789,40 @@
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>B3-CS473</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>Cloud SRE and Security</t>
+          <t>Happiness &amp; Wellbeing</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H19" s="4" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="I19" s="4" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>Dr. Krishnendu</t>
+          <t>Dr. Vivekraj</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
@@ -1832,17 +1832,17 @@
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>B1-EC456</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>Happiness &amp; Wellbeing</t>
+          <t>Reinforcement Learning</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
@@ -1851,21 +1851,21 @@
         </is>
       </c>
       <c r="G20" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H20" s="4" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="I20" s="4" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Dr. Ashwath Babu</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="H21" s="4" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="I21" s="4" t="n">
@@ -1908,7 +1908,7 @@
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pramod Yelmewad</t>
+          <t>Prof. SRM Prasanna</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
@@ -1918,30 +1918,30 @@
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>B1-EC456</t>
+          <t>B2-DS359</t>
         </is>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>Reinforcement Learning</t>
+          <t>Full stack Development</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H22" s="4" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="I22" s="4" t="n">
@@ -1951,7 +1951,7 @@
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>Dr. Siddharth</t>
+          <t>Dr. Utkarsh Khaire</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
@@ -1961,30 +1961,30 @@
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>B2-DS359</t>
+          <t>B3-CS473</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>Full stack Development</t>
+          <t>Cloud SRE and Security</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H23" s="4" t="inlineStr">
         <is>
-          <t>C103</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="I23" s="4" t="n">
@@ -1994,7 +1994,7 @@
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>Dr. Somen B</t>
+          <t>Dr. Girish Revadigar</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
@@ -2004,22 +2004,22 @@
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>B3-CS473</t>
+          <t>B4-DS102</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>Cloud SRE and Security</t>
+          <t>Finance and Accounting</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
@@ -2027,17 +2027,17 @@
       </c>
       <c r="H24" s="4" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C103</t>
         </is>
       </c>
       <c r="I24" s="4" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>Dr.Rajesh Kumar</t>
+          <t>Dr.Siddharth</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
@@ -2070,7 +2070,7 @@
       </c>
       <c r="H25" s="4" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="I25" s="4" t="n">
@@ -2080,7 +2080,7 @@
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>Dr. Somen Bhattacharjee</t>
+          <t>Dr. Rajesh NS</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
@@ -2113,7 +2113,7 @@
       </c>
       <c r="H26" s="4" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="I26" s="4" t="n">
@@ -2123,27 +2123,27 @@
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>Dr. Vivekraj</t>
+          <t>Dr. Deepak K.T</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>20-Nov-2025</t>
+          <t>21-Nov-2025</t>
         </is>
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>B4-DS102</t>
+          <t>B1-EC252</t>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>Finance and Accounting</t>
+          <t>Introduction RFID Design</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
@@ -2152,21 +2152,21 @@
         </is>
       </c>
       <c r="G27" s="4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H27" s="4" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L307</t>
         </is>
       </c>
       <c r="I27" s="4" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagadeesha R Bhat</t>
+          <t>Dr.Anushree Kini</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
@@ -2176,30 +2176,30 @@
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>B1-EC252</t>
+          <t>B1-HS157</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>Introduction RFID Design</t>
+          <t>Computational Musicology for Hindustani Music</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G28" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H28" s="4" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="I28" s="4" t="n">
@@ -2209,7 +2209,7 @@
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>Dr. Girish Revadigar</t>
+          <t>Dr.Rajesh Kumar</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
@@ -2219,17 +2219,17 @@
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>B1-HS157</t>
+          <t>B1- CS308</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>Computational Musicology for Hindustani Music</t>
+          <t>Compiler Design</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
@@ -2238,21 +2238,21 @@
         </is>
       </c>
       <c r="G29" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H29" s="4" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C408</t>
         </is>
       </c>
       <c r="I29" s="4" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>Dr. Malay</t>
+          <t>Dr. Ramesh Athe</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
@@ -2262,40 +2262,40 @@
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>B1- CS308</t>
+          <t>B1-HS157</t>
         </is>
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>Compiler Design</t>
+          <t>Computational Musicology for Hindustani Music</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G30" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H30" s="4" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="I30" s="4" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>Dr.Shirshendu Layek</t>
+          <t>Dr. Sunil CK</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
@@ -2305,40 +2305,40 @@
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>B1-HS157</t>
+          <t>B2-EC364</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>Computational Musicology for Hindustani Music</t>
+          <t>Semiconductor Device Modelling</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G31" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H31" s="4" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C407</t>
         </is>
       </c>
       <c r="I31" s="4" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagadeesha R Bhat</t>
+          <t>Dr. Rajesh NS</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
@@ -2348,40 +2348,40 @@
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>B2-EC364</t>
+          <t>B3-CS457</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>Semiconductor Device Modelling</t>
+          <t>DevOps and its applications</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G32" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H32" s="4" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="I32" s="4" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>Dr. Animesh Roy</t>
+          <t>Dr. Sandesh P</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
@@ -2391,22 +2391,22 @@
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>B3-CS457</t>
+          <t>B2-EC465</t>
         </is>
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>DevOps and its applications</t>
+          <t>Hands on CMOS Analog and RF circuit Design</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G33" s="4" t="n">
@@ -2414,17 +2414,17 @@
       </c>
       <c r="H33" s="4" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="I33" s="4" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>Dr. Ramesh Athe</t>
+          <t>Dr.Rajesh N S</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
@@ -2434,40 +2434,40 @@
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>B2-EC465</t>
+          <t>B1-EC252</t>
         </is>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>Hands on CMOS Analog and RF circuit Design</t>
+          <t>Introduction RFID Design</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G34" s="4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H34" s="4" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="I34" s="4" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>Dr. Krishnendu</t>
+          <t>Dr. Suvadip H</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
@@ -2477,17 +2477,17 @@
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>B1-EC252</t>
+          <t>B2-EC364</t>
         </is>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>Introduction RFID Design</t>
+          <t>Semiconductor Device Modelling</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
@@ -2496,21 +2496,21 @@
         </is>
       </c>
       <c r="G35" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H35" s="4" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="I35" s="4" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>Dr. Suvadip H</t>
+          <t>Dr.Rajesh N S</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
@@ -2520,40 +2520,40 @@
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>B2-EC364</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>Semiconductor Device Modelling</t>
+          <t>Signal &amp; Systems</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H36" s="4" t="inlineStr">
         <is>
-          <t>C408</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="I36" s="4" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>Dr. Abdul Wahid</t>
+          <t>Prof. SRM Prasanna</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
@@ -2563,40 +2563,40 @@
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>B2-EC465</t>
         </is>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>Signal &amp; Systems</t>
+          <t>Hands on CMOS Analog and RF circuit Design</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G37" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H37" s="4" t="inlineStr">
         <is>
-          <t>C407</t>
+          <t>C405</t>
         </is>
       </c>
       <c r="I37" s="4" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>Dr.Animesh chaturvedi</t>
+          <t>Dr. Rajendra H</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
@@ -2606,22 +2606,22 @@
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>B2-EC465</t>
+          <t>B3-CS457</t>
         </is>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>Hands on CMOS Analog and RF circuit Design</t>
+          <t>DevOps and its applications</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G38" s="4" t="n">
@@ -2629,17 +2629,17 @@
       </c>
       <c r="H38" s="4" t="inlineStr">
         <is>
-          <t>C406</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="I38" s="4" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>Dr.Siddharth</t>
+          <t>Dr. Utkarsh Khaire</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
@@ -2649,40 +2649,40 @@
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>B3-CS457</t>
+          <t>B1- CS308</t>
         </is>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>DevOps and its applications</t>
+          <t>Compiler Design</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G39" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H39" s="4" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C406</t>
         </is>
       </c>
       <c r="I39" s="4" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>Dr.Siddharth</t>
+          <t>Dr. Pramod Y</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
@@ -2692,30 +2692,30 @@
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>B1- CS308</t>
+          <t>B2-EC465</t>
         </is>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>Compiler Design</t>
+          <t>Hands on CMOS Analog and RF circuit Design</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G40" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H40" s="4" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>L208</t>
         </is>
       </c>
       <c r="I40" s="4" t="n">
@@ -2725,7 +2725,7 @@
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pankaj Kumar</t>
+          <t>Dr. Sibasankar Padhy</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
@@ -2735,40 +2735,40 @@
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>B2-EC465</t>
+          <t>B1-HS157</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>Hands on CMOS Analog and RF circuit Design</t>
+          <t>Computational Musicology for Hindustani Music</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G41" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H41" s="4" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L308</t>
         </is>
       </c>
       <c r="I41" s="4" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>Dr. Krishnendu</t>
+          <t>Dr.Jagadeesha R Bhat</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
@@ -2778,40 +2778,40 @@
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>B1-HS157</t>
+          <t>B3-CS457</t>
         </is>
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>Computational Musicology for Hindustani Music</t>
+          <t>DevOps and its applications</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G42" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H42" s="4" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="I42" s="4" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>Dr.Anushree Kini</t>
+          <t>Dr. Dibyajoti Guha</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
@@ -2821,40 +2821,40 @@
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>B3-CS457</t>
+          <t>B1- CS308</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>DevOps and its applications</t>
+          <t>Compiler Design</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G43" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H43" s="4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="I43" s="4" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>Dr.Animesh Chaturvedi</t>
+          <t>Dr.Jagadeesha R Bhat</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
@@ -2864,40 +2864,40 @@
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>B1- CS308</t>
+          <t>B1-EC252</t>
         </is>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>Compiler Design</t>
+          <t>Introduction RFID Design</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G44" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H44" s="4" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="I44" s="4" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pankaj Kumar</t>
+          <t>Dr.Shirshendu Layek</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
@@ -2907,17 +2907,17 @@
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>B1-EC252</t>
+          <t>B2-EC364</t>
         </is>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>Introduction RFID Design</t>
+          <t>Semiconductor Device Modelling</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
@@ -2926,46 +2926,46 @@
         </is>
       </c>
       <c r="G45" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H45" s="4" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="I45" s="4" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>Dr. Somen B</t>
+          <t>Dr.Rajesh N S</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>21-Nov-2025</t>
+          <t>22-Nov-2025</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>B2-EC364</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>Semiconductor Device Modelling</t>
+          <t>Introduction to Algorithms</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G46" s="4" t="n">
@@ -2973,17 +2973,17 @@
       </c>
       <c r="H46" s="4" t="inlineStr">
         <is>
-          <t>C103</t>
+          <t>L307</t>
         </is>
       </c>
       <c r="I46" s="4" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagdeesh DN</t>
+          <t>Dr. Dibyajoti Guha</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
@@ -2993,22 +2993,22 @@
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>B1- CS463</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>Introduction to Algorithms</t>
+          <t>Parallel computing</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G47" s="4" t="n">
@@ -3016,17 +3016,17 @@
       </c>
       <c r="H47" s="4" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C408</t>
         </is>
       </c>
       <c r="I47" s="4" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>Dr.Rajesh N S</t>
+          <t>Dr. Chinmayananda A</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
@@ -3036,40 +3036,40 @@
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>B1- CS463</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>Parallel computing</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G48" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H48" s="4" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="I48" s="4" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>Dr. Anand B</t>
+          <t>Dr. Somen B</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
@@ -3079,17 +3079,17 @@
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t xml:space="preserve">HSS/IE </t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
@@ -3098,21 +3098,21 @@
         </is>
       </c>
       <c r="G49" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H49" s="4" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C407</t>
         </is>
       </c>
       <c r="I49" s="4" t="n">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>Dr Ramesh Athe</t>
+          <t>Dr. Girish Revadigar</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
@@ -3122,40 +3122,40 @@
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>B4-CS470</t>
         </is>
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">HSS/IE </t>
+          <t>AI for Cybersecurity</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G50" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H50" s="4" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="I50" s="4" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Dr. Girish Revadigar</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
@@ -3180,7 +3180,7 @@
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G51" s="4" t="n">
@@ -3188,7 +3188,7 @@
       </c>
       <c r="H51" s="4" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="I51" s="4" t="n">
@@ -3198,7 +3198,7 @@
     <row r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>Dr. Ashwath Babu</t>
+          <t>Dr. Girirsh</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
@@ -3208,40 +3208,40 @@
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>B4-CS470</t>
+          <t>B2-NEW</t>
         </is>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>AI for Cybersecurity</t>
+          <t>Introduction to Embedded Signals Inteligence</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G52" s="4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H52" s="4" t="inlineStr">
         <is>
-          <t>C408</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="I52" s="4" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sunil Saumya</t>
+          <t>Dr. Mallikarjun</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
@@ -3251,17 +3251,17 @@
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>B2-NEW</t>
+          <t>B1- CS463</t>
         </is>
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>Introduction to Embedded Signals Inteligence</t>
+          <t>Parallel computing</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
@@ -3270,21 +3270,21 @@
         </is>
       </c>
       <c r="G53" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H53" s="4" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="I53" s="4" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagdish R.B</t>
+          <t>Dr. Rajesh NS</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
@@ -3294,40 +3294,40 @@
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t>B1- CS463</t>
+          <t>B1-EC251</t>
         </is>
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>Parallel computing</t>
+          <t>Electronics System Design-1</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G54" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H54" s="4" t="inlineStr">
         <is>
-          <t>C407</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="I54" s="4" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>Dr.Animesh Chaturvedi</t>
+          <t>Dr. Ramesh Athe</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
@@ -3337,17 +3337,17 @@
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>B1-EC251</t>
+          <t>B2-NEW</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>Electronics System Design-1</t>
+          <t>Introduction to Embedded Signals Inteligence</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
@@ -3360,7 +3360,7 @@
       </c>
       <c r="H55" s="4" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L208</t>
         </is>
       </c>
       <c r="I55" s="4" t="n">
@@ -3370,7 +3370,7 @@
     <row r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>Dr. Manjuth KV</t>
+          <t>Dr. Prabhu Prasad</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
@@ -3380,22 +3380,22 @@
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>B2-NEW</t>
+          <t>B1-EC251</t>
         </is>
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>Introduction to Embedded Signals Inteligence</t>
+          <t>Electronics System Design-1</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G56" s="4" t="n">
@@ -3403,7 +3403,7 @@
       </c>
       <c r="H56" s="4" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L308</t>
         </is>
       </c>
       <c r="I56" s="4" t="n">
@@ -3413,7 +3413,7 @@
     <row r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>Dr. Shirshendu Layek</t>
+          <t>Dr.Manjunath K V</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
@@ -3423,40 +3423,40 @@
       </c>
       <c r="C57" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>B1-EC251</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>Electronics System Design-1</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G57" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H57" s="4" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="I57" s="4" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>Dr. Chinmayananda</t>
+          <t>Dr. Suvadip H</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
@@ -3466,40 +3466,40 @@
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>Random Process</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G58" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H58" s="4" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C405</t>
         </is>
       </c>
       <c r="I58" s="4" t="n">
-        <v>110</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>Dr. Dibyajyothi Guha</t>
+          <t>Dr. Prakash Pawar</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
@@ -3509,22 +3509,22 @@
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>B1-EC251</t>
         </is>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>Random Process</t>
+          <t>Electronics System Design-1</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G59" s="4" t="n">
@@ -3532,17 +3532,17 @@
       </c>
       <c r="H59" s="4" t="inlineStr">
         <is>
-          <t>C406</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="I59" s="4" t="n">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>Dr. Vivekraj</t>
+          <t>Dr. Ashwath Babu</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
@@ -3552,40 +3552,40 @@
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D60" s="4" t="inlineStr">
         <is>
-          <t>B1-EC251</t>
+          <t>B1- CS463</t>
         </is>
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>Electronics System Design-1</t>
+          <t>Parallel computing</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G60" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H60" s="4" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C406</t>
         </is>
       </c>
       <c r="I60" s="4" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>Dr. Animesh Roy</t>
+          <t>Dr. Chinmayananda A</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
@@ -3595,17 +3595,17 @@
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>B1- CS463</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>Parallel computing</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
@@ -3614,21 +3614,21 @@
         </is>
       </c>
       <c r="G61" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H61" s="4" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="I61" s="4" t="n">
-        <v>70</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>Dr.Utkarsh Khaire</t>
+          <t>Dr. Malay</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
@@ -3638,40 +3638,40 @@
       </c>
       <c r="C62" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D62" s="4" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>B2-NEW</t>
         </is>
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>Introduction to Embedded Signals Inteligence</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G62" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H62" s="4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="I62" s="4" t="n">
-        <v>215</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sunil Saumya</t>
+          <t>Dr. Rajendra H</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
@@ -3681,22 +3681,22 @@
       </c>
       <c r="C63" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t>B2-NEW</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>Introduction to Embedded Signals Inteligence</t>
+          <t>Operating Systems</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G63" s="4" t="n">
@@ -3704,17 +3704,17 @@
       </c>
       <c r="H63" s="4" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="I63" s="4" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>Dr.Siddharth</t>
+          <t>Dr. Chandrika Kamath</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
@@ -3724,73 +3724,73 @@
       </c>
       <c r="C64" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D64" s="4" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>B4-CS470</t>
         </is>
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>Operating Systems</t>
+          <t>AI for Cybersecurity</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G64" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H64" s="4" t="inlineStr">
         <is>
-          <t>C103</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="I64" s="4" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>Dr.Anushree Kini</t>
+          <t>Dr. Pavan Kumar</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>22-Nov-2025</t>
+          <t>23-Nov-2025</t>
         </is>
       </c>
       <c r="C65" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t>B4-CS470</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>AI for Cybersecurity</t>
+          <t>Computer Networks</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G65" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H65" s="4" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C408</t>
         </is>
       </c>
       <c r="I65" s="4" t="n">
@@ -3800,7 +3800,7 @@
     <row r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pankaj Kumar</t>
+          <t>Dr. Anushree Kini</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
@@ -3810,40 +3810,40 @@
       </c>
       <c r="C66" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D66" s="4" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>Computer Networks</t>
+          <t xml:space="preserve">Statistics </t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G66" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H66" s="4" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="I66" s="4" t="n">
-        <v>70</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagdish D.N</t>
+          <t>Dr. Jagdeesh DN</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
@@ -3853,7 +3853,7 @@
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D67" s="4" t="inlineStr">
@@ -3868,7 +3868,7 @@
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G67" s="4" t="n">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="H67" s="4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="I67" s="4" t="n">
@@ -3886,7 +3886,7 @@
     <row r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>Dr. Krishnendu</t>
+          <t>Dr. Shirshendu Layek</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
@@ -3896,7 +3896,7 @@
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D68" s="4" t="inlineStr">
@@ -3919,7 +3919,7 @@
       </c>
       <c r="H68" s="4" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="I68" s="4" t="n">
@@ -3929,7 +3929,7 @@
     <row r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>Dr. Rajendra H</t>
+          <t>Dr. Suvadip H</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
@@ -3939,7 +3939,7 @@
       </c>
       <c r="C69" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D69" s="4" t="inlineStr">
@@ -3962,7 +3962,7 @@
       </c>
       <c r="H69" s="4" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>C407</t>
         </is>
       </c>
       <c r="I69" s="4" t="n">
@@ -3972,7 +3972,7 @@
     <row r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>Dr.Anushree Kini</t>
+          <t>Dr. Rajendra H</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
@@ -3982,7 +3982,7 @@
       </c>
       <c r="C70" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D70" s="4" t="inlineStr">
@@ -4005,7 +4005,7 @@
       </c>
       <c r="H70" s="4" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="I70" s="4" t="n">
@@ -4015,7 +4015,7 @@
     <row r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>Dr. Manjuth KV</t>
+          <t>Dr.Ramesh Athe</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
@@ -4025,17 +4025,17 @@
       </c>
       <c r="C71" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D71" s="4" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>HSS/IE</t>
         </is>
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Statistics </t>
+          <t>Leadreship I</t>
         </is>
       </c>
       <c r="F71" s="4" t="inlineStr">
@@ -4044,21 +4044,21 @@
         </is>
       </c>
       <c r="G71" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H71" s="4" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="I71" s="4" t="n">
-        <v>215</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pramod Yelmewad</t>
+          <t>Dr. Sunil PV</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
@@ -4068,17 +4068,17 @@
       </c>
       <c r="C72" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D72" s="4" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Statistics </t>
+          <t>Computer Communication Networks</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
@@ -4087,21 +4087,21 @@
         </is>
       </c>
       <c r="G72" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H72" s="4" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L307</t>
         </is>
       </c>
       <c r="I72" s="4" t="n">
-        <v>215</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>Dr. Suvadip H</t>
+          <t>Dr. Sunil PV</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="C73" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D73" s="4" t="inlineStr">
@@ -4121,7 +4121,7 @@
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>Leadreship I</t>
+          <t>Holistic Personality Development</t>
         </is>
       </c>
       <c r="F73" s="4" t="inlineStr">
@@ -4134,7 +4134,7 @@
       </c>
       <c r="H73" s="4" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="I73" s="4" t="n">
@@ -4144,7 +4144,7 @@
     <row r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>Dr. Siddharth</t>
+          <t>Dr.Animesh Chaturvedi</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
@@ -4154,40 +4154,40 @@
       </c>
       <c r="C74" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D74" s="4" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>B1-HS156</t>
         </is>
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>Computer Communication Networks</t>
+          <t>Holistic Personality Development</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G74" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H74" s="4" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C405</t>
         </is>
       </c>
       <c r="I74" s="4" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sibasankar Padhy</t>
+          <t>Dr. Pramod Yelmewad</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="C75" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D75" s="4" t="inlineStr">
@@ -4207,7 +4207,7 @@
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>Holistic Personality Development</t>
+          <t>Neuro-Linguistic Programming(NLP)</t>
         </is>
       </c>
       <c r="F75" s="4" t="inlineStr">
@@ -4220,7 +4220,7 @@
       </c>
       <c r="H75" s="4" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>C406</t>
         </is>
       </c>
       <c r="I75" s="4" t="n">
@@ -4230,7 +4230,7 @@
     <row r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>Dr.Shirshendu Layek</t>
+          <t>Dr.Rajesh N S</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
@@ -4240,30 +4240,30 @@
       </c>
       <c r="C76" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D76" s="4" t="inlineStr">
         <is>
-          <t>B1-HS156</t>
+          <t>HSS/IE</t>
         </is>
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>Holistic Personality Development</t>
+          <t>Social Imapct of Technology</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G76" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H76" s="4" t="inlineStr">
         <is>
-          <t>C408</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="I76" s="4" t="n">
@@ -4273,7 +4273,7 @@
     <row r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>Dr Ramesh Athe</t>
+          <t>Dr. Ashwath Babu</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
@@ -4283,17 +4283,17 @@
       </c>
       <c r="C77" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D77" s="4" t="inlineStr">
         <is>
-          <t>HSS/IE</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>Neuro-Linguistic Programming(NLP)</t>
+          <t>Statistical programing</t>
         </is>
       </c>
       <c r="F77" s="4" t="inlineStr">
@@ -4306,17 +4306,17 @@
       </c>
       <c r="H77" s="4" t="inlineStr">
         <is>
-          <t>C407</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="I77" s="4" t="n">
-        <v>70</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>Dr. Dibyajoti Guha</t>
+          <t>Dr. Chandrika Kamath</t>
         </is>
       </c>
       <c r="B78" s="4" t="inlineStr">
@@ -4326,7 +4326,7 @@
       </c>
       <c r="C78" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D78" s="4" t="inlineStr">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="E78" s="4" t="inlineStr">
         <is>
-          <t>Social Imapct of Technology</t>
+          <t>Sociology for Innovation</t>
         </is>
       </c>
       <c r="F78" s="4" t="inlineStr">
@@ -4349,7 +4349,7 @@
       </c>
       <c r="H78" s="4" t="inlineStr">
         <is>
-          <t>C406</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="I78" s="4" t="n">
@@ -4359,7 +4359,7 @@
     <row r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>Dr. Manjuth KV</t>
+          <t>Dr. Ashwath Babu</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
@@ -4369,40 +4369,40 @@
       </c>
       <c r="C79" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D79" s="4" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>B1-HS156</t>
         </is>
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>Statistical programing</t>
+          <t>Holistic Personality Development</t>
         </is>
       </c>
       <c r="F79" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G79" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H79" s="4" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L208</t>
         </is>
       </c>
       <c r="I79" s="4" t="n">
-        <v>15</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="4" t="inlineStr">
         <is>
-          <t>Dr.Ramesh Athe</t>
+          <t>Dr. Chandrika Kamat</t>
         </is>
       </c>
       <c r="B80" s="4" t="inlineStr">
@@ -4412,17 +4412,17 @@
       </c>
       <c r="C80" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D80" s="4" t="inlineStr">
         <is>
-          <t>HSS/IE</t>
+          <t>B1-HS156</t>
         </is>
       </c>
       <c r="E80" s="4" t="inlineStr">
         <is>
-          <t>Sociology for Innovation</t>
+          <t>Holistic Personality Development</t>
         </is>
       </c>
       <c r="F80" s="4" t="inlineStr">
@@ -4431,11 +4431,11 @@
         </is>
       </c>
       <c r="G80" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H80" s="4" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>L308</t>
         </is>
       </c>
       <c r="I80" s="4" t="n">
@@ -4445,7 +4445,7 @@
     <row r="81">
       <c r="A81" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pavan Kumar</t>
+          <t>Dr. Chandrika Kamat</t>
         </is>
       </c>
       <c r="B81" s="4" t="inlineStr">
@@ -4455,17 +4455,17 @@
       </c>
       <c r="C81" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D81" s="4" t="inlineStr">
         <is>
-          <t>B1-HS156</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>Holistic Personality Development</t>
+          <t xml:space="preserve">Statistics </t>
         </is>
       </c>
       <c r="F81" s="4" t="inlineStr">
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="I81" s="4" t="n">
-        <v>70</v>
+        <v>215</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pramod Yelmewad</t>
+          <t>Dr. Chinmayananda</t>
         </is>
       </c>
       <c r="B82" s="4" t="inlineStr">
@@ -4498,22 +4498,22 @@
       </c>
       <c r="C82" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D82" s="4" t="inlineStr">
         <is>
-          <t>B1-HS156</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="E82" s="4" t="inlineStr">
         <is>
-          <t>Holistic Personality Development</t>
+          <t xml:space="preserve">Statistics </t>
         </is>
       </c>
       <c r="F82" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G82" s="4" t="n">
@@ -4521,17 +4521,17 @@
       </c>
       <c r="H82" s="4" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="I82" s="4" t="n">
-        <v>70</v>
+        <v>215</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="4" t="inlineStr">
         <is>
-          <t>Dr. Suvadip H</t>
+          <t>Dr. Utkarsh Khaire</t>
         </is>
       </c>
       <c r="B83" s="4" t="inlineStr">
@@ -4541,7 +4541,7 @@
       </c>
       <c r="C83" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D83" s="4" t="inlineStr">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="H83" s="4" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="I83" s="4" t="n">
@@ -4574,93 +4574,93 @@
     <row r="84">
       <c r="A84" s="4" t="inlineStr">
         <is>
-          <t>Dr. Ashwath Babu &amp; Prof. Ravi Shankar</t>
+          <t>Dr. Anand B</t>
         </is>
       </c>
       <c r="B84" s="4" t="inlineStr">
         <is>
-          <t>23-Nov-2025</t>
+          <t>24-Nov-2025</t>
         </is>
       </c>
       <c r="C84" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D84" s="4" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>B1-DS301</t>
         </is>
       </c>
       <c r="E84" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Statistics </t>
+          <t>Graphs and social networks</t>
         </is>
       </c>
       <c r="F84" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G84" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H84" s="4" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C408</t>
         </is>
       </c>
       <c r="I84" s="4" t="n">
-        <v>215</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sibasankar Padhy</t>
+          <t>Dr. Deepak K.T</t>
         </is>
       </c>
       <c r="B85" s="4" t="inlineStr">
         <is>
-          <t>23-Nov-2025</t>
+          <t>24-Nov-2025</t>
         </is>
       </c>
       <c r="C85" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D85" s="4" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>B3-CS468</t>
         </is>
       </c>
       <c r="E85" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Statistics </t>
+          <t>Information Retrival</t>
         </is>
       </c>
       <c r="F85" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G85" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H85" s="4" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C407</t>
         </is>
       </c>
       <c r="I85" s="4" t="n">
-        <v>215</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="4" t="inlineStr">
         <is>
-          <t>Dr. Rajesh Kumar</t>
+          <t>Dr. Anand P Barangi</t>
         </is>
       </c>
       <c r="B86" s="4" t="inlineStr">
@@ -4670,26 +4670,26 @@
       </c>
       <c r="C86" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D86" s="4" t="inlineStr">
         <is>
-          <t>B1-DS301</t>
+          <t>B3-DS458</t>
         </is>
       </c>
       <c r="E86" s="4" t="inlineStr">
         <is>
-          <t>Graphs and social networks</t>
+          <t>Agentic AI</t>
         </is>
       </c>
       <c r="F86" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G86" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H86" s="4" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
     <row r="87">
       <c r="A87" s="4" t="inlineStr">
         <is>
-          <t>Dr. Siddharth</t>
+          <t>Dr. Suvadip H</t>
         </is>
       </c>
       <c r="B87" s="4" t="inlineStr">
@@ -4713,22 +4713,22 @@
       </c>
       <c r="C87" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D87" s="4" t="inlineStr">
         <is>
-          <t>B3-CS468</t>
+          <t>B3-DS458</t>
         </is>
       </c>
       <c r="E87" s="4" t="inlineStr">
         <is>
-          <t>Information Retrival</t>
+          <t>Agentic AI</t>
         </is>
       </c>
       <c r="F87" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G87" s="4" t="n">
@@ -4746,7 +4746,7 @@
     <row r="88">
       <c r="A88" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagdeesh DN</t>
+          <t>Dr. Girirsh GN</t>
         </is>
       </c>
       <c r="B88" s="4" t="inlineStr">
@@ -4756,7 +4756,7 @@
       </c>
       <c r="C88" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D88" s="4" t="inlineStr">
@@ -4771,7 +4771,7 @@
       </c>
       <c r="F88" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G88" s="4" t="n">
@@ -4789,7 +4789,7 @@
     <row r="89">
       <c r="A89" s="4" t="inlineStr">
         <is>
-          <t>Dr. Anushree Kini</t>
+          <t>Dr. Girirsh Revadigar</t>
         </is>
       </c>
       <c r="B89" s="4" t="inlineStr">
@@ -4799,17 +4799,17 @@
       </c>
       <c r="C89" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D89" s="4" t="inlineStr">
         <is>
-          <t>B3-DS458</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="E89" s="4" t="inlineStr">
         <is>
-          <t>Agentic AI</t>
+          <t>Economics / IET</t>
         </is>
       </c>
       <c r="F89" s="4" t="inlineStr">
@@ -4818,11 +4818,11 @@
         </is>
       </c>
       <c r="G89" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H89" s="4" t="inlineStr">
         <is>
-          <t>C408</t>
+          <t>C405</t>
         </is>
       </c>
       <c r="I89" s="4" t="n">
@@ -4832,7 +4832,7 @@
     <row r="90">
       <c r="A90" s="4" t="inlineStr">
         <is>
-          <t>Prof. SRM Prasanna</t>
+          <t>Dr. Prabhu Prasad</t>
         </is>
       </c>
       <c r="B90" s="4" t="inlineStr">
@@ -4842,17 +4842,17 @@
       </c>
       <c r="C90" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D90" s="4" t="inlineStr">
         <is>
-          <t>B3-DS458</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="E90" s="4" t="inlineStr">
         <is>
-          <t>Agentic AI</t>
+          <t>Economics / IET</t>
         </is>
       </c>
       <c r="F90" s="4" t="inlineStr">
@@ -4861,11 +4861,11 @@
         </is>
       </c>
       <c r="G90" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H90" s="4" t="inlineStr">
         <is>
-          <t>C407</t>
+          <t>C406</t>
         </is>
       </c>
       <c r="I90" s="4" t="n">
@@ -4875,7 +4875,7 @@
     <row r="91">
       <c r="A91" s="4" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Dr. Girirsh Revadigar</t>
         </is>
       </c>
       <c r="B91" s="4" t="inlineStr">
@@ -4885,7 +4885,7 @@
       </c>
       <c r="C91" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D91" s="4" t="inlineStr">
@@ -4895,12 +4895,12 @@
       </c>
       <c r="E91" s="4" t="inlineStr">
         <is>
-          <t>Economics / IET</t>
+          <t>English Language and Communication</t>
         </is>
       </c>
       <c r="F91" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G91" s="4" t="n">
@@ -4908,17 +4908,17 @@
       </c>
       <c r="H91" s="4" t="inlineStr">
         <is>
-          <t>C406</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="I91" s="4" t="n">
-        <v>70</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="4" t="inlineStr">
         <is>
-          <t>Dr. Somen Bhattacharjee</t>
+          <t>Dr. Jagadeesha R Bhat</t>
         </is>
       </c>
       <c r="B92" s="4" t="inlineStr">
@@ -4928,30 +4928,30 @@
       </c>
       <c r="C92" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D92" s="4" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>B1-DS301</t>
         </is>
       </c>
       <c r="E92" s="4" t="inlineStr">
         <is>
-          <t>Economics / IET</t>
+          <t>Graphs and social networks</t>
         </is>
       </c>
       <c r="F92" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G92" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H92" s="4" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>L307</t>
         </is>
       </c>
       <c r="I92" s="4" t="n">
@@ -4961,7 +4961,7 @@
     <row r="93">
       <c r="A93" s="4" t="inlineStr">
         <is>
-          <t>Dr. Rajendra H</t>
+          <t>Dr. Krishnendu</t>
         </is>
       </c>
       <c r="B93" s="4" t="inlineStr">
@@ -4971,40 +4971,40 @@
       </c>
       <c r="C93" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D93" s="4" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>B1-DS301</t>
         </is>
       </c>
       <c r="E93" s="4" t="inlineStr">
         <is>
-          <t>English Language and Communication</t>
+          <t>Graphs and social networks</t>
         </is>
       </c>
       <c r="F93" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G93" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H93" s="4" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="I93" s="4" t="n">
-        <v>107</v>
+        <v>70</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagdish R.B</t>
+          <t>Dr Ramesh Athe</t>
         </is>
       </c>
       <c r="B94" s="4" t="inlineStr">
@@ -5014,17 +5014,17 @@
       </c>
       <c r="C94" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D94" s="4" t="inlineStr">
         <is>
-          <t>B1-DS301</t>
+          <t>B4-EC463</t>
         </is>
       </c>
       <c r="E94" s="4" t="inlineStr">
         <is>
-          <t>Graphs and social networks</t>
+          <t>Energy Efficient Neural Networks</t>
         </is>
       </c>
       <c r="F94" s="4" t="inlineStr">
@@ -5033,11 +5033,11 @@
         </is>
       </c>
       <c r="G94" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H94" s="4" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="I94" s="4" t="n">
@@ -5047,7 +5047,7 @@
     <row r="95">
       <c r="A95" s="4" t="inlineStr">
         <is>
-          <t>Dr.Animesh Chaturvedi</t>
+          <t>Dr. Prakash Pawar</t>
         </is>
       </c>
       <c r="B95" s="4" t="inlineStr">
@@ -5057,17 +5057,17 @@
       </c>
       <c r="C95" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D95" s="4" t="inlineStr">
         <is>
-          <t>B1-DS301</t>
+          <t>B3-CS468</t>
         </is>
       </c>
       <c r="E95" s="4" t="inlineStr">
         <is>
-          <t>Graphs and social networks</t>
+          <t>Information Retrival</t>
         </is>
       </c>
       <c r="F95" s="4" t="inlineStr">
@@ -5076,11 +5076,11 @@
         </is>
       </c>
       <c r="G95" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H95" s="4" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="I95" s="4" t="n">
@@ -5090,7 +5090,7 @@
     <row r="96">
       <c r="A96" s="4" t="inlineStr">
         <is>
-          <t>Dr. Shirshendu Layek</t>
+          <t>Dr. Sunil CK</t>
         </is>
       </c>
       <c r="B96" s="4" t="inlineStr">
@@ -5100,17 +5100,17 @@
       </c>
       <c r="C96" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D96" s="4" t="inlineStr">
         <is>
-          <t>B4-EC463</t>
+          <t>B3-CS468</t>
         </is>
       </c>
       <c r="E96" s="4" t="inlineStr">
         <is>
-          <t>Energy Efficient Neural Networks</t>
+          <t>Information Retrival</t>
         </is>
       </c>
       <c r="F96" s="4" t="inlineStr">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="H96" s="4" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L208</t>
         </is>
       </c>
       <c r="I96" s="4" t="n">
@@ -5133,7 +5133,7 @@
     <row r="97">
       <c r="A97" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sibasankar Padhy</t>
+          <t>Dr.Rajesh Kumar</t>
         </is>
       </c>
       <c r="B97" s="4" t="inlineStr">
@@ -5143,22 +5143,22 @@
       </c>
       <c r="C97" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D97" s="4" t="inlineStr">
         <is>
-          <t>B3-CS468</t>
+          <t>B4-EC463</t>
         </is>
       </c>
       <c r="E97" s="4" t="inlineStr">
         <is>
-          <t>Information Retrival</t>
+          <t>Energy Efficient Neural Networks</t>
         </is>
       </c>
       <c r="F97" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G97" s="4" t="n">
@@ -5166,7 +5166,7 @@
       </c>
       <c r="H97" s="4" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L308</t>
         </is>
       </c>
       <c r="I97" s="4" t="n">
@@ -5176,7 +5176,7 @@
     <row r="98">
       <c r="A98" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sunil CK</t>
+          <t>Dr.Jagadeesha R Bhat</t>
         </is>
       </c>
       <c r="B98" s="4" t="inlineStr">
@@ -5186,22 +5186,22 @@
       </c>
       <c r="C98" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D98" s="4" t="inlineStr">
         <is>
-          <t>B3-CS468</t>
+          <t>B4-EC463</t>
         </is>
       </c>
       <c r="E98" s="4" t="inlineStr">
         <is>
-          <t>Information Retrival</t>
+          <t>Energy Efficient Neural Networks</t>
         </is>
       </c>
       <c r="F98" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G98" s="4" t="n">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="H98" s="4" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="I98" s="4" t="n">
@@ -5219,75 +5219,75 @@
     <row r="99">
       <c r="A99" s="4" t="inlineStr">
         <is>
-          <t>Dr. Girish Revadigar</t>
+          <t>Dr. Ashwath Babu</t>
         </is>
       </c>
       <c r="B99" s="4" t="inlineStr">
         <is>
-          <t>24-Nov-2025</t>
+          <t>25-Nov-2025</t>
         </is>
       </c>
       <c r="C99" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D99" s="4" t="inlineStr">
         <is>
-          <t>B4-EC463</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="E99" s="4" t="inlineStr">
         <is>
-          <t>Energy Efficient Neural Networks</t>
+          <t>Differential Equation</t>
         </is>
       </c>
       <c r="F99" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G99" s="4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H99" s="4" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="I99" s="4" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="4" t="inlineStr">
         <is>
-          <t>Dr. Anand B</t>
+          <t>Dr. Aswath Babu</t>
         </is>
       </c>
       <c r="B100" s="4" t="inlineStr">
         <is>
-          <t>24-Nov-2025</t>
+          <t>25-Nov-2025</t>
         </is>
       </c>
       <c r="C100" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D100" s="4" t="inlineStr">
         <is>
-          <t>B4-EC463</t>
+          <t>B1-DS401</t>
         </is>
       </c>
       <c r="E100" s="4" t="inlineStr">
         <is>
-          <t>Energy Efficient Neural Networks</t>
+          <t>Health Care Data Analytics</t>
         </is>
       </c>
       <c r="F100" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G100" s="4" t="n">
@@ -5295,17 +5295,17 @@
       </c>
       <c r="H100" s="4" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="I100" s="4" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="4" t="inlineStr">
         <is>
-          <t>Dr. Chinmayananda</t>
+          <t>Dr. Sunil Saumya</t>
         </is>
       </c>
       <c r="B101" s="4" t="inlineStr">
@@ -5315,22 +5315,22 @@
       </c>
       <c r="C101" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D101" s="4" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>B1-CS251</t>
         </is>
       </c>
       <c r="E101" s="4" t="inlineStr">
         <is>
-          <t>Differential Equation</t>
+          <t>2D Computer Graphics</t>
         </is>
       </c>
       <c r="F101" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G101" s="4" t="n">
@@ -5338,17 +5338,17 @@
       </c>
       <c r="H101" s="4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="I101" s="4" t="n">
-        <v>170</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="4" t="inlineStr">
         <is>
-          <t>Dr. Dibyajyothi Guha</t>
+          <t>Dr. Prabhu Prasad</t>
         </is>
       </c>
       <c r="B102" s="4" t="inlineStr">
@@ -5358,17 +5358,17 @@
       </c>
       <c r="C102" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D102" s="4" t="inlineStr">
         <is>
-          <t>B1-DS401</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="E102" s="4" t="inlineStr">
         <is>
-          <t>Health Care Data Analytics</t>
+          <t>Statistics for Computer Science</t>
         </is>
       </c>
       <c r="F102" s="4" t="inlineStr">
@@ -5377,21 +5377,21 @@
         </is>
       </c>
       <c r="G102" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H102" s="4" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C408</t>
         </is>
       </c>
       <c r="I102" s="4" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="4" t="inlineStr">
         <is>
-          <t>Dr. Dibyajyothi Guha</t>
+          <t>Dr.Ramesh Athe</t>
         </is>
       </c>
       <c r="B103" s="4" t="inlineStr">
@@ -5401,40 +5401,40 @@
       </c>
       <c r="C103" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D103" s="4" t="inlineStr">
         <is>
-          <t>B1-CS251</t>
+          <t>B2-EC355</t>
         </is>
       </c>
       <c r="E103" s="4" t="inlineStr">
         <is>
-          <t>2D Computer Graphics</t>
+          <t>Internet of Things</t>
         </is>
       </c>
       <c r="F103" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G103" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H103" s="4" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>C407</t>
         </is>
       </c>
       <c r="I103" s="4" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="4" t="inlineStr">
         <is>
-          <t>Dr.Animesh chaturvedi</t>
+          <t>Dr.Ramesh Athe</t>
         </is>
       </c>
       <c r="B104" s="4" t="inlineStr">
@@ -5444,22 +5444,22 @@
       </c>
       <c r="C104" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D104" s="4" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>B2-EC355</t>
         </is>
       </c>
       <c r="E104" s="4" t="inlineStr">
         <is>
-          <t>Statistics for Computer Science</t>
+          <t>Internet of Things</t>
         </is>
       </c>
       <c r="F104" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G104" s="4" t="n">
@@ -5477,7 +5477,7 @@
     <row r="105">
       <c r="A105" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagdish R.B</t>
+          <t>Dr. Malay</t>
         </is>
       </c>
       <c r="B105" s="4" t="inlineStr">
@@ -5487,40 +5487,40 @@
       </c>
       <c r="C105" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D105" s="4" t="inlineStr">
         <is>
-          <t>B2-EC355</t>
+          <t>B1-DS401</t>
         </is>
       </c>
       <c r="E105" s="4" t="inlineStr">
         <is>
-          <t>Internet of Things</t>
+          <t>Health Care Data Analytics</t>
         </is>
       </c>
       <c r="F105" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G105" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H105" s="4" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="I105" s="4" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="4" t="inlineStr">
         <is>
-          <t>Dr. Anand B</t>
+          <t>Dr. Dibyajyothi Guha</t>
         </is>
       </c>
       <c r="B106" s="4" t="inlineStr">
@@ -5530,40 +5530,40 @@
       </c>
       <c r="C106" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D106" s="4" t="inlineStr">
         <is>
-          <t>B2-EC355</t>
+          <t>B1-CS251</t>
         </is>
       </c>
       <c r="E106" s="4" t="inlineStr">
         <is>
-          <t>Internet of Things</t>
+          <t>2D Computer Graphics</t>
         </is>
       </c>
       <c r="F106" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G106" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H106" s="4" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="I106" s="4" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagdish D.N</t>
+          <t>Dr.Rajesh N S</t>
         </is>
       </c>
       <c r="B107" s="4" t="inlineStr">
@@ -5573,17 +5573,17 @@
       </c>
       <c r="C107" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D107" s="4" t="inlineStr">
         <is>
-          <t>B1-DS401</t>
+          <t>B2-EC355</t>
         </is>
       </c>
       <c r="E107" s="4" t="inlineStr">
         <is>
-          <t>Health Care Data Analytics</t>
+          <t>Internet of Things</t>
         </is>
       </c>
       <c r="F107" s="4" t="inlineStr">
@@ -5592,21 +5592,21 @@
         </is>
       </c>
       <c r="G107" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H107" s="4" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="I107" s="4" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="4" t="inlineStr">
         <is>
-          <t>Dr. Prakash Pawar</t>
+          <t>Dr.Ramesh Athe</t>
         </is>
       </c>
       <c r="B108" s="4" t="inlineStr">
@@ -5616,22 +5616,22 @@
       </c>
       <c r="C108" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D108" s="4" t="inlineStr">
         <is>
-          <t>B1-CS251</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="E108" s="4" t="inlineStr">
         <is>
-          <t>2D Computer Graphics</t>
+          <t>Differential Equation</t>
         </is>
       </c>
       <c r="F108" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G108" s="4" t="n">
@@ -5639,17 +5639,17 @@
       </c>
       <c r="H108" s="4" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="I108" s="4" t="n">
-        <v>30</v>
+        <v>170</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="4" t="inlineStr">
         <is>
-          <t>Dr. Anushree Kini</t>
+          <t>Dr. Malay</t>
         </is>
       </c>
       <c r="B109" s="4" t="inlineStr">
@@ -5659,17 +5659,17 @@
       </c>
       <c r="C109" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D109" s="4" t="inlineStr">
         <is>
-          <t>B2-EC355</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="E109" s="4" t="inlineStr">
         <is>
-          <t>Internet of Things</t>
+          <t>Differential Equation</t>
         </is>
       </c>
       <c r="F109" s="4" t="inlineStr">
@@ -5678,21 +5678,21 @@
         </is>
       </c>
       <c r="G109" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H109" s="4" t="inlineStr">
         <is>
-          <t>C408</t>
+          <t>C405</t>
         </is>
       </c>
       <c r="I109" s="4" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sunil CK</t>
+          <t>Dr. Somen Bhattacharjee</t>
         </is>
       </c>
       <c r="B110" s="4" t="inlineStr">
@@ -5702,7 +5702,7 @@
       </c>
       <c r="C110" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D110" s="4" t="inlineStr">
@@ -5725,7 +5725,7 @@
       </c>
       <c r="H110" s="4" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>C406</t>
         </is>
       </c>
       <c r="I110" s="4" t="n">
@@ -5735,7 +5735,7 @@
     <row r="111">
       <c r="A111" s="4" t="inlineStr">
         <is>
-          <t>Dr.Ramesh Athe</t>
+          <t>Dr.Sandesh</t>
         </is>
       </c>
       <c r="B111" s="4" t="inlineStr">
@@ -5745,7 +5745,7 @@
       </c>
       <c r="C111" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D111" s="4" t="inlineStr">
@@ -5755,12 +5755,12 @@
       </c>
       <c r="E111" s="4" t="inlineStr">
         <is>
-          <t>Differential Equation</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="F111" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G111" s="4" t="n">
@@ -5768,7 +5768,7 @@
       </c>
       <c r="H111" s="4" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>L307</t>
         </is>
       </c>
       <c r="I111" s="4" t="n">
@@ -5778,7 +5778,7 @@
     <row r="112">
       <c r="A112" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sandesh P</t>
+          <t>Dr. Girirsh GN</t>
         </is>
       </c>
       <c r="B112" s="4" t="inlineStr">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="C112" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D112" s="4" t="inlineStr">
@@ -5798,12 +5798,12 @@
       </c>
       <c r="E112" s="4" t="inlineStr">
         <is>
-          <t>Differential Equation</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="F112" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G112" s="4" t="n">
@@ -5811,7 +5811,7 @@
       </c>
       <c r="H112" s="4" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="I112" s="4" t="n">
@@ -5821,7 +5821,7 @@
     <row r="113">
       <c r="A113" s="4" t="inlineStr">
         <is>
-          <t>Dr. Manjuth KV</t>
+          <t>Dr. Suvadip H</t>
         </is>
       </c>
       <c r="B113" s="4" t="inlineStr">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="C113" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D113" s="4" t="inlineStr">
@@ -5841,12 +5841,12 @@
       </c>
       <c r="E113" s="4" t="inlineStr">
         <is>
-          <t>Differential Equation</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="F113" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G113" s="4" t="n">
@@ -5854,7 +5854,7 @@
       </c>
       <c r="H113" s="4" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="I113" s="4" t="n">
@@ -5864,7 +5864,7 @@
     <row r="114">
       <c r="A114" s="4" t="inlineStr">
         <is>
-          <t>Dr.Ramesh Athe</t>
+          <t>Dr. Chandrika Kamath</t>
         </is>
       </c>
       <c r="B114" s="4" t="inlineStr">
@@ -5874,17 +5874,17 @@
       </c>
       <c r="C114" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D114" s="4" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="E114" s="4" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Digital Signal Processing</t>
         </is>
       </c>
       <c r="F114" s="4" t="inlineStr">
@@ -5893,21 +5893,21 @@
         </is>
       </c>
       <c r="G114" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H114" s="4" t="inlineStr">
         <is>
-          <t>C407</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="I114" s="4" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagadeesha R Bhat</t>
+          <t>Dr.Jagadeesha R Bhat</t>
         </is>
       </c>
       <c r="B115" s="4" t="inlineStr">
@@ -5917,17 +5917,17 @@
       </c>
       <c r="C115" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D115" s="4" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="E115" s="4" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Semiconductor Devices</t>
         </is>
       </c>
       <c r="F115" s="4" t="inlineStr">
@@ -5940,17 +5940,17 @@
       </c>
       <c r="H115" s="4" t="inlineStr">
         <is>
-          <t>C406</t>
+          <t>L208</t>
         </is>
       </c>
       <c r="I115" s="4" t="n">
-        <v>170</v>
+        <v>66</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="4" t="inlineStr">
         <is>
-          <t>Dr. Girirsh GN</t>
+          <t>Dr. Jagdish R.B</t>
         </is>
       </c>
       <c r="B116" s="4" t="inlineStr">
@@ -5960,17 +5960,17 @@
       </c>
       <c r="C116" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D116" s="4" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>B1-DS401</t>
         </is>
       </c>
       <c r="E116" s="4" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Health Care Data Analytics</t>
         </is>
       </c>
       <c r="F116" s="4" t="inlineStr">
@@ -5979,21 +5979,21 @@
         </is>
       </c>
       <c r="G116" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H116" s="4" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>L308</t>
         </is>
       </c>
       <c r="I116" s="4" t="n">
-        <v>170</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="4" t="inlineStr">
         <is>
-          <t>Dr. Malay</t>
+          <t>Dr Ramesh Athe</t>
         </is>
       </c>
       <c r="B117" s="4" t="inlineStr">
@@ -6003,17 +6003,17 @@
       </c>
       <c r="C117" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D117" s="4" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>B1-DS401</t>
         </is>
       </c>
       <c r="E117" s="4" t="inlineStr">
         <is>
-          <t>Digital Signal Processing</t>
+          <t>Health Care Data Analytics</t>
         </is>
       </c>
       <c r="F117" s="4" t="inlineStr">
@@ -6022,21 +6022,21 @@
         </is>
       </c>
       <c r="G117" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H117" s="4" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="I117" s="4" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="4" t="inlineStr">
         <is>
-          <t>D. Rajesh Kumar</t>
+          <t>Dr. Jagadeesha R Bhat</t>
         </is>
       </c>
       <c r="B118" s="4" t="inlineStr">
@@ -6046,17 +6046,17 @@
       </c>
       <c r="C118" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D118" s="4" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>B1-CS251</t>
         </is>
       </c>
       <c r="E118" s="4" t="inlineStr">
         <is>
-          <t>Semiconductor Devices</t>
+          <t>2D Computer Graphics</t>
         </is>
       </c>
       <c r="F118" s="4" t="inlineStr">
@@ -6069,17 +6069,17 @@
       </c>
       <c r="H118" s="4" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="I118" s="4" t="n">
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="4" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Dr. Somen Bhattacharjee</t>
         </is>
       </c>
       <c r="B119" s="4" t="inlineStr">
@@ -6089,169 +6089,169 @@
       </c>
       <c r="C119" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D119" s="4" t="inlineStr">
         <is>
-          <t>B1-DS401</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="E119" s="4" t="inlineStr">
         <is>
-          <t>Health Care Data Analytics</t>
+          <t>Computer Networks</t>
         </is>
       </c>
       <c r="F119" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G119" s="4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H119" s="4" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="I119" s="4" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagadeesha R Bhat</t>
+          <t>Dr. Prakash Pawar</t>
         </is>
       </c>
       <c r="B120" s="4" t="inlineStr">
         <is>
-          <t>25-Nov-2025</t>
+          <t>26-Nov-2025</t>
         </is>
       </c>
       <c r="C120" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D120" s="4" t="inlineStr">
         <is>
-          <t>B1-DS401</t>
+          <t>B1-NEW</t>
         </is>
       </c>
       <c r="E120" s="4" t="inlineStr">
         <is>
-          <t>Health Care Data Analytics</t>
+          <t>Electronics System Engineering</t>
         </is>
       </c>
       <c r="F120" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G120" s="4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H120" s="4" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L307</t>
         </is>
       </c>
       <c r="I120" s="4" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="4" t="inlineStr">
         <is>
-          <t>Dr. Chandrika Kamat</t>
+          <t>Dr. Ramesh Athe</t>
         </is>
       </c>
       <c r="B121" s="4" t="inlineStr">
         <is>
-          <t>25-Nov-2025</t>
+          <t>26-Nov-2025</t>
         </is>
       </c>
       <c r="C121" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D121" s="4" t="inlineStr">
         <is>
-          <t>B1-CS251</t>
+          <t>B1-NEW</t>
         </is>
       </c>
       <c r="E121" s="4" t="inlineStr">
         <is>
-          <t>2D Computer Graphics</t>
+          <t>Kannada Kalinali</t>
         </is>
       </c>
       <c r="F121" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G121" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H121" s="4" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="I121" s="4" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="4" t="inlineStr">
         <is>
-          <t>Dr.Animesh Chaturvedi</t>
+          <t>Dr. Jagdish D.N</t>
         </is>
       </c>
       <c r="B122" s="4" t="inlineStr">
         <is>
-          <t>25-Nov-2025</t>
+          <t>26-Nov-2025</t>
         </is>
       </c>
       <c r="C122" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D122" s="4" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>B2-PH454</t>
         </is>
       </c>
       <c r="E122" s="4" t="inlineStr">
         <is>
-          <t>Computer Networks</t>
+          <t>Quantum AI+ Quantum Gen AI: Generative Models on Quantum Platform</t>
         </is>
       </c>
       <c r="F122" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G122" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H122" s="4" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C408</t>
         </is>
       </c>
       <c r="I122" s="4" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pankaj Kumar</t>
+          <t>Dr. Jagdish R.B</t>
         </is>
       </c>
       <c r="B123" s="4" t="inlineStr">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="C123" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D123" s="4" t="inlineStr">
@@ -6271,20 +6271,20 @@
       </c>
       <c r="E123" s="4" t="inlineStr">
         <is>
-          <t>Electronics System Engineering</t>
+          <t>Fundaments of Sensing and Control</t>
         </is>
       </c>
       <c r="F123" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G123" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H123" s="4" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="I123" s="4" t="n">
@@ -6294,7 +6294,7 @@
     <row r="124">
       <c r="A124" s="4" t="inlineStr">
         <is>
-          <t>Dr. Girirsh Revadigar</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="B124" s="4" t="inlineStr">
@@ -6304,7 +6304,7 @@
       </c>
       <c r="C124" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D124" s="4" t="inlineStr">
@@ -6314,12 +6314,12 @@
       </c>
       <c r="E124" s="4" t="inlineStr">
         <is>
-          <t>Kannada Kalinali</t>
+          <t>Basics of design</t>
         </is>
       </c>
       <c r="F124" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G124" s="4" t="n">
@@ -6327,17 +6327,17 @@
       </c>
       <c r="H124" s="4" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C407</t>
         </is>
       </c>
       <c r="I124" s="4" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="4" t="inlineStr">
         <is>
-          <t>Dr. Girirsh</t>
+          <t>Dr. Somen Bhattacharjee</t>
         </is>
       </c>
       <c r="B125" s="4" t="inlineStr">
@@ -6347,17 +6347,17 @@
       </c>
       <c r="C125" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D125" s="4" t="inlineStr">
         <is>
-          <t>B2-PH454</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="E125" s="4" t="inlineStr">
         <is>
-          <t>Quantum AI+ Quantum Gen AI: Generative Models on Quantum Platform</t>
+          <t>Introduction to VLSI Design</t>
         </is>
       </c>
       <c r="F125" s="4" t="inlineStr">
@@ -6366,21 +6366,21 @@
         </is>
       </c>
       <c r="G125" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H125" s="4" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="I125" s="4" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="4" t="inlineStr">
         <is>
-          <t>Dr. Girish Revadigar</t>
+          <t>Dr. Dibyajoti Guha</t>
         </is>
       </c>
       <c r="B126" s="4" t="inlineStr">
@@ -6390,40 +6390,40 @@
       </c>
       <c r="C126" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D126" s="4" t="inlineStr">
         <is>
-          <t>B1-NEW</t>
+          <t>B1-CS152</t>
         </is>
       </c>
       <c r="E126" s="4" t="inlineStr">
         <is>
-          <t>Fundaments of Sensing and Control</t>
+          <t>Data Science with Python</t>
         </is>
       </c>
       <c r="F126" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G126" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H126" s="4" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="I126" s="4" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="4" t="inlineStr">
         <is>
-          <t>Dr. Ashwath Babu</t>
+          <t>Dr. Prakash Pawar</t>
         </is>
       </c>
       <c r="B127" s="4" t="inlineStr">
@@ -6433,30 +6433,30 @@
       </c>
       <c r="C127" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D127" s="4" t="inlineStr">
         <is>
-          <t>B1-NEW</t>
+          <t>B2-PH454</t>
         </is>
       </c>
       <c r="E127" s="4" t="inlineStr">
         <is>
-          <t>Basics of design</t>
+          <t>Quantum AI+ Quantum Gen AI: Generative Models on Quantum Platform</t>
         </is>
       </c>
       <c r="F127" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G127" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H127" s="4" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="I127" s="4" t="n">
@@ -6466,7 +6466,7 @@
     <row r="128">
       <c r="A128" s="4" t="inlineStr">
         <is>
-          <t>Dr.Ramesh Athe</t>
+          <t>Dr. Sunil Saumya</t>
         </is>
       </c>
       <c r="B128" s="4" t="inlineStr">
@@ -6476,30 +6476,30 @@
       </c>
       <c r="C128" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D128" s="4" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>B1-NEW</t>
         </is>
       </c>
       <c r="E128" s="4" t="inlineStr">
         <is>
-          <t>Introduction to VLSI Design</t>
+          <t>Leveraging IT for social good</t>
         </is>
       </c>
       <c r="F128" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G128" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H128" s="4" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L208</t>
         </is>
       </c>
       <c r="I128" s="4" t="n">
@@ -6509,7 +6509,7 @@
     <row r="129">
       <c r="A129" s="4" t="inlineStr">
         <is>
-          <t>Dr. Chinmayananda</t>
+          <t>Dr. Jagdish R.B</t>
         </is>
       </c>
       <c r="B129" s="4" t="inlineStr">
@@ -6519,17 +6519,17 @@
       </c>
       <c r="C129" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D129" s="4" t="inlineStr">
         <is>
-          <t>B1-CS152</t>
+          <t>B1-NEW</t>
         </is>
       </c>
       <c r="E129" s="4" t="inlineStr">
         <is>
-          <t>Data Science with Python</t>
+          <t>Kannada Kalinali</t>
         </is>
       </c>
       <c r="F129" s="4" t="inlineStr">
@@ -6538,15 +6538,15 @@
         </is>
       </c>
       <c r="G129" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H129" s="4" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L308</t>
         </is>
       </c>
       <c r="I129" s="4" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="130">
@@ -6562,30 +6562,30 @@
       </c>
       <c r="C130" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D130" s="4" t="inlineStr">
         <is>
-          <t>B2-PH454</t>
+          <t>HS101</t>
         </is>
       </c>
       <c r="E130" s="4" t="inlineStr">
         <is>
-          <t>Quantum AI+ Quantum Gen AI: Generative Models on Quantum Platform</t>
+          <t>Environmental Studies</t>
         </is>
       </c>
       <c r="F130" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G130" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H130" s="4" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="I130" s="4" t="n">
@@ -6595,7 +6595,7 @@
     <row r="131">
       <c r="A131" s="4" t="inlineStr">
         <is>
-          <t>Dr. Girirsh Revadigar</t>
+          <t>Dr. Somen B</t>
         </is>
       </c>
       <c r="B131" s="4" t="inlineStr">
@@ -6605,7 +6605,7 @@
       </c>
       <c r="C131" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D131" s="4" t="inlineStr">
@@ -6620,7 +6620,7 @@
       </c>
       <c r="F131" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G131" s="4" t="n">
@@ -6628,7 +6628,7 @@
       </c>
       <c r="H131" s="4" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="I131" s="4" t="n">
@@ -6638,7 +6638,7 @@
     <row r="132">
       <c r="A132" s="4" t="inlineStr">
         <is>
-          <t>Dr. Somen Bhattacharjee</t>
+          <t>Dr. Sunil CK</t>
         </is>
       </c>
       <c r="B132" s="4" t="inlineStr">
@@ -6648,7 +6648,7 @@
       </c>
       <c r="C132" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D132" s="4" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="F132" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G132" s="4" t="n">
@@ -6671,7 +6671,7 @@
       </c>
       <c r="H132" s="4" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="I132" s="4" t="n">
@@ -6681,7 +6681,7 @@
     <row r="133">
       <c r="A133" s="4" t="inlineStr">
         <is>
-          <t>Dr.Anushree Kini</t>
+          <t>Dr. Pramod Yelmewad</t>
         </is>
       </c>
       <c r="B133" s="4" t="inlineStr">
@@ -6691,40 +6691,40 @@
       </c>
       <c r="C133" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D133" s="4" t="inlineStr">
         <is>
-          <t>HS101</t>
+          <t>B1-NEW</t>
         </is>
       </c>
       <c r="E133" s="4" t="inlineStr">
         <is>
-          <t>Environmental Studies</t>
+          <t>Electronics System Engineering</t>
         </is>
       </c>
       <c r="F133" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G133" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H133" s="4" t="inlineStr">
         <is>
-          <t>C408</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="I133" s="4" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="4" t="inlineStr">
         <is>
-          <t>Dr. Shirshendu Layek</t>
+          <t>Dr. Pankaj Kumar</t>
         </is>
       </c>
       <c r="B134" s="4" t="inlineStr">
@@ -6734,7 +6734,7 @@
       </c>
       <c r="C134" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D134" s="4" t="inlineStr">
@@ -6749,7 +6749,7 @@
       </c>
       <c r="F134" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G134" s="4" t="n">
@@ -6757,7 +6757,7 @@
       </c>
       <c r="H134" s="4" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="I134" s="4" t="n">
@@ -6767,7 +6767,7 @@
     <row r="135">
       <c r="A135" s="4" t="inlineStr">
         <is>
-          <t>Dr.Manjunath K V</t>
+          <t>Dr. Shirshendu Layek</t>
         </is>
       </c>
       <c r="B135" s="4" t="inlineStr">
@@ -6777,17 +6777,17 @@
       </c>
       <c r="C135" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D135" s="4" t="inlineStr">
         <is>
-          <t>B1-NEW</t>
+          <t>B1-CS152</t>
         </is>
       </c>
       <c r="E135" s="4" t="inlineStr">
         <is>
-          <t>Kannada Kalinali</t>
+          <t>Data Science with Python</t>
         </is>
       </c>
       <c r="F135" s="4" t="inlineStr">
@@ -6796,21 +6796,21 @@
         </is>
       </c>
       <c r="G135" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H135" s="4" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="I135" s="4" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="4" t="inlineStr">
         <is>
-          <t>Dr. Vivekraj</t>
+          <t>Dr.Utkarsh Khaire</t>
         </is>
       </c>
       <c r="B136" s="4" t="inlineStr">
@@ -6820,40 +6820,40 @@
       </c>
       <c r="C136" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D136" s="4" t="inlineStr">
         <is>
-          <t>B1-NEW</t>
+          <t>B2-PH454</t>
         </is>
       </c>
       <c r="E136" s="4" t="inlineStr">
         <is>
-          <t>Electronics System Engineering</t>
+          <t>Quantum AI+ Quantum Gen AI: Generative Models on Quantum Platform</t>
         </is>
       </c>
       <c r="F136" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G136" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H136" s="4" t="inlineStr">
         <is>
-          <t>C103</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="I136" s="4" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="4" t="inlineStr">
         <is>
-          <t>Dr. Girirsh Revadigar</t>
+          <t>Dr. Anand B</t>
         </is>
       </c>
       <c r="B137" s="4" t="inlineStr">
@@ -6863,17 +6863,17 @@
       </c>
       <c r="C137" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D137" s="4" t="inlineStr">
         <is>
-          <t>B1-NEW</t>
+          <t>B1-CS152</t>
         </is>
       </c>
       <c r="E137" s="4" t="inlineStr">
         <is>
-          <t>Leveraging IT for social good</t>
+          <t>Data Science with Python</t>
         </is>
       </c>
       <c r="F137" s="4" t="inlineStr">
@@ -6882,21 +6882,21 @@
         </is>
       </c>
       <c r="G137" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H137" s="4" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C405</t>
         </is>
       </c>
       <c r="I137" s="4" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="4" t="inlineStr">
         <is>
-          <t>Dr.Shirshendu Layek</t>
+          <t>Dr. Prakash Pawar</t>
         </is>
       </c>
       <c r="B138" s="4" t="inlineStr">
@@ -6906,17 +6906,17 @@
       </c>
       <c r="C138" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D138" s="4" t="inlineStr">
         <is>
-          <t>B1-CS152</t>
+          <t>B1-NEW</t>
         </is>
       </c>
       <c r="E138" s="4" t="inlineStr">
         <is>
-          <t>Data Science with Python</t>
+          <t>Fundaments of Sensing and Control</t>
         </is>
       </c>
       <c r="F138" s="4" t="inlineStr">
@@ -6925,21 +6925,21 @@
         </is>
       </c>
       <c r="G138" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H138" s="4" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="I138" s="4" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="4" t="inlineStr">
         <is>
-          <t>Dr.Animesh Chaturvedi</t>
+          <t>Dr. Deepak K.T</t>
         </is>
       </c>
       <c r="B139" s="4" t="inlineStr">
@@ -6949,30 +6949,30 @@
       </c>
       <c r="C139" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D139" s="4" t="inlineStr">
         <is>
-          <t>B2-PH454</t>
+          <t>B1-NEW</t>
         </is>
       </c>
       <c r="E139" s="4" t="inlineStr">
         <is>
-          <t>Quantum AI+ Quantum Gen AI: Generative Models on Quantum Platform</t>
+          <t>Basics of design</t>
         </is>
       </c>
       <c r="F139" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G139" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H139" s="4" t="inlineStr">
         <is>
-          <t>C407</t>
+          <t>C406</t>
         </is>
       </c>
       <c r="I139" s="4" t="n">
@@ -6982,7 +6982,7 @@
     <row r="140">
       <c r="A140" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sunil CK</t>
+          <t>Dr.Ramesh Athe</t>
         </is>
       </c>
       <c r="B140" s="4" t="inlineStr">
@@ -6992,17 +6992,17 @@
       </c>
       <c r="C140" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D140" s="4" t="inlineStr">
         <is>
-          <t>B1-CS152</t>
+          <t>B1-NEW</t>
         </is>
       </c>
       <c r="E140" s="4" t="inlineStr">
         <is>
-          <t>Data Science with Python</t>
+          <t>Electronics System Engineering</t>
         </is>
       </c>
       <c r="F140" s="4" t="inlineStr">
@@ -7015,17 +7015,17 @@
       </c>
       <c r="H140" s="4" t="inlineStr">
         <is>
-          <t>C406</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="I140" s="4" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="4" t="inlineStr">
         <is>
-          <t>Dr. Abdul Wahid</t>
+          <t>Dr. Somen Bhattacharjee</t>
         </is>
       </c>
       <c r="B141" s="4" t="inlineStr">
@@ -7035,17 +7035,17 @@
       </c>
       <c r="C141" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D141" s="4" t="inlineStr">
         <is>
-          <t>B1-NEW</t>
+          <t>HS261</t>
         </is>
       </c>
       <c r="E141" s="4" t="inlineStr">
         <is>
-          <t>Fundaments of Sensing and Control</t>
+          <t>Ethics</t>
         </is>
       </c>
       <c r="F141" s="4" t="inlineStr">
@@ -7054,21 +7054,21 @@
         </is>
       </c>
       <c r="G141" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H141" s="4" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="I141" s="4" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="4" t="inlineStr">
         <is>
-          <t>Dr. Chandrika Kamath</t>
+          <t>Dr. Vivekraj</t>
         </is>
       </c>
       <c r="B142" s="4" t="inlineStr">
@@ -7078,7 +7078,7 @@
       </c>
       <c r="C142" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D142" s="4" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="E142" s="4" t="inlineStr">
         <is>
-          <t>Basics of design</t>
+          <t>Fundaments of Sensing and Control</t>
         </is>
       </c>
       <c r="F142" s="4" t="inlineStr">
@@ -7101,17 +7101,17 @@
       </c>
       <c r="H142" s="4" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>C103</t>
         </is>
       </c>
       <c r="I142" s="4" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="4" t="inlineStr">
         <is>
-          <t>Dr. Somen Bhattacharjee</t>
+          <t>Dr. Jagdeesh DN</t>
         </is>
       </c>
       <c r="B143" s="4" t="inlineStr">
@@ -7121,7 +7121,7 @@
       </c>
       <c r="C143" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D143" s="4" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="E143" s="4" t="inlineStr">
         <is>
-          <t>Electronics System Engineering</t>
+          <t>Deep Speech Processing</t>
         </is>
       </c>
       <c r="F143" s="4" t="inlineStr">
@@ -7140,21 +7140,21 @@
         </is>
       </c>
       <c r="G143" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H143" s="4" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="I143" s="4" t="n">
-        <v>80</v>
+        <v>19</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sunil Saumya</t>
+          <t>Dr. Krishnendu</t>
         </is>
       </c>
       <c r="B144" s="4" t="inlineStr">
@@ -7164,103 +7164,103 @@
       </c>
       <c r="C144" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D144" s="4" t="inlineStr">
         <is>
-          <t>HS261</t>
+          <t>B1-NEW</t>
         </is>
       </c>
       <c r="E144" s="4" t="inlineStr">
         <is>
-          <t>Ethics</t>
+          <t>Basics of design</t>
         </is>
       </c>
       <c r="F144" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G144" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H144" s="4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="I144" s="4" t="n">
-        <v>170</v>
+        <v>70</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sibasankar Padhy</t>
+          <t>Dr. Girirsh Revadigar</t>
         </is>
       </c>
       <c r="B145" s="4" t="inlineStr">
         <is>
-          <t>26-Nov-2025</t>
+          <t>27-Nov-2025</t>
         </is>
       </c>
       <c r="C145" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D145" s="4" t="inlineStr">
         <is>
-          <t>B1-NEW</t>
+          <t>CS262</t>
         </is>
       </c>
       <c r="E145" s="4" t="inlineStr">
         <is>
-          <t>Fundaments of Sensing and Control</t>
+          <t>Software Desgin Tools and Techniques</t>
         </is>
       </c>
       <c r="F145" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G145" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H145" s="4" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="I145" s="4" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="4" t="inlineStr">
         <is>
-          <t>Dr. Chinmayananda</t>
+          <t>Dr. Rajesh Kumar</t>
         </is>
       </c>
       <c r="B146" s="4" t="inlineStr">
         <is>
-          <t>26-Nov-2025</t>
+          <t>27-Nov-2025</t>
         </is>
       </c>
       <c r="C146" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D146" s="4" t="inlineStr">
         <is>
-          <t>B1-NEW</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="E146" s="4" t="inlineStr">
         <is>
-          <t>Deep Speech Processing</t>
+          <t>Data Handaling and Visualization</t>
         </is>
       </c>
       <c r="F146" s="4" t="inlineStr">
@@ -7269,41 +7269,41 @@
         </is>
       </c>
       <c r="G146" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H146" s="4" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="I146" s="4" t="n">
-        <v>19</v>
+        <v>110</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="4" t="inlineStr">
         <is>
-          <t>Dr.Animesh Chaturvedi</t>
+          <t>Dr. Jagdish D.N</t>
         </is>
       </c>
       <c r="B147" s="4" t="inlineStr">
         <is>
-          <t>26-Nov-2025</t>
+          <t>27-Nov-2025</t>
         </is>
       </c>
       <c r="C147" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D147" s="4" t="inlineStr">
         <is>
-          <t>B1-NEW</t>
+          <t>B4-MA452</t>
         </is>
       </c>
       <c r="E147" s="4" t="inlineStr">
         <is>
-          <t>Basics of design</t>
+          <t>Operation Research</t>
         </is>
       </c>
       <c r="F147" s="4" t="inlineStr">
@@ -7312,11 +7312,11 @@
         </is>
       </c>
       <c r="G147" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H147" s="4" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C408</t>
         </is>
       </c>
       <c r="I147" s="4" t="n">
@@ -7326,7 +7326,7 @@
     <row r="148">
       <c r="A148" s="4" t="inlineStr">
         <is>
-          <t>Dr. Somen B</t>
+          <t>Dr. Ashwath Babu &amp; Prof. Ravi Shankar</t>
         </is>
       </c>
       <c r="B148" s="4" t="inlineStr">
@@ -7336,40 +7336,40 @@
       </c>
       <c r="C148" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D148" s="4" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="E148" s="4" t="inlineStr">
         <is>
-          <t>Software Desgin Tools and Techniques</t>
+          <t>Algorithms and Artificial Intelligence</t>
         </is>
       </c>
       <c r="F148" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G148" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H148" s="4" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L307</t>
         </is>
       </c>
       <c r="I148" s="4" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="4" t="inlineStr">
         <is>
-          <t>Dr. Manjuth KV</t>
+          <t>Dr. Malay</t>
         </is>
       </c>
       <c r="B149" s="4" t="inlineStr">
@@ -7379,30 +7379,30 @@
       </c>
       <c r="C149" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D149" s="4" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>B1-DS456</t>
         </is>
       </c>
       <c r="E149" s="4" t="inlineStr">
         <is>
-          <t>Data Handaling and Visualization</t>
+          <t>CyberSecurity Techniques</t>
         </is>
       </c>
       <c r="F149" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G149" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H149" s="4" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="I149" s="4" t="n">
@@ -7412,7 +7412,7 @@
     <row r="150">
       <c r="A150" s="4" t="inlineStr">
         <is>
-          <t>Dr. Deepak K.T</t>
+          <t>Dr. Girirsh</t>
         </is>
       </c>
       <c r="B150" s="4" t="inlineStr">
@@ -7422,7 +7422,7 @@
       </c>
       <c r="C150" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D150" s="4" t="inlineStr">
@@ -7437,7 +7437,7 @@
       </c>
       <c r="F150" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G150" s="4" t="n">
@@ -7445,7 +7445,7 @@
       </c>
       <c r="H150" s="4" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>C407</t>
         </is>
       </c>
       <c r="I150" s="4" t="n">
@@ -7455,7 +7455,7 @@
     <row r="151">
       <c r="A151" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pavan Kumar</t>
+          <t>Dr. Ashwath Babu &amp; Prof. Ravi Shankar</t>
         </is>
       </c>
       <c r="B151" s="4" t="inlineStr">
@@ -7465,40 +7465,40 @@
       </c>
       <c r="C151" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D151" s="4" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>B1-DS456</t>
         </is>
       </c>
       <c r="E151" s="4" t="inlineStr">
         <is>
-          <t>Algorithms and Artificial Intelligence</t>
+          <t>CyberSecurity Techniques</t>
         </is>
       </c>
       <c r="F151" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G151" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H151" s="4" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="I151" s="4" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="4" t="inlineStr">
         <is>
-          <t>Dr. Suvadip H</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="B152" s="4" t="inlineStr">
@@ -7508,17 +7508,17 @@
       </c>
       <c r="C152" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D152" s="4" t="inlineStr">
         <is>
-          <t>B1-DS456</t>
+          <t>B4-MA452</t>
         </is>
       </c>
       <c r="E152" s="4" t="inlineStr">
         <is>
-          <t>CyberSecurity Techniques</t>
+          <t>Operation Research</t>
         </is>
       </c>
       <c r="F152" s="4" t="inlineStr">
@@ -7531,17 +7531,17 @@
       </c>
       <c r="H152" s="4" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="I152" s="4" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="4" t="inlineStr">
         <is>
-          <t>Dr.Anushree Kini</t>
+          <t>Dr. Jagdeesh DN</t>
         </is>
       </c>
       <c r="B153" s="4" t="inlineStr">
@@ -7551,22 +7551,22 @@
       </c>
       <c r="C153" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D153" s="4" t="inlineStr">
         <is>
-          <t>B4-MA452</t>
+          <t>B1-DS456</t>
         </is>
       </c>
       <c r="E153" s="4" t="inlineStr">
         <is>
-          <t>Operation Research</t>
+          <t>CyberSecurity Techniques</t>
         </is>
       </c>
       <c r="F153" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G153" s="4" t="n">
@@ -7574,17 +7574,17 @@
       </c>
       <c r="H153" s="4" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="I153" s="4" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="4" t="inlineStr">
         <is>
-          <t>Dr. Somen Bhattacharjee</t>
+          <t>Dr. Chandrika Kamat</t>
         </is>
       </c>
       <c r="B154" s="4" t="inlineStr">
@@ -7594,7 +7594,7 @@
       </c>
       <c r="C154" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D154" s="4" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="F154" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G154" s="4" t="n">
@@ -7617,7 +7617,7 @@
       </c>
       <c r="H154" s="4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="I154" s="4" t="n">
@@ -7627,179 +7627,179 @@
     <row r="155">
       <c r="A155" s="4" t="inlineStr">
         <is>
-          <t>Dr. Ramesh Athe</t>
+          <t>Dr.Sandesh</t>
         </is>
       </c>
       <c r="B155" s="4" t="inlineStr">
         <is>
-          <t>27-Nov-2025</t>
+          <t>28-Nov-2025</t>
         </is>
       </c>
       <c r="C155" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D155" s="4" t="inlineStr">
         <is>
-          <t>B4-MA452</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="E155" s="4" t="inlineStr">
         <is>
-          <t>Operation Research</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="F155" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G155" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H155" s="4" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>L307</t>
         </is>
       </c>
       <c r="I155" s="4" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="4" t="inlineStr">
         <is>
-          <t>Dr. Dibyajyothi Guha</t>
+          <t>Dr. Sunil Saumya</t>
         </is>
       </c>
       <c r="B156" s="4" t="inlineStr">
         <is>
-          <t>27-Nov-2025</t>
+          <t>28-Nov-2025</t>
         </is>
       </c>
       <c r="C156" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D156" s="4" t="inlineStr">
         <is>
-          <t>B1-DS456</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="E156" s="4" t="inlineStr">
         <is>
-          <t>CyberSecurity Techniques</t>
+          <t>Multivariate Calculus</t>
         </is>
       </c>
       <c r="F156" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G156" s="4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H156" s="4" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="I156" s="4" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="4" t="inlineStr">
         <is>
-          <t>Dr. Chandrika Kamath</t>
+          <t>Dr. Ashwath Babu</t>
         </is>
       </c>
       <c r="B157" s="4" t="inlineStr">
         <is>
-          <t>27-Nov-2025</t>
+          <t>28-Nov-2025</t>
         </is>
       </c>
       <c r="C157" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D157" s="4" t="inlineStr">
         <is>
-          <t>B1-DS456</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="E157" s="4" t="inlineStr">
         <is>
-          <t>CyberSecurity Techniques</t>
+          <t>Artificial Intelligence</t>
         </is>
       </c>
       <c r="F157" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G157" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H157" s="4" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>C408</t>
         </is>
       </c>
       <c r="I157" s="4" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pramod Yelmewad</t>
+          <t>Dr. Somen Bhattacharjee</t>
         </is>
       </c>
       <c r="B158" s="4" t="inlineStr">
         <is>
-          <t>27-Nov-2025</t>
+          <t>28-Nov-2025</t>
         </is>
       </c>
       <c r="C158" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D158" s="4" t="inlineStr">
         <is>
-          <t>B1-DS456</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="E158" s="4" t="inlineStr">
         <is>
-          <t>CyberSecurity Techniques</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="F158" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G158" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H158" s="4" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="I158" s="4" t="n">
-        <v>110</v>
+        <v>215</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pavan Kumar</t>
+          <t>Dr. Girirsh Revadigar</t>
         </is>
       </c>
       <c r="B159" s="4" t="inlineStr">
@@ -7809,40 +7809,40 @@
       </c>
       <c r="C159" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D159" s="4" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="E159" s="4" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="F159" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G159" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H159" s="4" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="I159" s="4" t="n">
-        <v>80</v>
+        <v>215</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="4" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Dr. Girirsh GN</t>
         </is>
       </c>
       <c r="B160" s="4" t="inlineStr">
@@ -7852,40 +7852,40 @@
       </c>
       <c r="C160" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D160" s="4" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="E160" s="4" t="inlineStr">
         <is>
-          <t>Multivariate Calculus</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="F160" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G160" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H160" s="4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C407</t>
         </is>
       </c>
       <c r="I160" s="4" t="n">
-        <v>170</v>
+        <v>215</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="4" t="inlineStr">
         <is>
-          <t>Dr. Dibyajyothi Guha</t>
+          <t>Dr.Shirshendu Layek</t>
         </is>
       </c>
       <c r="B161" s="4" t="inlineStr">
@@ -7895,26 +7895,26 @@
       </c>
       <c r="C161" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D161" s="4" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="E161" s="4" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="F161" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G161" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H161" s="4" t="inlineStr">
         <is>
@@ -7922,13 +7922,13 @@
         </is>
       </c>
       <c r="I161" s="4" t="n">
-        <v>70</v>
+        <v>215</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="4" t="inlineStr">
         <is>
-          <t>Dr.Rajesh N S</t>
+          <t>Dr.Shirshendu Layek</t>
         </is>
       </c>
       <c r="B162" s="4" t="inlineStr">
@@ -7938,40 +7938,40 @@
       </c>
       <c r="C162" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D162" s="4" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="E162" s="4" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Multivariate Calculus</t>
         </is>
       </c>
       <c r="F162" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G162" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H162" s="4" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="I162" s="4" t="n">
-        <v>215</v>
+        <v>170</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="4" t="inlineStr">
         <is>
-          <t>Dr. Siddharth</t>
+          <t>Dr. Dibyajoti Guha</t>
         </is>
       </c>
       <c r="B163" s="4" t="inlineStr">
@@ -7981,40 +7981,40 @@
       </c>
       <c r="C163" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D163" s="4" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="E163" s="4" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Multivariate Calculus</t>
         </is>
       </c>
       <c r="F163" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G163" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H163" s="4" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="I163" s="4" t="n">
-        <v>215</v>
+        <v>170</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="4" t="inlineStr">
         <is>
-          <t>Dr. Somen B</t>
+          <t>Prof. SRM Prasanna</t>
         </is>
       </c>
       <c r="B164" s="4" t="inlineStr">
@@ -8024,40 +8024,40 @@
       </c>
       <c r="C164" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D164" s="4" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="E164" s="4" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Multivariate Calculus</t>
         </is>
       </c>
       <c r="F164" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G164" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H164" s="4" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>C405</t>
         </is>
       </c>
       <c r="I164" s="4" t="n">
-        <v>215</v>
+        <v>170</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sunil PV</t>
+          <t>Dr.Rajesh N S</t>
         </is>
       </c>
       <c r="B165" s="4" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="C165" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D165" s="4" t="inlineStr">
@@ -8082,7 +8082,7 @@
       </c>
       <c r="F165" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G165" s="4" t="n">
@@ -8090,7 +8090,7 @@
       </c>
       <c r="H165" s="4" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>C406</t>
         </is>
       </c>
       <c r="I165" s="4" t="n">
@@ -8100,7 +8100,7 @@
     <row r="166">
       <c r="A166" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sandesh P</t>
+          <t>Dr. Krishnendu</t>
         </is>
       </c>
       <c r="B166" s="4" t="inlineStr">
@@ -8110,7 +8110,7 @@
       </c>
       <c r="C166" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D166" s="4" t="inlineStr">
@@ -8125,7 +8125,7 @@
       </c>
       <c r="F166" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G166" s="4" t="n">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="H166" s="4" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="I166" s="4" t="n">
@@ -8143,7 +8143,7 @@
     <row r="167">
       <c r="A167" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sunil Saumya</t>
+          <t>Dr. Siddharth</t>
         </is>
       </c>
       <c r="B167" s="4" t="inlineStr">
@@ -8153,40 +8153,40 @@
       </c>
       <c r="C167" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D167" s="4" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="E167" s="4" t="inlineStr">
         <is>
-          <t>Multivariate Calculus</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="F167" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G167" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H167" s="4" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="I167" s="4" t="n">
-        <v>170</v>
+        <v>215</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="4" t="inlineStr">
         <is>
-          <t>Dr.Animesh Chaturvedi</t>
+          <t>Dr. Siddharth</t>
         </is>
       </c>
       <c r="B168" s="4" t="inlineStr">
@@ -8196,40 +8196,40 @@
       </c>
       <c r="C168" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D168" s="4" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>B2-CS352</t>
         </is>
       </c>
       <c r="E168" s="4" t="inlineStr">
         <is>
-          <t>Multivariate Calculus</t>
+          <t>Cryptography and information security</t>
         </is>
       </c>
       <c r="F168" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G168" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H168" s="4" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="I168" s="4" t="n">
-        <v>170</v>
+        <v>70</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagadeesha R Bhat</t>
+          <t>Dr.Sandesh</t>
         </is>
       </c>
       <c r="B169" s="4" t="inlineStr">
@@ -8239,22 +8239,22 @@
       </c>
       <c r="C169" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D169" s="4" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="E169" s="4" t="inlineStr">
         <is>
-          <t>Multivariate Calculus</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="F169" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G169" s="4" t="n">
@@ -8262,17 +8262,17 @@
       </c>
       <c r="H169" s="4" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>L208</t>
         </is>
       </c>
       <c r="I169" s="4" t="n">
-        <v>170</v>
+        <v>66</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagdeesh DN</t>
+          <t>Dr. Krishnendu</t>
         </is>
       </c>
       <c r="B170" s="4" t="inlineStr">
@@ -8282,40 +8282,40 @@
       </c>
       <c r="C170" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D170" s="4" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="E170" s="4" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Artificial intelligence</t>
         </is>
       </c>
       <c r="F170" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G170" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H170" s="4" t="inlineStr">
         <is>
-          <t>C408</t>
+          <t>L308</t>
         </is>
       </c>
       <c r="I170" s="4" t="n">
-        <v>215</v>
+        <v>80</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="4" t="inlineStr">
         <is>
-          <t>Dr. Somen Bhattacharjee</t>
+          <t>Dr Ramesh Athe</t>
         </is>
       </c>
       <c r="B171" s="4" t="inlineStr">
@@ -8325,40 +8325,40 @@
       </c>
       <c r="C171" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D171" s="4" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="E171" s="4" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="F171" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G171" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H171" s="4" t="inlineStr">
         <is>
-          <t>C407</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="I171" s="4" t="n">
-        <v>215</v>
+        <v>170</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="4" t="inlineStr">
         <is>
-          <t>Dr. Suvadip H</t>
+          <t>Dr. Sunil CK</t>
         </is>
       </c>
       <c r="B172" s="4" t="inlineStr">
@@ -8368,40 +8368,40 @@
       </c>
       <c r="C172" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D172" s="4" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="E172" s="4" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="F172" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G172" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H172" s="4" t="inlineStr">
         <is>
-          <t>C406</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="I172" s="4" t="n">
-        <v>215</v>
+        <v>170</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="4" t="inlineStr">
         <is>
-          <t>Dr. Anand P Barangi</t>
+          <t>Dr. Prakash Pawar</t>
         </is>
       </c>
       <c r="B173" s="4" t="inlineStr">
@@ -8411,40 +8411,40 @@
       </c>
       <c r="C173" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D173" s="4" t="inlineStr">
         <is>
-          <t>B2-CS352</t>
+          <t>B2-CS151</t>
         </is>
       </c>
       <c r="E173" s="4" t="inlineStr">
         <is>
-          <t>Cryptography and information security</t>
+          <t>Introduction to CyberSecurity</t>
         </is>
       </c>
       <c r="F173" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G173" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H173" s="4" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="I173" s="4" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="4" t="inlineStr">
         <is>
-          <t>Dr.Manjunath K V</t>
+          <t>Dr. Chandrika Kamat</t>
         </is>
       </c>
       <c r="B174" s="4" t="inlineStr">
@@ -8454,17 +8454,17 @@
       </c>
       <c r="C174" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D174" s="4" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>B2-CS151</t>
         </is>
       </c>
       <c r="E174" s="4" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Introduction to CyberSecurity</t>
         </is>
       </c>
       <c r="F174" s="4" t="inlineStr">
@@ -8473,21 +8473,21 @@
         </is>
       </c>
       <c r="G174" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H174" s="4" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="I174" s="4" t="n">
-        <v>66</v>
+        <v>120</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="4" t="inlineStr">
         <is>
-          <t>Dr. Girirsh Revadigar</t>
+          <t>Dr. Prabhu Prasad</t>
         </is>
       </c>
       <c r="B175" s="4" t="inlineStr">
@@ -8497,40 +8497,40 @@
       </c>
       <c r="C175" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D175" s="4" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>B2-CS352</t>
         </is>
       </c>
       <c r="E175" s="4" t="inlineStr">
         <is>
-          <t>Artificial intelligence</t>
+          <t>Cryptography and information security</t>
         </is>
       </c>
       <c r="F175" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G175" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H175" s="4" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="I175" s="4" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pramod Yelmewad</t>
+          <t>Dr.Rajesh Kumar</t>
         </is>
       </c>
       <c r="B176" s="4" t="inlineStr">
@@ -8540,22 +8540,22 @@
       </c>
       <c r="C176" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D176" s="4" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="E176" s="4" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="F176" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G176" s="4" t="n">
@@ -8563,17 +8563,17 @@
       </c>
       <c r="H176" s="4" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="I176" s="4" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="4" t="inlineStr">
         <is>
-          <t>Dr.Manjunath K V</t>
+          <t>Dr. Prabhu Prasad</t>
         </is>
       </c>
       <c r="B177" s="4" t="inlineStr">
@@ -8583,40 +8583,40 @@
       </c>
       <c r="C177" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D177" s="4" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="E177" s="4" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="F177" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G177" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H177" s="4" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="I177" s="4" t="n">
-        <v>170</v>
+        <v>215</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="4" t="inlineStr">
         <is>
-          <t>Dr. Dibyajoti Guha</t>
+          <t>Dr. Anand P Barangi</t>
         </is>
       </c>
       <c r="B178" s="4" t="inlineStr">
@@ -8626,17 +8626,17 @@
       </c>
       <c r="C178" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D178" s="4" t="inlineStr">
         <is>
-          <t>B2-CS151</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="E178" s="4" t="inlineStr">
         <is>
-          <t>Introduction to CyberSecurity</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="F178" s="4" t="inlineStr">
@@ -8649,17 +8649,17 @@
       </c>
       <c r="H178" s="4" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="I178" s="4" t="n">
-        <v>120</v>
+        <v>215</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="4" t="inlineStr">
         <is>
-          <t>Dr. Manjuth KV</t>
+          <t>Dr.Animesh Chaturvedi</t>
         </is>
       </c>
       <c r="B179" s="4" t="inlineStr">
@@ -8669,22 +8669,22 @@
       </c>
       <c r="C179" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D179" s="4" t="inlineStr">
         <is>
-          <t>B2-CS151</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="E179" s="4" t="inlineStr">
         <is>
-          <t>Introduction to CyberSecurity</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="F179" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G179" s="4" t="n">
@@ -8692,17 +8692,17 @@
       </c>
       <c r="H179" s="4" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C103</t>
         </is>
       </c>
       <c r="I179" s="4" t="n">
-        <v>120</v>
+        <v>215</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sibasankar Padhy</t>
+          <t>Dr. Anand P Barangi</t>
         </is>
       </c>
       <c r="B180" s="4" t="inlineStr">
@@ -8712,7 +8712,7 @@
       </c>
       <c r="C180" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D180" s="4" t="inlineStr">
@@ -8727,7 +8727,7 @@
       </c>
       <c r="F180" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G180" s="4" t="n">
@@ -8735,7 +8735,7 @@
       </c>
       <c r="H180" s="4" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="I180" s="4" t="n">
@@ -8745,7 +8745,7 @@
     <row r="181">
       <c r="A181" s="4" t="inlineStr">
         <is>
-          <t>Dr. Ashwath Babu</t>
+          <t>Dr. Pavan Kumar</t>
         </is>
       </c>
       <c r="B181" s="4" t="inlineStr">
@@ -8755,40 +8755,40 @@
       </c>
       <c r="C181" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D181" s="4" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>B2-CS151</t>
         </is>
       </c>
       <c r="E181" s="4" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Introduction to CyberSecurity</t>
         </is>
       </c>
       <c r="F181" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G181" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H181" s="4" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="I181" s="4" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="4" t="inlineStr">
         <is>
-          <t>Dr. Suvadip H</t>
+          <t>Dr. Somen Bhattacharjee</t>
         </is>
       </c>
       <c r="B182" s="4" t="inlineStr">
@@ -8798,22 +8798,22 @@
       </c>
       <c r="C182" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D182" s="4" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>B2-CS151</t>
         </is>
       </c>
       <c r="E182" s="4" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Introduction to CyberSecurity</t>
         </is>
       </c>
       <c r="F182" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G182" s="4" t="n">
@@ -8821,37 +8821,37 @@
       </c>
       <c r="H182" s="4" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="I182" s="4" t="n">
-        <v>215</v>
+        <v>120</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="4" t="inlineStr">
         <is>
-          <t>Dr. Girirsh</t>
+          <t>Dr. Pankaj Kumar</t>
         </is>
       </c>
       <c r="B183" s="4" t="inlineStr">
         <is>
-          <t>28-Nov-2025</t>
+          <t>29-Nov-2025</t>
         </is>
       </c>
       <c r="C183" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D183" s="4" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>B2-ASD352</t>
         </is>
       </c>
       <c r="E183" s="4" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>User Interaction and Experience Design</t>
         </is>
       </c>
       <c r="F183" s="4" t="inlineStr">
@@ -8860,46 +8860,46 @@
         </is>
       </c>
       <c r="G183" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H183" s="4" t="inlineStr">
         <is>
-          <t>C103</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="I183" s="4" t="n">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="4" t="inlineStr">
         <is>
-          <t>Dr. Animesh Roy</t>
+          <t>Dr. Girirsh</t>
         </is>
       </c>
       <c r="B184" s="4" t="inlineStr">
         <is>
-          <t>28-Nov-2025</t>
+          <t>29-Nov-2025</t>
         </is>
       </c>
       <c r="C184" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D184" s="4" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="E184" s="4" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Problem Solving Through Programming</t>
         </is>
       </c>
       <c r="F184" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G184" s="4" t="n">
@@ -8907,85 +8907,85 @@
       </c>
       <c r="H184" s="4" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L307</t>
         </is>
       </c>
       <c r="I184" s="4" t="n">
-        <v>215</v>
+        <v>80</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="4" t="inlineStr">
         <is>
-          <t>Dr. Chinmayananda</t>
+          <t>Dr. Chandrika Kamat</t>
         </is>
       </c>
       <c r="B185" s="4" t="inlineStr">
         <is>
-          <t>28-Nov-2025</t>
+          <t>29-Nov-2025</t>
         </is>
       </c>
       <c r="C185" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D185" s="4" t="inlineStr">
         <is>
-          <t>B2-CS352</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="E185" s="4" t="inlineStr">
         <is>
-          <t>Cryptography and information security</t>
+          <t>Analog Electronics Circuits</t>
         </is>
       </c>
       <c r="F185" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G185" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H185" s="4" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C408</t>
         </is>
       </c>
       <c r="I185" s="4" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="4" t="inlineStr">
         <is>
-          <t>Dr. Dibyajyothi Guha</t>
+          <t>Dr. Rajesh Kumar</t>
         </is>
       </c>
       <c r="B186" s="4" t="inlineStr">
         <is>
-          <t>28-Nov-2025</t>
+          <t>29-Nov-2025</t>
         </is>
       </c>
       <c r="C186" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D186" s="4" t="inlineStr">
         <is>
-          <t>B2-CS151</t>
+          <t>B1-DS151</t>
         </is>
       </c>
       <c r="E186" s="4" t="inlineStr">
         <is>
-          <t>Introduction to CyberSecurity</t>
+          <t>Linux for Engineers</t>
         </is>
       </c>
       <c r="F186" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G186" s="4" t="n">
@@ -8993,17 +8993,17 @@
       </c>
       <c r="H186" s="4" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="I186" s="4" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sunil PV</t>
+          <t>Dr. Sunil Saumya</t>
         </is>
       </c>
       <c r="B187" s="4" t="inlineStr">
@@ -9013,7 +9013,7 @@
       </c>
       <c r="C187" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D187" s="4" t="inlineStr">
@@ -9028,15 +9028,15 @@
       </c>
       <c r="F187" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G187" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H187" s="4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="I187" s="4" t="n">
@@ -9046,7 +9046,7 @@
     <row r="188">
       <c r="A188" s="4" t="inlineStr">
         <is>
-          <t>Dr. Dibyajoti Guha</t>
+          <t>Dr. Pavan</t>
         </is>
       </c>
       <c r="B188" s="4" t="inlineStr">
@@ -9056,40 +9056,40 @@
       </c>
       <c r="C188" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D188" s="4" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>B2-ASD352</t>
         </is>
       </c>
       <c r="E188" s="4" t="inlineStr">
         <is>
-          <t>Problem Solving Through Programming</t>
+          <t>User Interaction and Experience Design</t>
         </is>
       </c>
       <c r="F188" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G188" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H188" s="4" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="I188" s="4" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="4" t="inlineStr">
         <is>
-          <t>Dr. Girirsh Revadigar</t>
+          <t>Dr. Dibyajoti Guha</t>
         </is>
       </c>
       <c r="B189" s="4" t="inlineStr">
@@ -9099,40 +9099,40 @@
       </c>
       <c r="C189" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D189" s="4" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>B2-ASD352</t>
         </is>
       </c>
       <c r="E189" s="4" t="inlineStr">
         <is>
-          <t>Analog Electronics Circuits</t>
+          <t>User Interaction and Experience Design</t>
         </is>
       </c>
       <c r="F189" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G189" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H189" s="4" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>C407</t>
         </is>
       </c>
       <c r="I189" s="4" t="n">
-        <v>66</v>
+        <v>200</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="4" t="inlineStr">
         <is>
-          <t>Dr. Chandrika Kamat</t>
+          <t>Dr. Pankaj Kumar</t>
         </is>
       </c>
       <c r="B190" s="4" t="inlineStr">
@@ -9142,34 +9142,34 @@
       </c>
       <c r="C190" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D190" s="4" t="inlineStr">
         <is>
-          <t>B1-DS151</t>
+          <t>B2-ASD352</t>
         </is>
       </c>
       <c r="E190" s="4" t="inlineStr">
         <is>
-          <t>Linux for Engineers</t>
+          <t>User Interaction and Experience Design</t>
         </is>
       </c>
       <c r="F190" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G190" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H190" s="4" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="I190" s="4" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
     </row>
     <row r="191">
@@ -9185,40 +9185,40 @@
       </c>
       <c r="C191" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D191" s="4" t="inlineStr">
         <is>
-          <t>B2-ASD352</t>
+          <t>B3-NEW</t>
         </is>
       </c>
       <c r="E191" s="4" t="inlineStr">
         <is>
-          <t>User Interaction and Experience Design</t>
+          <t>Software Defined Networks</t>
         </is>
       </c>
       <c r="F191" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G191" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H191" s="4" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="I191" s="4" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sunil CK</t>
+          <t>Dr. Pavan</t>
         </is>
       </c>
       <c r="B192" s="4" t="inlineStr">
@@ -9228,17 +9228,17 @@
       </c>
       <c r="C192" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D192" s="4" t="inlineStr">
         <is>
-          <t>B2-ASD352</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="E192" s="4" t="inlineStr">
         <is>
-          <t>User Interaction and Experience Design</t>
+          <t>Introduction To DSAI</t>
         </is>
       </c>
       <c r="F192" s="4" t="inlineStr">
@@ -9247,21 +9247,21 @@
         </is>
       </c>
       <c r="G192" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H192" s="4" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="I192" s="4" t="n">
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="4" t="inlineStr">
         <is>
-          <t>Dr. Mallikarjun</t>
+          <t>Dr. Chinmayananda A</t>
         </is>
       </c>
       <c r="B193" s="4" t="inlineStr">
@@ -9271,17 +9271,17 @@
       </c>
       <c r="C193" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D193" s="4" t="inlineStr">
         <is>
-          <t>B2-ASD352</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="E193" s="4" t="inlineStr">
         <is>
-          <t>User Interaction and Experience Design</t>
+          <t>Introduction To DSAI</t>
         </is>
       </c>
       <c r="F193" s="4" t="inlineStr">
@@ -9290,21 +9290,21 @@
         </is>
       </c>
       <c r="G193" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H193" s="4" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>C405</t>
         </is>
       </c>
       <c r="I193" s="4" t="n">
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagadeesha R Bhat</t>
+          <t>Dr. Mallikarjun</t>
         </is>
       </c>
       <c r="B194" s="4" t="inlineStr">
@@ -9314,17 +9314,17 @@
       </c>
       <c r="C194" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D194" s="4" t="inlineStr">
         <is>
-          <t>B2-ASD352</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="E194" s="4" t="inlineStr">
         <is>
-          <t>User Interaction and Experience Design</t>
+          <t>Introduction To DSAI</t>
         </is>
       </c>
       <c r="F194" s="4" t="inlineStr">
@@ -9333,21 +9333,21 @@
         </is>
       </c>
       <c r="G194" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H194" s="4" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>C406</t>
         </is>
       </c>
       <c r="I194" s="4" t="n">
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="4" t="inlineStr">
         <is>
-          <t>Dr. Girirsh</t>
+          <t>Dr. Anushree Kini</t>
         </is>
       </c>
       <c r="B195" s="4" t="inlineStr">
@@ -9357,17 +9357,17 @@
       </c>
       <c r="C195" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D195" s="4" t="inlineStr">
         <is>
-          <t>B2-ASD352</t>
+          <t>B2-EC462</t>
         </is>
       </c>
       <c r="E195" s="4" t="inlineStr">
         <is>
-          <t>User Interaction and Experience Design</t>
+          <t>Generative AI</t>
         </is>
       </c>
       <c r="F195" s="4" t="inlineStr">
@@ -9376,21 +9376,21 @@
         </is>
       </c>
       <c r="G195" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H195" s="4" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="I195" s="4" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="4" t="inlineStr">
         <is>
-          <t>Dr. Aswath Babu</t>
+          <t>Dr. Ashwath Babu</t>
         </is>
       </c>
       <c r="B196" s="4" t="inlineStr">
@@ -9400,17 +9400,17 @@
       </c>
       <c r="C196" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D196" s="4" t="inlineStr">
         <is>
-          <t>B3-NEW</t>
+          <t>B2-EC462</t>
         </is>
       </c>
       <c r="E196" s="4" t="inlineStr">
         <is>
-          <t>Software Defined Networks</t>
+          <t>Generative AI</t>
         </is>
       </c>
       <c r="F196" s="4" t="inlineStr">
@@ -9423,7 +9423,7 @@
       </c>
       <c r="H196" s="4" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="I196" s="4" t="n">
@@ -9433,7 +9433,7 @@
     <row r="197">
       <c r="A197" s="4" t="inlineStr">
         <is>
-          <t>Dr.Sandesh</t>
+          <t>Dr. Rajendra H</t>
         </is>
       </c>
       <c r="B197" s="4" t="inlineStr">
@@ -9443,17 +9443,17 @@
       </c>
       <c r="C197" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D197" s="4" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>B1-CS366</t>
         </is>
       </c>
       <c r="E197" s="4" t="inlineStr">
         <is>
-          <t>Introduction To DSAI</t>
+          <t>Advanced algorithm Design</t>
         </is>
       </c>
       <c r="F197" s="4" t="inlineStr">
@@ -9462,21 +9462,21 @@
         </is>
       </c>
       <c r="G197" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H197" s="4" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L208</t>
         </is>
       </c>
       <c r="I197" s="4" t="n">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="4" t="inlineStr">
         <is>
-          <t>Dr. Anand B</t>
+          <t>Dr. Pramod Yelmewad</t>
         </is>
       </c>
       <c r="B198" s="4" t="inlineStr">
@@ -9486,17 +9486,17 @@
       </c>
       <c r="C198" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D198" s="4" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>B1-CS366</t>
         </is>
       </c>
       <c r="E198" s="4" t="inlineStr">
         <is>
-          <t>Introduction To DSAI</t>
+          <t>Advanced algorithm Design</t>
         </is>
       </c>
       <c r="F198" s="4" t="inlineStr">
@@ -9505,21 +9505,21 @@
         </is>
       </c>
       <c r="G198" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H198" s="4" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>L308</t>
         </is>
       </c>
       <c r="I198" s="4" t="n">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pankaj Kumar</t>
+          <t>Dr. Jagdish R.B</t>
         </is>
       </c>
       <c r="B199" s="4" t="inlineStr">
@@ -9529,17 +9529,17 @@
       </c>
       <c r="C199" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D199" s="4" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>B1-CS366</t>
         </is>
       </c>
       <c r="E199" s="4" t="inlineStr">
         <is>
-          <t>Introduction To DSAI</t>
+          <t>Advanced algorithm Design</t>
         </is>
       </c>
       <c r="F199" s="4" t="inlineStr">
@@ -9548,21 +9548,21 @@
         </is>
       </c>
       <c r="G199" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H199" s="4" t="inlineStr">
         <is>
-          <t>C408</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="I199" s="4" t="n">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="4" t="inlineStr">
         <is>
-          <t>Dr. Ashwath Babu &amp; Prof. Ravi Shankar</t>
+          <t>Dr. Pramod Yelmewad</t>
         </is>
       </c>
       <c r="B200" s="4" t="inlineStr">
@@ -9572,22 +9572,22 @@
       </c>
       <c r="C200" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D200" s="4" t="inlineStr">
         <is>
-          <t>B2-EC462</t>
+          <t>B3-NEW</t>
         </is>
       </c>
       <c r="E200" s="4" t="inlineStr">
         <is>
-          <t>Generative AI</t>
+          <t>Software Defined Networks</t>
         </is>
       </c>
       <c r="F200" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G200" s="4" t="n">
@@ -9595,7 +9595,7 @@
       </c>
       <c r="H200" s="4" t="inlineStr">
         <is>
-          <t>C407</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="I200" s="4" t="n">
@@ -9605,7 +9605,7 @@
     <row r="201">
       <c r="A201" s="4" t="inlineStr">
         <is>
-          <t>Dr. Girirsh GN</t>
+          <t>Dr. Ramesh Athe</t>
         </is>
       </c>
       <c r="B201" s="4" t="inlineStr">
@@ -9615,17 +9615,17 @@
       </c>
       <c r="C201" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D201" s="4" t="inlineStr">
         <is>
-          <t>B2-EC462</t>
+          <t>B2-ASD352</t>
         </is>
       </c>
       <c r="E201" s="4" t="inlineStr">
         <is>
-          <t>Generative AI</t>
+          <t>User Interaction and Experience Design</t>
         </is>
       </c>
       <c r="F201" s="4" t="inlineStr">
@@ -9634,21 +9634,21 @@
         </is>
       </c>
       <c r="G201" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H201" s="4" t="inlineStr">
         <is>
-          <t>C406</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="I201" s="4" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="4" t="inlineStr">
         <is>
-          <t>Dr.Jagadeesha R Bhat</t>
+          <t>Dr. Shirshendu Layek</t>
         </is>
       </c>
       <c r="B202" s="4" t="inlineStr">
@@ -9658,22 +9658,22 @@
       </c>
       <c r="C202" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D202" s="4" t="inlineStr">
         <is>
-          <t>B1-CS366</t>
+          <t>B2-ASD352</t>
         </is>
       </c>
       <c r="E202" s="4" t="inlineStr">
         <is>
-          <t>Advanced algorithm Design</t>
+          <t>User Interaction and Experience Design</t>
         </is>
       </c>
       <c r="F202" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G202" s="4" t="n">
@@ -9681,7 +9681,7 @@
       </c>
       <c r="H202" s="4" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="I202" s="4" t="n">
@@ -9691,7 +9691,7 @@
     <row r="203">
       <c r="A203" s="4" t="inlineStr">
         <is>
-          <t>Dr. Deepak K.T</t>
+          <t>Dr. Sunil CK</t>
         </is>
       </c>
       <c r="B203" s="4" t="inlineStr">
@@ -9701,22 +9701,22 @@
       </c>
       <c r="C203" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D203" s="4" t="inlineStr">
         <is>
-          <t>B1-CS366</t>
+          <t>B2-ASD352</t>
         </is>
       </c>
       <c r="E203" s="4" t="inlineStr">
         <is>
-          <t>Advanced algorithm Design</t>
+          <t>User Interaction and Experience Design</t>
         </is>
       </c>
       <c r="F203" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G203" s="4" t="n">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="H203" s="4" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="I203" s="4" t="n">
@@ -9734,7 +9734,7 @@
     <row r="204">
       <c r="A204" s="4" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Dr. Rajendra H</t>
         </is>
       </c>
       <c r="B204" s="4" t="inlineStr">
@@ -9744,17 +9744,17 @@
       </c>
       <c r="C204" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D204" s="4" t="inlineStr">
         <is>
-          <t>B1-CS366</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="E204" s="4" t="inlineStr">
         <is>
-          <t>Advanced algorithm Design</t>
+          <t>Problem Solving Through Programming</t>
         </is>
       </c>
       <c r="F204" s="4" t="inlineStr">
@@ -9763,21 +9763,21 @@
         </is>
       </c>
       <c r="G204" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H204" s="4" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="I204" s="4" t="n">
-        <v>200</v>
+        <v>107</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="4" t="inlineStr">
         <is>
-          <t>Dr. Animesh Roy</t>
+          <t>Dr. Anand P Barangi</t>
         </is>
       </c>
       <c r="B205" s="4" t="inlineStr">
@@ -9787,34 +9787,34 @@
       </c>
       <c r="C205" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D205" s="4" t="inlineStr">
         <is>
-          <t>B3-NEW</t>
+          <t>B2-ASD352</t>
         </is>
       </c>
       <c r="E205" s="4" t="inlineStr">
         <is>
-          <t>Software Defined Networks</t>
+          <t>User Interaction and Experience Design</t>
         </is>
       </c>
       <c r="F205" s="4" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G205" s="4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H205" s="4" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="I205" s="4" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
     </row>
     <row r="206">
@@ -9830,7 +9830,7 @@
       </c>
       <c r="C206" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D206" s="4" t="inlineStr">
@@ -9845,25 +9845,25 @@
       </c>
       <c r="F206" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="G206" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H206" s="4" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C103</t>
         </is>
       </c>
       <c r="I206" s="4" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="4" t="inlineStr">
         <is>
-          <t>Dr. Somen B</t>
+          <t>Prof. SRM Prasanna</t>
         </is>
       </c>
       <c r="B207" s="4" t="inlineStr">
@@ -9873,40 +9873,40 @@
       </c>
       <c r="C207" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D207" s="4" t="inlineStr">
         <is>
-          <t>B2-ASD352</t>
+          <t>B2-EC462</t>
         </is>
       </c>
       <c r="E207" s="4" t="inlineStr">
         <is>
-          <t>User Interaction and Experience Design</t>
+          <t>Generative AI</t>
         </is>
       </c>
       <c r="F207" s="4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G207" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H207" s="4" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="I207" s="4" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="4" t="inlineStr">
         <is>
-          <t>Dr.Manjunath K V</t>
+          <t>Dr. Aswath Babu</t>
         </is>
       </c>
       <c r="B208" s="4" t="inlineStr">
@@ -9916,17 +9916,17 @@
       </c>
       <c r="C208" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D208" s="4" t="inlineStr">
         <is>
-          <t>B2-ASD352</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="E208" s="4" t="inlineStr">
         <is>
-          <t>User Interaction and Experience Design</t>
+          <t>Introduction To DSAI</t>
         </is>
       </c>
       <c r="F208" s="4" t="inlineStr">
@@ -9935,21 +9935,21 @@
         </is>
       </c>
       <c r="G208" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H208" s="4" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="I208" s="4" t="n">
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="4" t="inlineStr">
         <is>
-          <t>Dr Ramesh Athe</t>
+          <t>Dr. Anand B</t>
         </is>
       </c>
       <c r="B209" s="4" t="inlineStr">
@@ -9959,22 +9959,22 @@
       </c>
       <c r="C209" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D209" s="4" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="E209" s="4" t="inlineStr">
         <is>
-          <t>Problem Solving Through Programming</t>
+          <t>Introduction To DSAI</t>
         </is>
       </c>
       <c r="F209" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G209" s="4" t="n">
@@ -9982,17 +9982,17 @@
       </c>
       <c r="H209" s="4" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="I209" s="4" t="n">
-        <v>107</v>
+        <v>215</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="4" t="inlineStr">
         <is>
-          <t>Dr. Somen B</t>
+          <t>Dr. Malay</t>
         </is>
       </c>
       <c r="B210" s="4" t="inlineStr">
@@ -10002,40 +10002,40 @@
       </c>
       <c r="C210" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D210" s="4" t="inlineStr">
         <is>
-          <t>B2-ASD352</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="E210" s="4" t="inlineStr">
         <is>
-          <t>User Interaction and Experience Design</t>
+          <t>Introduction To DSAI</t>
         </is>
       </c>
       <c r="F210" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="G210" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H210" s="4" t="inlineStr">
         <is>
-          <t>C103</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="I210" s="4" t="n">
-        <v>170</v>
+        <v>215</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="4" t="inlineStr">
         <is>
-          <t>Dr. Dibyajyothi Guha</t>
+          <t>Dr. Anand B</t>
         </is>
       </c>
       <c r="B211" s="4" t="inlineStr">
@@ -10045,40 +10045,40 @@
       </c>
       <c r="C211" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D211" s="4" t="inlineStr">
         <is>
-          <t>B2-ASD352</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="E211" s="4" t="inlineStr">
         <is>
-          <t>User Interaction and Experience Design</t>
+          <t>Introduction To DSAI</t>
         </is>
       </c>
       <c r="F211" s="4" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="G211" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H211" s="4" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="I211" s="4" t="n">
-        <v>170</v>
+        <v>215</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="4" t="inlineStr">
         <is>
-          <t>Dr. Prabhu Prasad</t>
+          <t>Dr.Siddharth</t>
         </is>
       </c>
       <c r="B212" s="4" t="inlineStr">
@@ -10088,17 +10088,17 @@
       </c>
       <c r="C212" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D212" s="4" t="inlineStr">
         <is>
-          <t>B2-EC462</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="E212" s="4" t="inlineStr">
         <is>
-          <t>Generative AI</t>
+          <t>Introduction To DSAI</t>
         </is>
       </c>
       <c r="F212" s="4" t="inlineStr">
@@ -10107,100 +10107,14 @@
         </is>
       </c>
       <c r="G212" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H212" s="4" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="I212" s="4" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="4" t="inlineStr">
-        <is>
-          <t>Dr. Prakash Pawar</t>
-        </is>
-      </c>
-      <c r="B213" s="4" t="inlineStr">
-        <is>
-          <t>29-Nov-2025</t>
-        </is>
-      </c>
-      <c r="C213" s="4" t="inlineStr">
-        <is>
-          <t>03:00 PM–04:30 PM</t>
-        </is>
-      </c>
-      <c r="D213" s="4" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
-      <c r="E213" s="4" t="inlineStr">
-        <is>
-          <t>Introduction To DSAI</t>
-        </is>
-      </c>
-      <c r="F213" s="4" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="G213" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H213" s="4" t="inlineStr">
-        <is>
-          <t>C305</t>
-        </is>
-      </c>
-      <c r="I213" s="4" t="n">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="4" t="inlineStr">
-        <is>
-          <t>Dr. Rajesh NS</t>
-        </is>
-      </c>
-      <c r="B214" s="4" t="inlineStr">
-        <is>
-          <t>29-Nov-2025</t>
-        </is>
-      </c>
-      <c r="C214" s="4" t="inlineStr">
-        <is>
-          <t>03:00 PM–04:30 PM</t>
-        </is>
-      </c>
-      <c r="D214" s="4" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
-      <c r="E214" s="4" t="inlineStr">
-        <is>
-          <t>Introduction To DSAI</t>
-        </is>
-      </c>
-      <c r="F214" s="4" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="G214" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H214" s="4" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="I214" s="4" t="n">
         <v>215</v>
       </c>
     </row>

--- a/output/Exam_timetable.xlsx
+++ b/output/Exam_timetable.xlsx
@@ -588,74 +588,74 @@
     <row r="4">
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>B1-EC456</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>B2-EC465</t>
+          <t>B1-EC252</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>B1- CS463</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>B3-DS458</t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t>B1-CS251</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="H4" s="4" t="inlineStr">
         <is>
-          <t>HS261</t>
+          <t>B1-NEW</t>
         </is>
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>B2-CS151</t>
         </is>
       </c>
       <c r="K4" s="4" t="inlineStr">
         <is>
-          <t>B2-ASD352</t>
+          <t>B3-NEW</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>B4-DS102</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>B3-CS457</t>
+          <t>B1- CS308</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>B1-HS156</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -665,74 +665,74 @@
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="H5" s="4" t="inlineStr">
         <is>
-          <t>B1-CS152</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="I5" s="4" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="J5" s="4" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
-          <t>B3-NEW</t>
+          <t>B2-ASD352</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>B1-PHD151</t>
+          <t>B4-DS102</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>B1-EC252</t>
+          <t>B1-HS157</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>B4-CS470</t>
+          <t>B1-EC251</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>HSS/IE</t>
+          <t>B1-HS156</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>B4-EC463</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="H6" s="4" t="inlineStr">
         <is>
-          <t>B2-PH454</t>
+          <t>HS261</t>
         </is>
       </c>
       <c r="I6" s="4" t="inlineStr">
         <is>
-          <t>B4-MA452</t>
+          <t>CS262</t>
         </is>
       </c>
       <c r="J6" s="4" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="K6" s="4" t="inlineStr">
@@ -744,7 +744,7 @@
     <row r="7">
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>B1-EC456</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -754,22 +754,22 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>B1- CS463</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>B3-DS458</t>
+          <t>B4-EC463</t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>B1-CS251</t>
         </is>
       </c>
       <c r="H7" s="4" t="inlineStr">
@@ -784,7 +784,7 @@
       </c>
       <c r="J7" s="4" t="inlineStr">
         <is>
-          <t>B2-CS151</t>
+          <t>B2-CS352</t>
         </is>
       </c>
       <c r="K7" s="4" t="inlineStr">
@@ -801,17 +801,17 @@
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>B1-HS157</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>B1-DS401</t>
         </is>
       </c>
       <c r="H8" s="4" t="inlineStr">
         <is>
-          <t>B1-NEW</t>
+          <t>B2-PH454</t>
         </is>
       </c>
       <c r="I8" s="4" t="inlineStr">
         <is>
-          <t>CS262</t>
+          <t>B4-MA452</t>
         </is>
       </c>
       <c r="J8" s="4" t="inlineStr">
@@ -841,75 +841,75 @@
       </c>
       <c r="K8" s="4" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>B1-DS151</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>B2-EC365</t>
+          <t>B3-CS473</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>B1- CS308</t>
+          <t>B2-EC465</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>B2-NEW</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>HSS/IE</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr"/>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t>B2-EC355</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="H9" s="4" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>B1-CS152</t>
         </is>
       </c>
       <c r="I9" s="4" t="inlineStr"/>
       <c r="J9" s="4" t="inlineStr">
         <is>
-          <t>B2-CS352</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
-          <t>B1-DS151</t>
+          <t>B2-EC462</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>B2-EC365</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>B3-CS457</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>B1-EC251</t>
+          <t>B4-CS470</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr"/>
       <c r="F10" s="4" t="inlineStr"/>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="H10" s="4" t="inlineStr"/>
@@ -917,27 +917,27 @@
       <c r="J10" s="4" t="inlineStr"/>
       <c r="K10" s="4" t="inlineStr">
         <is>
-          <t>B2-EC462</t>
+          <t>DS161</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>B3-CS473</t>
+          <t>B1-PHD151</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr"/>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>B2-NEW</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr"/>
       <c r="F11" s="4" t="inlineStr"/>
       <c r="G11" s="4" t="inlineStr">
         <is>
-          <t>B1-DS401</t>
+          <t>B2-EC355</t>
         </is>
       </c>
       <c r="H11" s="4" t="inlineStr"/>
@@ -954,7 +954,7 @@
       <c r="C12" s="4" t="inlineStr"/>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="E12" s="4" t="inlineStr"/>
@@ -1048,7 +1048,7 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>Dr. Chandrika Kamath</t>
+          <t>Dr. Malay</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
@@ -1091,7 +1091,7 @@
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>Dr.Anushree Kini</t>
+          <t>Dr. Ashwath Babu &amp; Prof. Ravi Shankar</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
@@ -1134,7 +1134,7 @@
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>Dr. Krishnendu</t>
+          <t>Dr.Siddharth</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
@@ -1177,7 +1177,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>Dr. Siddharth</t>
+          <t>Dr. Chandrika Kamathh</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
@@ -1220,7 +1220,7 @@
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>Dr. Malay</t>
+          <t>Dr. Sunil PV</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
@@ -1263,7 +1263,7 @@
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Dr. Pankaj Kumar</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
@@ -1306,7 +1306,7 @@
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>Dr. Krishnendu</t>
+          <t>Dr. Pankaj Kumar</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
@@ -1349,7 +1349,7 @@
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagdish R.B</t>
+          <t>Dr.Utkarsh Khaire</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
@@ -1392,7 +1392,7 @@
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>Dr. Animesh Roy</t>
+          <t>Dr. Somen B</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
@@ -1435,7 +1435,7 @@
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>Dr. Mallikarjun</t>
+          <t>Dr. Somen B</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
@@ -1478,7 +1478,7 @@
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>Dr. Girirsh GN</t>
+          <t>Dr. Malay</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
@@ -1521,7 +1521,7 @@
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>Dr.Ramesh Athe</t>
+          <t>Dr. Prabhu Prasad</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
@@ -1564,7 +1564,7 @@
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>Dr.Siddharth</t>
+          <t>Dr. Girirsh GN</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
@@ -1607,7 +1607,7 @@
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>Dr. Shirshendu Layek</t>
+          <t>Dr. Sunil Saumya</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
@@ -1650,7 +1650,7 @@
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>Dr. Dibyajyothi Guha</t>
+          <t>Dr. Utkarsh Khaire</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
@@ -1693,7 +1693,7 @@
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>Dr.Siddharth</t>
+          <t>Dr.Shirshendu Layek</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
@@ -1736,7 +1736,7 @@
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>Dr. Deepak K.T</t>
+          <t>Dr.Manjunath K V</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
@@ -1779,7 +1779,7 @@
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sunil PV</t>
+          <t>Dr. Deepak K.T</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
@@ -1822,7 +1822,7 @@
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagdeesh DN</t>
+          <t>Dr. Girirsh</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
@@ -1865,7 +1865,7 @@
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>Dr. Anand P Barangi</t>
+          <t>Dr. Dibyajoti Guha</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>Dr. Deepak K.T</t>
+          <t>Dr. Girirsh Revadigar</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
@@ -1951,7 +1951,7 @@
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sibasankar Padhy</t>
+          <t>Dr. Pavan</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
@@ -1994,7 +1994,7 @@
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>Dr. Prakash Pawar</t>
+          <t>Dr. Animesh Roy</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
@@ -2037,7 +2037,7 @@
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>Dr. Girish Revadigar</t>
+          <t>Dr. Jagdeesh DN</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
@@ -2080,7 +2080,7 @@
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>Dr. Rajendra H</t>
+          <t>Dr. Shirshendu Layek</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
@@ -2123,7 +2123,7 @@
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pramod Yelmewad</t>
+          <t>Dr. Pavan Kumar</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
@@ -2166,7 +2166,7 @@
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Dr.Utkarsh Khaire</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
@@ -2209,7 +2209,7 @@
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagdish R.B</t>
+          <t>Dr. Krishnendu</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
@@ -2252,7 +2252,7 @@
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>Dr.Utkarsh Khaire</t>
+          <t>Dr. Mallikarjun</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
@@ -2295,7 +2295,7 @@
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sunil PV</t>
+          <t>Dr. Mallikarjun</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
@@ -2338,7 +2338,7 @@
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>Dr. Somen B</t>
+          <t>Dr. Sunil Saumya</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
@@ -2381,7 +2381,7 @@
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>Dr. Dibyajoti Guha</t>
+          <t>Dr. Sandesh P</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
@@ -2424,7 +2424,7 @@
     <row r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>Dr. Mallikarjun</t>
+          <t>Dr. Manjuth KV</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
@@ -2467,7 +2467,7 @@
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pavan</t>
+          <t>Dr. Siddharth</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
@@ -2553,7 +2553,7 @@
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pavan Kumar</t>
+          <t>Dr.Ramesh Athe</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
@@ -2596,7 +2596,7 @@
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>Dr.Rajesh Kumar</t>
+          <t>Dr. Chandrika Kamath</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
@@ -2639,7 +2639,7 @@
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sunil CK</t>
+          <t>Dr. Jagdish R.B</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
@@ -2682,7 +2682,7 @@
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sunil CK</t>
+          <t>Dr. Malay</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
@@ -2725,7 +2725,7 @@
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>Dr. Abdul Wahid</t>
+          <t>Dr. Pavan</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
@@ -2768,7 +2768,7 @@
     <row r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sunil Saumya</t>
+          <t>Dr. Prabhu Prasad</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
@@ -2811,7 +2811,7 @@
     <row r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagdeesh DN</t>
+          <t>Dr. Sandesh P</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
@@ -2854,7 +2854,7 @@
     <row r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>Dr. Girirsh</t>
+          <t>Dr. Vivekraj</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
@@ -2897,7 +2897,7 @@
     <row r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pramod Yelmewad</t>
+          <t>Dr.Siddharth</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
@@ -2940,7 +2940,7 @@
     <row r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>Dr.Animesh Chaturvedi</t>
+          <t>Dr. Shirshendu Layek</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
@@ -2983,7 +2983,7 @@
     <row r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>Dr. Animesh Roy</t>
+          <t>Dr.Jagadeesha R Bhat</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
@@ -3026,7 +3026,7 @@
     <row r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sunil CK</t>
+          <t>Dr. Pavan</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
@@ -3069,7 +3069,7 @@
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>D. Rajesh Kumar</t>
+          <t>Dr. Abdul Wahid</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
@@ -3112,7 +3112,7 @@
     <row r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sunil Saumya</t>
+          <t>Dr. Sunil PV</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
@@ -3155,7 +3155,7 @@
     <row r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>Dr.Rajesh N S</t>
+          <t>Dr. Somen B</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
@@ -3198,7 +3198,7 @@
     <row r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sunil CK</t>
+          <t>D. Rajesh Kumar</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
@@ -3241,7 +3241,7 @@
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>Dr.Shirshendu Layek</t>
+          <t>Dr. Siddharth</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
@@ -3284,7 +3284,7 @@
     <row r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>Dr. Girirsh</t>
+          <t>Dr. Chandrika Kamathh</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
@@ -3327,7 +3327,7 @@
     <row r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>Dr. Girish Revadigar</t>
+          <t>Dr. Mallikarjun</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
@@ -3370,7 +3370,7 @@
     <row r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>Dr. Prakash Pawar</t>
+          <t>Dr. Anand B</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
@@ -3413,7 +3413,7 @@
     <row r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sunil CK</t>
+          <t>Dr. Girish Revadigar</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
@@ -3456,7 +3456,7 @@
     <row r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pramod Y</t>
+          <t>Prof. SRM Prasanna</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
@@ -3499,7 +3499,7 @@
     <row r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>Dr.Jagadeesha R Bhat</t>
+          <t>Dr. Ramesh Athe</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
@@ -3542,7 +3542,7 @@
     <row r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>Dr. Girirsh GN</t>
+          <t>Dr. Anushree Kini</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
@@ -3585,7 +3585,7 @@
     <row r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>Dr. Anand B</t>
+          <t>Dr. Krishnendu</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
@@ -3628,7 +3628,7 @@
     <row r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>Dr.Siddharth</t>
+          <t>Dr. Sunil PV</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
@@ -3671,7 +3671,7 @@
     <row r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pramod Yelmewad</t>
+          <t>Dr. Jagdish R.B</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
@@ -3714,7 +3714,7 @@
     <row r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>Dr. Chinmayananda</t>
+          <t>Dr. Aswath Babu</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
@@ -3757,7 +3757,7 @@
     <row r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>Dr. Siddharth</t>
+          <t>Dr.Siddharth</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
@@ -3800,7 +3800,7 @@
     <row r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>Dr.Manjunath K V</t>
+          <t>Dr. Animesh Roy</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
@@ -3843,7 +3843,7 @@
     <row r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sunil Saumya</t>
+          <t>Dr. Ashwath Babu</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
@@ -3886,7 +3886,7 @@
     <row r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>Dr. Suvadip H</t>
+          <t>Dr. Siddharth</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
@@ -3929,7 +3929,7 @@
     <row r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>Dr. Rajendra H</t>
+          <t>Dr. Pankaj Kumar</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
@@ -3972,7 +3972,7 @@
     <row r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sunil CK</t>
+          <t>Dr. Pramod Y</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
@@ -4015,7 +4015,7 @@
     <row r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>Dr. Suvadip H</t>
+          <t>Dr. Sunil Saumya</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
@@ -4058,7 +4058,7 @@
     <row r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>Dr. Anand P Barangi</t>
+          <t>Dr. Krishnendu</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
@@ -4101,7 +4101,7 @@
     <row r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>Dr. Mallikarjun</t>
+          <t>Dr. Girish Revadigar</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
@@ -4144,7 +4144,7 @@
     <row r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>Dr. Malay</t>
+          <t>Dr. Aswath Babu</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
@@ -4187,7 +4187,7 @@
     <row r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>Dr. Manjuth KV</t>
+          <t>Dr. Girirsh</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
@@ -4230,7 +4230,7 @@
     <row r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>Dr. Somen B</t>
+          <t>Dr.Anushree Kini</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
@@ -4273,7 +4273,7 @@
     <row r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>Dr.Anushree Kini</t>
+          <t>Dr. Anand B</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
@@ -4316,7 +4316,7 @@
     <row r="78">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sunil Saumya</t>
+          <t>Dr. Rajesh NS</t>
         </is>
       </c>
       <c r="B78" s="4" t="inlineStr">
@@ -4359,7 +4359,7 @@
     <row r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>Dr. Mallikarjun</t>
+          <t>Dr. Ashwath Babu</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
@@ -4402,7 +4402,7 @@
     <row r="80">
       <c r="A80" s="4" t="inlineStr">
         <is>
-          <t>Dr. Ashwath Babu</t>
+          <t>Dr Ramesh Athe</t>
         </is>
       </c>
       <c r="B80" s="4" t="inlineStr">
@@ -4445,7 +4445,7 @@
     <row r="81">
       <c r="A81" s="4" t="inlineStr">
         <is>
-          <t>Dr.Siddharth</t>
+          <t>Dr. Anushree Kini</t>
         </is>
       </c>
       <c r="B81" s="4" t="inlineStr">
@@ -4488,7 +4488,7 @@
     <row r="82">
       <c r="A82" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pavan Kumar</t>
+          <t>Dr. Chandrika Kamath</t>
         </is>
       </c>
       <c r="B82" s="4" t="inlineStr">
@@ -4531,7 +4531,7 @@
     <row r="83">
       <c r="A83" s="4" t="inlineStr">
         <is>
-          <t>Dr Ramesh Athe</t>
+          <t>Dr. Rajesh Kumar</t>
         </is>
       </c>
       <c r="B83" s="4" t="inlineStr">
@@ -4574,7 +4574,7 @@
     <row r="84">
       <c r="A84" s="4" t="inlineStr">
         <is>
-          <t>Dr. Rajesh NS</t>
+          <t>Dr. Mallikarjun</t>
         </is>
       </c>
       <c r="B84" s="4" t="inlineStr">
@@ -4617,7 +4617,7 @@
     <row r="85">
       <c r="A85" s="4" t="inlineStr">
         <is>
-          <t>Dr.Utkarsh Khaire</t>
+          <t>Dr. Prakash Pawar</t>
         </is>
       </c>
       <c r="B85" s="4" t="inlineStr">
@@ -4660,7 +4660,7 @@
     <row r="86">
       <c r="A86" s="4" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Dr. Ashwath Babu &amp; Prof. Ravi Shankar</t>
         </is>
       </c>
       <c r="B86" s="4" t="inlineStr">
@@ -4703,7 +4703,7 @@
     <row r="87">
       <c r="A87" s="4" t="inlineStr">
         <is>
-          <t>Dr.Rajesh N S</t>
+          <t>Dr. Prabhu Prasad</t>
         </is>
       </c>
       <c r="B87" s="4" t="inlineStr">
@@ -4746,7 +4746,7 @@
     <row r="88">
       <c r="A88" s="4" t="inlineStr">
         <is>
-          <t>Dr. Animesh Roy</t>
+          <t>Dr.Rajesh Kumar</t>
         </is>
       </c>
       <c r="B88" s="4" t="inlineStr">
@@ -4789,7 +4789,7 @@
     <row r="89">
       <c r="A89" s="4" t="inlineStr">
         <is>
-          <t>Prof. SRM Prasanna</t>
+          <t>Dr. Animesh Roy</t>
         </is>
       </c>
       <c r="B89" s="4" t="inlineStr">
@@ -4832,7 +4832,7 @@
     <row r="90">
       <c r="A90" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pavan Kumar</t>
+          <t>Dr. Chandrika Kamath</t>
         </is>
       </c>
       <c r="B90" s="4" t="inlineStr">
@@ -4875,7 +4875,7 @@
     <row r="91">
       <c r="A91" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagadeesha R Bhat</t>
+          <t>Dr Ramesh Athe</t>
         </is>
       </c>
       <c r="B91" s="4" t="inlineStr">
@@ -4918,7 +4918,7 @@
     <row r="92">
       <c r="A92" s="4" t="inlineStr">
         <is>
-          <t>Dr. Rajesh NS</t>
+          <t>Dr. Jagdish D.N</t>
         </is>
       </c>
       <c r="B92" s="4" t="inlineStr">
@@ -4961,7 +4961,7 @@
     <row r="93">
       <c r="A93" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sibasankar Padhy</t>
+          <t>Dr. Anand B</t>
         </is>
       </c>
       <c r="B93" s="4" t="inlineStr">
@@ -5004,7 +5004,7 @@
     <row r="94">
       <c r="A94" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sunil CK</t>
+          <t>Dr.Siddharth</t>
         </is>
       </c>
       <c r="B94" s="4" t="inlineStr">
@@ -5047,7 +5047,7 @@
     <row r="95">
       <c r="A95" s="4" t="inlineStr">
         <is>
-          <t>Dr.Utkarsh Khaire</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="B95" s="4" t="inlineStr">
@@ -5090,7 +5090,7 @@
     <row r="96">
       <c r="A96" s="4" t="inlineStr">
         <is>
-          <t>Dr.Anushree Kini</t>
+          <t>Dr. Girirsh Revadigar</t>
         </is>
       </c>
       <c r="B96" s="4" t="inlineStr">
@@ -5133,7 +5133,7 @@
     <row r="97">
       <c r="A97" s="4" t="inlineStr">
         <is>
-          <t>Dr. Malay</t>
+          <t>Dr. Girirsh GN</t>
         </is>
       </c>
       <c r="B97" s="4" t="inlineStr">
@@ -5176,7 +5176,7 @@
     <row r="98">
       <c r="A98" s="4" t="inlineStr">
         <is>
-          <t>Dr.Siddharth</t>
+          <t>Dr. Manjuth KV</t>
         </is>
       </c>
       <c r="B98" s="4" t="inlineStr">
@@ -5219,7 +5219,7 @@
     <row r="99">
       <c r="A99" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagdish D.N</t>
+          <t>Dr. Jagdeesh DN</t>
         </is>
       </c>
       <c r="B99" s="4" t="inlineStr">
@@ -5262,7 +5262,7 @@
     <row r="100">
       <c r="A100" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sunil PV</t>
+          <t>Dr. Mallikarjun</t>
         </is>
       </c>
       <c r="B100" s="4" t="inlineStr">
@@ -5305,7 +5305,7 @@
     <row r="101">
       <c r="A101" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pramod Yelmewad</t>
+          <t>Dr. Manjuth KV</t>
         </is>
       </c>
       <c r="B101" s="4" t="inlineStr">
@@ -5348,7 +5348,7 @@
     <row r="102">
       <c r="A102" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pramod Yelmewad</t>
+          <t>Prof. SRM Prasanna</t>
         </is>
       </c>
       <c r="B102" s="4" t="inlineStr">
@@ -5391,7 +5391,7 @@
     <row r="103">
       <c r="A103" s="4" t="inlineStr">
         <is>
-          <t>Dr. Manjuth KV</t>
+          <t>Dr. Prabhu Prasad</t>
         </is>
       </c>
       <c r="B103" s="4" t="inlineStr">
@@ -5434,7 +5434,7 @@
     <row r="104">
       <c r="A104" s="4" t="inlineStr">
         <is>
-          <t>Dr. Vivekraj</t>
+          <t>Dr. Jagdeesh DN</t>
         </is>
       </c>
       <c r="B104" s="4" t="inlineStr">
@@ -5477,7 +5477,7 @@
     <row r="105">
       <c r="A105" s="4" t="inlineStr">
         <is>
-          <t>Dr. Deepak K.T</t>
+          <t>Dr. Jagdish D.N</t>
         </is>
       </c>
       <c r="B105" s="4" t="inlineStr">
@@ -5520,7 +5520,7 @@
     <row r="106">
       <c r="A106" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sibasankar Padhy</t>
+          <t>Dr. Pavan Kumar</t>
         </is>
       </c>
       <c r="B106" s="4" t="inlineStr">
@@ -5563,7 +5563,7 @@
     <row r="107">
       <c r="A107" s="4" t="inlineStr">
         <is>
-          <t>Dr.Sandesh</t>
+          <t>Dr. Deepak K.T</t>
         </is>
       </c>
       <c r="B107" s="4" t="inlineStr">
@@ -5606,7 +5606,7 @@
     <row r="108">
       <c r="A108" s="4" t="inlineStr">
         <is>
-          <t>Dr. Prakash Pawar</t>
+          <t>Dr.Rajesh Kumar</t>
         </is>
       </c>
       <c r="B108" s="4" t="inlineStr">
@@ -5649,7 +5649,7 @@
     <row r="109">
       <c r="A109" s="4" t="inlineStr">
         <is>
-          <t>Dr. Rajendra H</t>
+          <t>Dr.Manjunath K V</t>
         </is>
       </c>
       <c r="B109" s="4" t="inlineStr">
@@ -5692,7 +5692,7 @@
     <row r="110">
       <c r="A110" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sandesh P</t>
+          <t>Dr. Sibasankar Padhy</t>
         </is>
       </c>
       <c r="B110" s="4" t="inlineStr">
@@ -5735,7 +5735,7 @@
     <row r="111">
       <c r="A111" s="4" t="inlineStr">
         <is>
-          <t>Dr. Ramesh Athe</t>
+          <t>Dr. Prakash Pawar</t>
         </is>
       </c>
       <c r="B111" s="4" t="inlineStr">
@@ -5778,7 +5778,7 @@
     <row r="112">
       <c r="A112" s="4" t="inlineStr">
         <is>
-          <t>Dr.Rajesh Kumar</t>
+          <t>Dr. Sibasankar Padhy</t>
         </is>
       </c>
       <c r="B112" s="4" t="inlineStr">
@@ -5821,7 +5821,7 @@
     <row r="113">
       <c r="A113" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pramod Yelmewad</t>
+          <t>Dr.Jagadeesha R Bhat</t>
         </is>
       </c>
       <c r="B113" s="4" t="inlineStr">
@@ -5864,7 +5864,7 @@
     <row r="114">
       <c r="A114" s="4" t="inlineStr">
         <is>
-          <t>Dr.Animesh Chaturvedi</t>
+          <t>D. Rajesh Kumar</t>
         </is>
       </c>
       <c r="B114" s="4" t="inlineStr">
@@ -5907,7 +5907,7 @@
     <row r="115">
       <c r="A115" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sunil PV</t>
+          <t>Dr. Anushree Kini</t>
         </is>
       </c>
       <c r="B115" s="4" t="inlineStr">
@@ -5950,7 +5950,7 @@
     <row r="116">
       <c r="A116" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sibasankar Padhy</t>
+          <t>Dr.Rajesh Kumar</t>
         </is>
       </c>
       <c r="B116" s="4" t="inlineStr">
@@ -5993,7 +5993,7 @@
     <row r="117">
       <c r="A117" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sandesh P</t>
+          <t>Dr.Ramesh Athe</t>
         </is>
       </c>
       <c r="B117" s="4" t="inlineStr">
@@ -6036,7 +6036,7 @@
     <row r="118">
       <c r="A118" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pramod Yelmewad</t>
+          <t>Dr. Pavan</t>
         </is>
       </c>
       <c r="B118" s="4" t="inlineStr">
@@ -6079,7 +6079,7 @@
     <row r="119">
       <c r="A119" s="4" t="inlineStr">
         <is>
-          <t>Dr.Manjunath K V</t>
+          <t>Dr. Suvadip H</t>
         </is>
       </c>
       <c r="B119" s="4" t="inlineStr">
@@ -6122,7 +6122,7 @@
     <row r="120">
       <c r="A120" s="4" t="inlineStr">
         <is>
-          <t>Dr.Rajesh Kumar</t>
+          <t>Dr.Ramesh Athe</t>
         </is>
       </c>
       <c r="B120" s="4" t="inlineStr">
@@ -6165,7 +6165,7 @@
     <row r="121">
       <c r="A121" s="4" t="inlineStr">
         <is>
-          <t>Dr. Ashwath Babu</t>
+          <t>Dr. Abdul Wahid</t>
         </is>
       </c>
       <c r="B121" s="4" t="inlineStr">
@@ -6208,7 +6208,7 @@
     <row r="122">
       <c r="A122" s="4" t="inlineStr">
         <is>
-          <t>Prof. SRM Prasanna</t>
+          <t>Dr. Ramesh Athe</t>
         </is>
       </c>
       <c r="B122" s="4" t="inlineStr">
@@ -6251,7 +6251,7 @@
     <row r="123">
       <c r="A123" s="4" t="inlineStr">
         <is>
-          <t>Dr. Suvadip H</t>
+          <t>Dr. Jagadeesha R Bhat</t>
         </is>
       </c>
       <c r="B123" s="4" t="inlineStr">
@@ -6337,7 +6337,7 @@
     <row r="125">
       <c r="A125" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sibasankar Padhy</t>
+          <t>Dr. Ramesh Athe</t>
         </is>
       </c>
       <c r="B125" s="4" t="inlineStr">
@@ -6380,7 +6380,7 @@
     <row r="126">
       <c r="A126" s="4" t="inlineStr">
         <is>
-          <t>Dr. Shirshendu Layek</t>
+          <t>Dr. Deepak K.T</t>
         </is>
       </c>
       <c r="B126" s="4" t="inlineStr">
@@ -6423,7 +6423,7 @@
     <row r="127">
       <c r="A127" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sunil CK</t>
+          <t>Dr. Utkarsh Khaire</t>
         </is>
       </c>
       <c r="B127" s="4" t="inlineStr">
@@ -6466,7 +6466,7 @@
     <row r="128">
       <c r="A128" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sunil PV</t>
+          <t>Dr Ramesh Athe</t>
         </is>
       </c>
       <c r="B128" s="4" t="inlineStr">
@@ -6509,7 +6509,7 @@
     <row r="129">
       <c r="A129" s="4" t="inlineStr">
         <is>
-          <t>Dr. Vivekraj</t>
+          <t>D. Rajesh Kumar</t>
         </is>
       </c>
       <c r="B129" s="4" t="inlineStr">
@@ -6552,7 +6552,7 @@
     <row r="130">
       <c r="A130" s="4" t="inlineStr">
         <is>
-          <t>Dr. Vivekraj</t>
+          <t>Dr. Pramod Y</t>
         </is>
       </c>
       <c r="B130" s="4" t="inlineStr">
@@ -6595,7 +6595,7 @@
     <row r="131">
       <c r="A131" s="4" t="inlineStr">
         <is>
-          <t>Dr.Ramesh Athe</t>
+          <t>Dr.Jagadeesha R Bhat</t>
         </is>
       </c>
       <c r="B131" s="4" t="inlineStr">
@@ -6638,7 +6638,7 @@
     <row r="132">
       <c r="A132" s="4" t="inlineStr">
         <is>
-          <t>Dr. Prakash Pawar</t>
+          <t>Dr. Abdul Wahid</t>
         </is>
       </c>
       <c r="B132" s="4" t="inlineStr">
@@ -6681,7 +6681,7 @@
     <row r="133">
       <c r="A133" s="4" t="inlineStr">
         <is>
-          <t>Dr. Chandrika Kamath</t>
+          <t>Dr. Dibyajoti Guha</t>
         </is>
       </c>
       <c r="B133" s="4" t="inlineStr">
@@ -6724,7 +6724,7 @@
     <row r="134">
       <c r="A134" s="4" t="inlineStr">
         <is>
-          <t>Dr. Girish Revadigar</t>
+          <t>Dr. Chandrika Kamath</t>
         </is>
       </c>
       <c r="B134" s="4" t="inlineStr">
@@ -6767,7 +6767,7 @@
     <row r="135">
       <c r="A135" s="4" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Dr.Manjunath K V</t>
         </is>
       </c>
       <c r="B135" s="4" t="inlineStr">
@@ -6810,7 +6810,7 @@
     <row r="136">
       <c r="A136" s="4" t="inlineStr">
         <is>
-          <t>Dr. Girirsh</t>
+          <t>Dr. Dibyajyothi Guha</t>
         </is>
       </c>
       <c r="B136" s="4" t="inlineStr">
@@ -6853,7 +6853,7 @@
     <row r="137">
       <c r="A137" s="4" t="inlineStr">
         <is>
-          <t>Dr. Mallikarjun</t>
+          <t>Dr. Prakash Pawar</t>
         </is>
       </c>
       <c r="B137" s="4" t="inlineStr">
@@ -6896,7 +6896,7 @@
     <row r="138">
       <c r="A138" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagdish D.N</t>
+          <t>Dr. Ramesh Athe</t>
         </is>
       </c>
       <c r="B138" s="4" t="inlineStr">
@@ -6939,7 +6939,7 @@
     <row r="139">
       <c r="A139" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pramod Y</t>
+          <t>Dr. Somen B</t>
         </is>
       </c>
       <c r="B139" s="4" t="inlineStr">
@@ -6982,7 +6982,7 @@
     <row r="140">
       <c r="A140" s="4" t="inlineStr">
         <is>
-          <t>Dr. Shirshendu Layek</t>
+          <t>Dr.Utkarsh Khaire</t>
         </is>
       </c>
       <c r="B140" s="4" t="inlineStr">
@@ -7025,7 +7025,7 @@
     <row r="141">
       <c r="A141" s="4" t="inlineStr">
         <is>
-          <t>Dr. Chandrika Kamath</t>
+          <t>Dr. Pramod Y</t>
         </is>
       </c>
       <c r="B141" s="4" t="inlineStr">
@@ -7068,7 +7068,7 @@
     <row r="142">
       <c r="A142" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sandesh P</t>
+          <t>Dr. Ashwath Babu</t>
         </is>
       </c>
       <c r="B142" s="4" t="inlineStr">
@@ -7111,7 +7111,7 @@
     <row r="143">
       <c r="A143" s="4" t="inlineStr">
         <is>
-          <t>Dr.Rajesh N S</t>
+          <t>Dr. Chandrika Kamathh</t>
         </is>
       </c>
       <c r="B143" s="4" t="inlineStr">
@@ -7154,7 +7154,7 @@
     <row r="144">
       <c r="A144" s="4" t="inlineStr">
         <is>
-          <t>Dr. Krishnendu</t>
+          <t>Dr.Shirshendu Layek</t>
         </is>
       </c>
       <c r="B144" s="4" t="inlineStr">
@@ -7197,7 +7197,7 @@
     <row r="145">
       <c r="A145" s="4" t="inlineStr">
         <is>
-          <t>Dr. Malay</t>
+          <t>Dr. Sunil PV</t>
         </is>
       </c>
       <c r="B145" s="4" t="inlineStr">
@@ -7240,7 +7240,7 @@
     <row r="146">
       <c r="A146" s="4" t="inlineStr">
         <is>
-          <t>Dr.Siddharth</t>
+          <t>Dr. Sunil CK</t>
         </is>
       </c>
       <c r="B146" s="4" t="inlineStr">
@@ -7283,7 +7283,7 @@
     <row r="147">
       <c r="A147" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagdish R.B</t>
+          <t>Dr. Sunil Saumya</t>
         </is>
       </c>
       <c r="B147" s="4" t="inlineStr">
@@ -7326,7 +7326,7 @@
     <row r="148">
       <c r="A148" s="4" t="inlineStr">
         <is>
-          <t>Dr. Prabhu Prasad</t>
+          <t>Dr. Girirsh GN</t>
         </is>
       </c>
       <c r="B148" s="4" t="inlineStr">
@@ -7369,7 +7369,7 @@
     <row r="149">
       <c r="A149" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagdeesh DN</t>
+          <t>Dr Ramesh Athe</t>
         </is>
       </c>
       <c r="B149" s="4" t="inlineStr">
@@ -7412,7 +7412,7 @@
     <row r="150">
       <c r="A150" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sandesh P</t>
+          <t>Dr. Jagadeesha R Bhat</t>
         </is>
       </c>
       <c r="B150" s="4" t="inlineStr">
@@ -7455,7 +7455,7 @@
     <row r="151">
       <c r="A151" s="4" t="inlineStr">
         <is>
-          <t>Dr. Ramesh Athe</t>
+          <t>Dr.Jagadeesha R Bhat</t>
         </is>
       </c>
       <c r="B151" s="4" t="inlineStr">
@@ -7498,7 +7498,7 @@
     <row r="152">
       <c r="A152" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pankaj Kumar</t>
+          <t>Dr. Dibyajoti Guha</t>
         </is>
       </c>
       <c r="B152" s="4" t="inlineStr">
@@ -7541,7 +7541,7 @@
     <row r="153">
       <c r="A153" s="4" t="inlineStr">
         <is>
-          <t>Dr. Krishnendu</t>
+          <t>Dr. Pankaj Kumar</t>
         </is>
       </c>
       <c r="B153" s="4" t="inlineStr">
@@ -7584,7 +7584,7 @@
     <row r="154">
       <c r="A154" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sunil Saumya</t>
+          <t>Dr. Prabhu Prasad</t>
         </is>
       </c>
       <c r="B154" s="4" t="inlineStr">
@@ -7627,7 +7627,7 @@
     <row r="155">
       <c r="A155" s="4" t="inlineStr">
         <is>
-          <t>Dr. Rajendra H</t>
+          <t>Dr.Anushree Kini</t>
         </is>
       </c>
       <c r="B155" s="4" t="inlineStr">
@@ -7670,7 +7670,7 @@
     <row r="156">
       <c r="A156" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagadeesha R Bhat</t>
+          <t>Dr. Sunil Saumya</t>
         </is>
       </c>
       <c r="B156" s="4" t="inlineStr">
@@ -7713,7 +7713,7 @@
     <row r="157">
       <c r="A157" s="4" t="inlineStr">
         <is>
-          <t>Dr. Rajesh NS</t>
+          <t>Dr.Utkarsh Khaire</t>
         </is>
       </c>
       <c r="B157" s="4" t="inlineStr">
@@ -7756,7 +7756,7 @@
     <row r="158">
       <c r="A158" s="4" t="inlineStr">
         <is>
-          <t>Dr. Vivekraj</t>
+          <t>Dr. Jagdish R.B</t>
         </is>
       </c>
       <c r="B158" s="4" t="inlineStr">
@@ -7799,7 +7799,7 @@
     <row r="159">
       <c r="A159" s="4" t="inlineStr">
         <is>
-          <t>Dr. Utkarsh Khaire</t>
+          <t>Dr. Prabhu Prasad</t>
         </is>
       </c>
       <c r="B159" s="4" t="inlineStr">
@@ -7842,7 +7842,7 @@
     <row r="160">
       <c r="A160" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagdeesh DN</t>
+          <t>Dr. Aswath Babu</t>
         </is>
       </c>
       <c r="B160" s="4" t="inlineStr">
@@ -7885,7 +7885,7 @@
     <row r="161">
       <c r="A161" s="4" t="inlineStr">
         <is>
-          <t>Dr. Ashwath Babu</t>
+          <t>Dr. Girirsh GN</t>
         </is>
       </c>
       <c r="B161" s="4" t="inlineStr">
@@ -7971,7 +7971,7 @@
     <row r="163">
       <c r="A163" s="4" t="inlineStr">
         <is>
-          <t>Dr.Rajesh N S</t>
+          <t>Dr.Jagadeesha R Bhat</t>
         </is>
       </c>
       <c r="B163" s="4" t="inlineStr">
@@ -8014,7 +8014,7 @@
     <row r="164">
       <c r="A164" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagdish D.N</t>
+          <t>Dr. Chandrika Kamath</t>
         </is>
       </c>
       <c r="B164" s="4" t="inlineStr">
@@ -8057,7 +8057,7 @@
     <row r="165">
       <c r="A165" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sibasankar Padhy</t>
+          <t>Dr. Anand B</t>
         </is>
       </c>
       <c r="B165" s="4" t="inlineStr">
@@ -8100,7 +8100,7 @@
     <row r="166">
       <c r="A166" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagdish R.B</t>
+          <t>Dr. Ramesh Athe</t>
         </is>
       </c>
       <c r="B166" s="4" t="inlineStr">
@@ -8143,7 +8143,7 @@
     <row r="167">
       <c r="A167" s="4" t="inlineStr">
         <is>
-          <t>Dr. Utkarsh Khaire</t>
+          <t>Dr. Deepak K.T</t>
         </is>
       </c>
       <c r="B167" s="4" t="inlineStr">
@@ -8186,7 +8186,7 @@
     <row r="168">
       <c r="A168" s="4" t="inlineStr">
         <is>
-          <t>Dr. Somen B</t>
+          <t>Dr. Sunil CK</t>
         </is>
       </c>
       <c r="B168" s="4" t="inlineStr">
@@ -8229,7 +8229,7 @@
     <row r="169">
       <c r="A169" s="4" t="inlineStr">
         <is>
-          <t>Dr. Girish Revadigar</t>
+          <t>Dr. Rajendra H</t>
         </is>
       </c>
       <c r="B169" s="4" t="inlineStr">
@@ -8272,7 +8272,7 @@
     <row r="170">
       <c r="A170" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pavan Kumar</t>
+          <t>Dr. Ashwath Babu</t>
         </is>
       </c>
       <c r="B170" s="4" t="inlineStr">
@@ -8315,7 +8315,7 @@
     <row r="171">
       <c r="A171" s="4" t="inlineStr">
         <is>
-          <t>Dr. Rajendra H</t>
+          <t>Dr. Ashwath Babu &amp; Prof. Ravi Shankar</t>
         </is>
       </c>
       <c r="B171" s="4" t="inlineStr">
@@ -8358,7 +8358,7 @@
     <row r="172">
       <c r="A172" s="4" t="inlineStr">
         <is>
-          <t>Dr. Anand B</t>
+          <t>Dr. Jagdish D.N</t>
         </is>
       </c>
       <c r="B172" s="4" t="inlineStr">
@@ -8401,7 +8401,7 @@
     <row r="173">
       <c r="A173" s="4" t="inlineStr">
         <is>
-          <t>Dr.Manjunath K V</t>
+          <t>Dr. Rajesh NS</t>
         </is>
       </c>
       <c r="B173" s="4" t="inlineStr">
@@ -8444,7 +8444,7 @@
     <row r="174">
       <c r="A174" s="4" t="inlineStr">
         <is>
-          <t>Dr. Anand P Barangi</t>
+          <t>Dr. Utkarsh Khaire</t>
         </is>
       </c>
       <c r="B174" s="4" t="inlineStr">
@@ -8487,7 +8487,7 @@
     <row r="175">
       <c r="A175" s="4" t="inlineStr">
         <is>
-          <t>Dr.Sandesh</t>
+          <t>Dr. Dibyajyothi Guha</t>
         </is>
       </c>
       <c r="B175" s="4" t="inlineStr">
@@ -8530,7 +8530,7 @@
     <row r="176">
       <c r="A176" s="4" t="inlineStr">
         <is>
-          <t>Dr. Somen B</t>
+          <t>Dr. Jagdish D.N</t>
         </is>
       </c>
       <c r="B176" s="4" t="inlineStr">
@@ -8573,7 +8573,7 @@
     <row r="177">
       <c r="A177" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sunil CK</t>
+          <t>Dr.Jagadeesha R Bhat</t>
         </is>
       </c>
       <c r="B177" s="4" t="inlineStr">
@@ -8616,7 +8616,7 @@
     <row r="178">
       <c r="A178" s="4" t="inlineStr">
         <is>
-          <t>Dr. Dibyajoti Guha</t>
+          <t>Dr. Rajesh NS</t>
         </is>
       </c>
       <c r="B178" s="4" t="inlineStr">
@@ -8659,7 +8659,7 @@
     <row r="179">
       <c r="A179" s="4" t="inlineStr">
         <is>
-          <t>Dr. Dibyajoti Guha</t>
+          <t>Dr. Prabhu Prasad</t>
         </is>
       </c>
       <c r="B179" s="4" t="inlineStr">
@@ -8745,7 +8745,7 @@
     <row r="181">
       <c r="A181" s="4" t="inlineStr">
         <is>
-          <t>Dr. Chandrika Kamat</t>
+          <t>Dr.Ramesh Athe</t>
         </is>
       </c>
       <c r="B181" s="4" t="inlineStr">
@@ -8788,7 +8788,7 @@
     <row r="182">
       <c r="A182" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagdeesh DN</t>
+          <t>Dr. Somen B</t>
         </is>
       </c>
       <c r="B182" s="4" t="inlineStr">
@@ -8831,7 +8831,7 @@
     <row r="183">
       <c r="A183" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pavan Kumar</t>
+          <t>Dr. Krishnendu</t>
         </is>
       </c>
       <c r="B183" s="4" t="inlineStr">
@@ -8874,7 +8874,7 @@
     <row r="184">
       <c r="A184" s="4" t="inlineStr">
         <is>
-          <t>Dr. Utkarsh Khaire</t>
+          <t>Dr.Shirshendu Layek</t>
         </is>
       </c>
       <c r="B184" s="4" t="inlineStr">
@@ -8917,7 +8917,7 @@
     <row r="185">
       <c r="A185" s="4" t="inlineStr">
         <is>
-          <t>Dr.Rajesh N S</t>
+          <t>Dr.Utkarsh Khaire</t>
         </is>
       </c>
       <c r="B185" s="4" t="inlineStr">
@@ -8960,7 +8960,7 @@
     <row r="186">
       <c r="A186" s="4" t="inlineStr">
         <is>
-          <t>Dr.Animesh Chaturvedi</t>
+          <t>Dr. Prabhu Prasad</t>
         </is>
       </c>
       <c r="B186" s="4" t="inlineStr">
@@ -9003,7 +9003,7 @@
     <row r="187">
       <c r="A187" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pramod Yelmewad</t>
+          <t>Dr. Girirsh GN</t>
         </is>
       </c>
       <c r="B187" s="4" t="inlineStr">
@@ -9046,7 +9046,7 @@
     <row r="188">
       <c r="A188" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sunil CK</t>
+          <t>Dr. Vivekraj</t>
         </is>
       </c>
       <c r="B188" s="4" t="inlineStr">
@@ -9089,7 +9089,7 @@
     <row r="189">
       <c r="A189" s="4" t="inlineStr">
         <is>
-          <t>Dr.Animesh Chaturvedi</t>
+          <t>Dr.Jagadeesha R Bhat</t>
         </is>
       </c>
       <c r="B189" s="4" t="inlineStr">
@@ -9132,7 +9132,7 @@
     <row r="190">
       <c r="A190" s="4" t="inlineStr">
         <is>
-          <t>Dr. Girirsh</t>
+          <t>Prof. SRM Prasanna</t>
         </is>
       </c>
       <c r="B190" s="4" t="inlineStr">
@@ -9175,7 +9175,7 @@
     <row r="191">
       <c r="A191" s="4" t="inlineStr">
         <is>
-          <t>Dr. Somen Bhattacharjee</t>
+          <t>Prof. SRM Prasanna</t>
         </is>
       </c>
       <c r="B191" s="4" t="inlineStr">
@@ -9218,7 +9218,7 @@
     <row r="192">
       <c r="A192" s="4" t="inlineStr">
         <is>
-          <t>Dr. Mallikarjun</t>
+          <t>Dr. Chinmayananda</t>
         </is>
       </c>
       <c r="B192" s="4" t="inlineStr">
@@ -9261,7 +9261,7 @@
     <row r="193">
       <c r="A193" s="4" t="inlineStr">
         <is>
-          <t>Dr. Malay</t>
+          <t>Dr. Mallikarjun</t>
         </is>
       </c>
       <c r="B193" s="4" t="inlineStr">
@@ -9304,7 +9304,7 @@
     <row r="194">
       <c r="A194" s="4" t="inlineStr">
         <is>
-          <t>Dr. Vivekraj</t>
+          <t>Dr. Mallikarjun</t>
         </is>
       </c>
       <c r="B194" s="4" t="inlineStr">
@@ -9347,7 +9347,7 @@
     <row r="195">
       <c r="A195" s="4" t="inlineStr">
         <is>
-          <t>Dr. Ramesh Athe</t>
+          <t>Dr. Manjuth KV</t>
         </is>
       </c>
       <c r="B195" s="4" t="inlineStr">
@@ -9390,7 +9390,7 @@
     <row r="196">
       <c r="A196" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagdeesh DN</t>
+          <t>Dr. Sunil CK</t>
         </is>
       </c>
       <c r="B196" s="4" t="inlineStr">
@@ -9433,7 +9433,7 @@
     <row r="197">
       <c r="A197" s="4" t="inlineStr">
         <is>
-          <t>Dr. Anushree Kini</t>
+          <t>Dr. Manjuth KV</t>
         </is>
       </c>
       <c r="B197" s="4" t="inlineStr">
@@ -9476,7 +9476,7 @@
     <row r="198">
       <c r="A198" s="4" t="inlineStr">
         <is>
-          <t>Dr.Siddharth</t>
+          <t>Dr. Siddharth</t>
         </is>
       </c>
       <c r="B198" s="4" t="inlineStr">
@@ -9519,7 +9519,7 @@
     <row r="199">
       <c r="A199" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pankaj Kumar</t>
+          <t>Dr. Girish Revadigar</t>
         </is>
       </c>
       <c r="B199" s="4" t="inlineStr">
@@ -9562,7 +9562,7 @@
     <row r="200">
       <c r="A200" s="4" t="inlineStr">
         <is>
-          <t>Dr. Deepak K.T</t>
+          <t>Dr. Chinmayananda</t>
         </is>
       </c>
       <c r="B200" s="4" t="inlineStr">
@@ -9605,7 +9605,7 @@
     <row r="201">
       <c r="A201" s="4" t="inlineStr">
         <is>
-          <t>Dr. Dibyajyothi Guha</t>
+          <t>Dr. Somen B</t>
         </is>
       </c>
       <c r="B201" s="4" t="inlineStr">
@@ -9648,7 +9648,7 @@
     <row r="202">
       <c r="A202" s="4" t="inlineStr">
         <is>
-          <t>Dr. Chandrika Kamat</t>
+          <t>Dr. Aswath Babu</t>
         </is>
       </c>
       <c r="B202" s="4" t="inlineStr">
@@ -9691,7 +9691,7 @@
     <row r="203">
       <c r="A203" s="4" t="inlineStr">
         <is>
-          <t>Dr. Rajesh Kumar</t>
+          <t>Dr. Sibasankar Padhy</t>
         </is>
       </c>
       <c r="B203" s="4" t="inlineStr">
@@ -9734,7 +9734,7 @@
     <row r="204">
       <c r="A204" s="4" t="inlineStr">
         <is>
-          <t>Dr. Prakash Pawar</t>
+          <t>Dr. Mallikarjun</t>
         </is>
       </c>
       <c r="B204" s="4" t="inlineStr">
@@ -9777,7 +9777,7 @@
     <row r="205">
       <c r="A205" s="4" t="inlineStr">
         <is>
-          <t>Dr.Rajesh Kumar</t>
+          <t>Dr. Rajesh NS</t>
         </is>
       </c>
       <c r="B205" s="4" t="inlineStr">
@@ -9820,7 +9820,7 @@
     <row r="206">
       <c r="A206" s="4" t="inlineStr">
         <is>
-          <t>Dr.Rajesh N S</t>
+          <t>Dr.Ramesh Athe</t>
         </is>
       </c>
       <c r="B206" s="4" t="inlineStr">
@@ -9863,7 +9863,7 @@
     <row r="207">
       <c r="A207" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sunil CK</t>
+          <t>Dr. Krishnendu</t>
         </is>
       </c>
       <c r="B207" s="4" t="inlineStr">
@@ -9906,7 +9906,7 @@
     <row r="208">
       <c r="A208" s="4" t="inlineStr">
         <is>
-          <t>Dr. Anand P Barangi</t>
+          <t>Dr. Anand B</t>
         </is>
       </c>
       <c r="B208" s="4" t="inlineStr">
@@ -9949,7 +9949,7 @@
     <row r="209">
       <c r="A209" s="4" t="inlineStr">
         <is>
-          <t>Dr. Anand B</t>
+          <t>Dr. Sunil PV</t>
         </is>
       </c>
       <c r="B209" s="4" t="inlineStr">
@@ -9992,7 +9992,7 @@
     <row r="210">
       <c r="A210" s="4" t="inlineStr">
         <is>
-          <t>Dr. Ramesh Athe</t>
+          <t>Dr.Shirshendu Layek</t>
         </is>
       </c>
       <c r="B210" s="4" t="inlineStr">
@@ -10035,7 +10035,7 @@
     <row r="211">
       <c r="A211" s="4" t="inlineStr">
         <is>
-          <t>Prof. SRM Prasanna</t>
+          <t>D. Rajesh Kumar</t>
         </is>
       </c>
       <c r="B211" s="4" t="inlineStr">
@@ -10078,7 +10078,7 @@
     <row r="212">
       <c r="A212" s="4" t="inlineStr">
         <is>
-          <t>Dr. Chandrika Kamath</t>
+          <t>Dr. Ramesh Athe</t>
         </is>
       </c>
       <c r="B212" s="4" t="inlineStr">

--- a/output/Exam_timetable.xlsx
+++ b/output/Exam_timetable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Exam Timetable" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Exam Invigilation Schedule" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Exam Timetable" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Exam Invigilation Schedule" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -588,7 +588,7 @@
     <row r="4">
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>B1-PHD151</t>
+          <t>HS351</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
@@ -598,27 +598,27 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>B1-EC251</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>B3-CS468</t>
+          <t>B1-DS301</t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>B1-CS251</t>
         </is>
       </c>
       <c r="H4" s="4" t="inlineStr">
         <is>
-          <t>B1-CS152</t>
+          <t>HS101</t>
         </is>
       </c>
       <c r="I4" s="4" t="inlineStr">
@@ -628,19 +628,19 @@
       </c>
       <c r="J4" s="4" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>B2-CS352</t>
         </is>
       </c>
       <c r="K4" s="4" t="inlineStr">
         <is>
-          <t>B1-DS151</t>
+          <t>B3-NEW</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>B2-EC365</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -650,27 +650,27 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>B4-CS470</t>
+          <t>B2-NEW</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>B1-HS156</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>B4-EC463</t>
+          <t>B3-CS468</t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t>CS264</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="H5" s="4" t="inlineStr">
         <is>
-          <t>HS261</t>
+          <t>B2-PH454</t>
         </is>
       </c>
       <c r="I5" s="4" t="inlineStr">
@@ -680,49 +680,49 @@
       </c>
       <c r="J5" s="4" t="inlineStr">
         <is>
-          <t>B2-CS352</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>B2-EC462</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>B4-DS102</t>
+          <t>B2-DS359</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>B1-HS157</t>
+          <t>B2-EC364</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>B1- CS463</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>B1-DS301</t>
+          <t>B3-DS458</t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t>EC306</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="H6" s="4" t="inlineStr">
         <is>
-          <t>HS101</t>
+          <t>EC301</t>
         </is>
       </c>
       <c r="I6" s="4" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="J6" s="4" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="K6" s="4" t="inlineStr">
@@ -744,172 +744,172 @@
     <row r="7">
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>HS351</t>
+          <t>CS263</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>B2-EC465</t>
+          <t>B1- CS308</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>CS261</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>B3-DS458</t>
+          <t>HS161</t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t>B1-DS401</t>
+          <t>CS264</t>
         </is>
       </c>
       <c r="H7" s="4" t="inlineStr">
         <is>
-          <t>B2-PH454</t>
+          <t>B1-NEW</t>
         </is>
       </c>
       <c r="I7" s="4" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="J7" s="4" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="K7" s="4" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>DS161</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>B1-EC456</t>
+          <t>B3-CS473</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>B1-EC252</t>
+          <t>B1-HS157</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>B2-NEW</t>
+          <t>B4-CS470</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>HSS/IE</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>B4-EC463</t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t>B1-CS251</t>
+          <t>B1-DS401</t>
         </is>
       </c>
       <c r="H8" s="4" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>HS261</t>
         </is>
       </c>
       <c r="I8" s="4" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="J8" s="4" t="inlineStr">
         <is>
-          <t>B2-CS151</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="K8" s="4" t="inlineStr">
         <is>
-          <t>B3-NEW</t>
+          <t>B1-CS366</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>B2-DS359</t>
+          <t>B4-DS102</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>B2-EC364</t>
+          <t>B2-EC465</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>B1-EC251</t>
+          <t>EC351</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>B1-HS156</t>
+          <t>HSS/IE</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr"/>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>EC306</t>
         </is>
       </c>
       <c r="H9" s="4" t="inlineStr">
         <is>
-          <t>B1-NEW</t>
+          <t>B1-CS152</t>
         </is>
       </c>
       <c r="I9" s="4" t="inlineStr"/>
       <c r="J9" s="4" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>B2-CS151</t>
         </is>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>EC263</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>B2-EC365</t>
+          <t>B1-EC456</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>B1- CS308</t>
+          <t>B1-EC252</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>EC351</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr"/>
       <c r="F10" s="4" t="inlineStr"/>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>B2-EC355</t>
         </is>
       </c>
       <c r="H10" s="4" t="inlineStr"/>
@@ -917,27 +917,27 @@
       <c r="J10" s="4" t="inlineStr"/>
       <c r="K10" s="4" t="inlineStr">
         <is>
-          <t>B1-CS366</t>
+          <t>CS161</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>B3-CS473</t>
+          <t>B1-PHD151</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr"/>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>B1- CS463</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr"/>
       <c r="F11" s="4" t="inlineStr"/>
       <c r="G11" s="4" t="inlineStr">
         <is>
-          <t>B2-EC355</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="H11" s="4" t="inlineStr"/>
@@ -945,7 +945,7 @@
       <c r="J11" s="4" t="inlineStr"/>
       <c r="K11" s="4" t="inlineStr">
         <is>
-          <t>B2-EC462</t>
+          <t>B1-DS151</t>
         </is>
       </c>
     </row>
@@ -954,7 +954,7 @@
       <c r="C12" s="4" t="inlineStr"/>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>CS261</t>
         </is>
       </c>
       <c r="E12" s="4" t="inlineStr"/>
@@ -1048,7 +1048,7 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>Dr.Utkarsh Khaire</t>
+          <t>Dr. Jagadeesha R Bhat</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -1091,7 +1091,7 @@
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>Dr. Girirsh</t>
+          <t>Dr. Shirshendu Layek</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -1134,7 +1134,7 @@
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>Dr.Animesh Chaturvedi</t>
+          <t>Prof. SRM Prasanna</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -1177,7 +1177,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>Dr. Ashwath Babu</t>
+          <t>Dr. Ramesh Athe</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -1220,7 +1220,7 @@
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sunil Saumya</t>
+          <t>Dr. Chinmayananda</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -1263,7 +1263,7 @@
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>Dr. Shirshendu Layek</t>
+          <t>Dr. Malay</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -1306,7 +1306,7 @@
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>Dr.Sandesh</t>
+          <t>Dr.Rajesh N S</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -1349,7 +1349,7 @@
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>Dr.Sandesh</t>
+          <t>Dr. Abdul Wahid</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
@@ -1392,7 +1392,7 @@
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>Dr. Somen Bhattacharjee</t>
+          <t>Dr. Rajesh NS</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
@@ -1435,7 +1435,7 @@
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagdeesh DN</t>
+          <t>Dr. Sunil CK</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
@@ -1478,7 +1478,7 @@
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>Dr. Ramesh Athe</t>
+          <t>Dr. Jagdish R.B</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="H12" s="4" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C408</t>
         </is>
       </c>
       <c r="I12" s="4" t="n">
@@ -1521,7 +1521,7 @@
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sibasankar Padhy</t>
+          <t>Dr. Siddharth</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="H13" s="4" t="inlineStr">
         <is>
-          <t>C408</t>
+          <t>C407</t>
         </is>
       </c>
       <c r="I13" s="4" t="n">
@@ -1564,7 +1564,7 @@
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pavan</t>
+          <t>Dr. Prakash Pawar</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="H14" s="4" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C406</t>
         </is>
       </c>
       <c r="I14" s="4" t="n">
@@ -1607,7 +1607,7 @@
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagdish R.B</t>
+          <t>Dr. Chinmayananda A</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="H15" s="4" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C405</t>
         </is>
       </c>
       <c r="I15" s="4" t="n">
@@ -1650,7 +1650,7 @@
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>Dr. Anand B</t>
+          <t>Dr. Chandrika Kamat</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="H16" s="4" t="inlineStr">
         <is>
-          <t>C407</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="I16" s="4" t="n">
@@ -1693,7 +1693,7 @@
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>Dr. Aswath Babu</t>
+          <t>Prof. SRM Prasanna</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="H17" s="4" t="inlineStr">
         <is>
-          <t>C406</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="I17" s="4" t="n">
@@ -1736,7 +1736,7 @@
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>Dr. Siddharth</t>
+          <t>Dr. Pramod Y</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="H18" s="4" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="I18" s="4" t="n">
@@ -1779,7 +1779,7 @@
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>Dr.Animesh chaturvedi</t>
+          <t>Dr. Krishnendu</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
@@ -1822,7 +1822,7 @@
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>Dr. Krishnendu</t>
+          <t>Dr.Anushree Kini</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
@@ -1865,7 +1865,7 @@
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Dr. Jagadeesha R Bhat</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pramod Yelmewad</t>
+          <t>Dr. Girish Revadigar</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
@@ -1918,7 +1918,7 @@
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
@@ -1951,7 +1951,7 @@
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>Dr. Siddharth</t>
+          <t>Dr. Rajesh Kumar</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
@@ -1994,7 +1994,7 @@
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>Dr. Somen B</t>
+          <t>Dr.Rajesh Kumar</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
@@ -2037,7 +2037,7 @@
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>Dr.Rajesh Kumar</t>
+          <t>Dr.Animesh chaturvedi</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
@@ -2080,7 +2080,7 @@
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>Dr. Somen Bhattacharjee</t>
+          <t>Dr. Prabhu Prasad</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
@@ -2123,7 +2123,7 @@
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>Dr. Vivekraj</t>
+          <t>Dr. Sibasankar Padhy</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
@@ -2166,7 +2166,7 @@
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagadeesha R Bhat</t>
+          <t>Dr. Sunil Saumya</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="H28" s="4" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="I28" s="4" t="n">
@@ -2209,7 +2209,7 @@
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>Dr. Girish Revadigar</t>
+          <t>Dr. Utkarsh Khaire</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
@@ -2219,7 +2219,7 @@
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
@@ -2242,7 +2242,7 @@
       </c>
       <c r="H29" s="4" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="I29" s="4" t="n">
@@ -2252,7 +2252,7 @@
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>Dr. Malay</t>
+          <t>Dr. Chinmayananda A</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="H30" s="4" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="I30" s="4" t="n">
@@ -2295,7 +2295,7 @@
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>Dr.Shirshendu Layek</t>
+          <t>Dr. Mallikarjun</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
@@ -2305,7 +2305,7 @@
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H31" s="4" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C408</t>
         </is>
       </c>
       <c r="I31" s="4" t="n">
@@ -2338,7 +2338,7 @@
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagadeesha R Bhat</t>
+          <t>Dr. Aswath Babu</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="H32" s="4" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C407</t>
         </is>
       </c>
       <c r="I32" s="4" t="n">
@@ -2381,7 +2381,7 @@
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>Dr. Animesh Roy</t>
+          <t>Dr.Shirshendu Layek</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
@@ -2391,7 +2391,7 @@
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
@@ -2424,7 +2424,7 @@
     <row r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>Dr. Ramesh Athe</t>
+          <t>Dr Ramesh Athe</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="H34" s="4" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>C406</t>
         </is>
       </c>
       <c r="I34" s="4" t="n">
@@ -2467,7 +2467,7 @@
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>Dr. Krishnendu</t>
+          <t>Dr. Somen B</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
@@ -2500,7 +2500,7 @@
       </c>
       <c r="H35" s="4" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C405</t>
         </is>
       </c>
       <c r="I35" s="4" t="n">
@@ -2510,7 +2510,7 @@
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>Dr. Suvadip H</t>
+          <t>Dr. Anand B</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="H36" s="4" t="inlineStr">
         <is>
-          <t>C408</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="I36" s="4" t="n">
@@ -2553,7 +2553,7 @@
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>Dr. Abdul Wahid</t>
+          <t>Dr. Deepak K.T</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="H37" s="4" t="inlineStr">
         <is>
-          <t>C407</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="I37" s="4" t="n">
@@ -2596,7 +2596,7 @@
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>Dr.Animesh chaturvedi</t>
+          <t>Dr. Jagdish D.N</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="H38" s="4" t="inlineStr">
         <is>
-          <t>C406</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="I38" s="4" t="n">
@@ -2639,7 +2639,7 @@
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>Dr.Siddharth</t>
+          <t>Dr. Jagdish D.N</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
@@ -2682,7 +2682,7 @@
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>Dr.Siddharth</t>
+          <t>Dr. Siddharth</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="H40" s="4" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="I40" s="4" t="n">
@@ -2725,7 +2725,7 @@
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pankaj Kumar</t>
+          <t>Dr.Siddharth</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
@@ -2735,7 +2735,7 @@
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
@@ -2768,7 +2768,7 @@
     <row r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>Dr. Krishnendu</t>
+          <t>Dr.Siddharth</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
@@ -2778,7 +2778,7 @@
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
@@ -2811,7 +2811,7 @@
     <row r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>Dr.Anushree Kini</t>
+          <t>Dr.Ramesh Athe</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
@@ -2854,7 +2854,7 @@
     <row r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>Dr.Animesh Chaturvedi</t>
+          <t>Dr. Pramod Y</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
@@ -2897,7 +2897,7 @@
     <row r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pankaj Kumar</t>
+          <t>Dr. Ramesh Athe</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
@@ -2940,7 +2940,7 @@
     <row r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>Dr. Somen B</t>
+          <t>Dr. Girirsh Revadigar</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
@@ -2983,7 +2983,7 @@
     <row r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagdeesh DN</t>
+          <t>Dr. Pankaj Kumar</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="H47" s="4" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="I47" s="4" t="n">
@@ -3026,7 +3026,7 @@
     <row r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>Dr.Rajesh N S</t>
+          <t>Dr. Dibyajyothi Guha</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="H48" s="4" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="I48" s="4" t="n">
@@ -3069,7 +3069,7 @@
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>Dr. Anand B</t>
+          <t>Dr. Anushree Kini</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="H49" s="4" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="I49" s="4" t="n">
@@ -3112,7 +3112,7 @@
     <row r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>Dr Ramesh Athe</t>
+          <t>Dr. Sandesh P</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
@@ -3122,7 +3122,7 @@
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="H50" s="4" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C408</t>
         </is>
       </c>
       <c r="I50" s="4" t="n">
@@ -3155,7 +3155,7 @@
     <row r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>D. Rajesh Kumar</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
@@ -3188,7 +3188,7 @@
       </c>
       <c r="H51" s="4" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>C407</t>
         </is>
       </c>
       <c r="I51" s="4" t="n">
@@ -3198,7 +3198,7 @@
     <row r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>Dr. Ashwath Babu</t>
+          <t>Dr. Somen Bhattacharjee</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
@@ -3231,7 +3231,7 @@
       </c>
       <c r="H52" s="4" t="inlineStr">
         <is>
-          <t>C408</t>
+          <t>C406</t>
         </is>
       </c>
       <c r="I52" s="4" t="n">
@@ -3241,7 +3241,7 @@
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sunil Saumya</t>
+          <t>Dr. Sunil CK</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
@@ -3251,7 +3251,7 @@
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
@@ -3274,7 +3274,7 @@
       </c>
       <c r="H53" s="4" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C405</t>
         </is>
       </c>
       <c r="I53" s="4" t="n">
@@ -3284,7 +3284,7 @@
     <row r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagdish R.B</t>
+          <t>Dr Ramesh Athe</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
@@ -3294,7 +3294,7 @@
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr">
@@ -3317,7 +3317,7 @@
       </c>
       <c r="H54" s="4" t="inlineStr">
         <is>
-          <t>C407</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="I54" s="4" t="n">
@@ -3327,7 +3327,7 @@
     <row r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>Dr.Animesh Chaturvedi</t>
+          <t>Dr. Somen B</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
@@ -3360,7 +3360,7 @@
       </c>
       <c r="H55" s="4" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="I55" s="4" t="n">
@@ -3370,7 +3370,7 @@
     <row r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>Dr. Manjuth KV</t>
+          <t>Dr.Utkarsh Khaire</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
@@ -3380,7 +3380,7 @@
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D56" s="4" t="inlineStr">
@@ -3403,7 +3403,7 @@
       </c>
       <c r="H56" s="4" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="I56" s="4" t="n">
@@ -3413,7 +3413,7 @@
     <row r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>Dr. Shirshendu Layek</t>
+          <t>Dr. Ashwath Babu</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="C57" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D57" s="4" t="inlineStr">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="H57" s="4" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="I57" s="4" t="n">
@@ -3456,7 +3456,7 @@
     <row r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>Dr. Chinmayananda</t>
+          <t>Dr. Malay</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D58" s="4" t="inlineStr">
@@ -3499,7 +3499,7 @@
     <row r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>Dr. Dibyajyothi Guha</t>
+          <t>Dr. Shirshendu Layek</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
@@ -3509,7 +3509,7 @@
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D59" s="4" t="inlineStr">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="H59" s="4" t="inlineStr">
         <is>
-          <t>C406</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="I59" s="4" t="n">
@@ -3542,7 +3542,7 @@
     <row r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>Dr. Vivekraj</t>
+          <t>Dr. Girish Revadigar</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
@@ -3552,7 +3552,7 @@
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D60" s="4" t="inlineStr">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="H60" s="4" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="I60" s="4" t="n">
@@ -3585,7 +3585,7 @@
     <row r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>Dr. Animesh Roy</t>
+          <t>Dr. Malay</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
@@ -3595,7 +3595,7 @@
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D61" s="4" t="inlineStr">
@@ -3618,7 +3618,7 @@
       </c>
       <c r="H61" s="4" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="I61" s="4" t="n">
@@ -3628,7 +3628,7 @@
     <row r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>Dr.Utkarsh Khaire</t>
+          <t>Dr.Rajesh N S</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="C62" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D62" s="4" t="inlineStr">
@@ -3671,7 +3671,7 @@
     <row r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sunil Saumya</t>
+          <t>Dr. Rajesh NS</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
@@ -3681,7 +3681,7 @@
       </c>
       <c r="C63" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D63" s="4" t="inlineStr">
@@ -3714,7 +3714,7 @@
     <row r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>Dr.Siddharth</t>
+          <t>D. Rajesh Kumar</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
@@ -3724,7 +3724,7 @@
       </c>
       <c r="C64" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D64" s="4" t="inlineStr">
@@ -3757,7 +3757,7 @@
     <row r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>Dr.Anushree Kini</t>
+          <t>Prof. SRM Prasanna</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
@@ -3767,7 +3767,7 @@
       </c>
       <c r="C65" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D65" s="4" t="inlineStr">
@@ -3800,7 +3800,7 @@
     <row r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pankaj Kumar</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="C66" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D66" s="4" t="inlineStr">
@@ -3843,7 +3843,7 @@
     <row r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagdish D.N</t>
+          <t>Dr. Girish Revadigar</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
@@ -3853,7 +3853,7 @@
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D67" s="4" t="inlineStr">
@@ -3886,7 +3886,7 @@
     <row r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>Dr. Krishnendu</t>
+          <t>Dr. Pramod Yelmewad</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
@@ -3896,7 +3896,7 @@
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D68" s="4" t="inlineStr">
@@ -3929,7 +3929,7 @@
     <row r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>Dr. Rajendra H</t>
+          <t>Dr. Anand B</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
@@ -3939,7 +3939,7 @@
       </c>
       <c r="C69" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D69" s="4" t="inlineStr">
@@ -3972,7 +3972,7 @@
     <row r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>Dr.Anushree Kini</t>
+          <t>Dr. Sandesh P</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
@@ -3982,7 +3982,7 @@
       </c>
       <c r="C70" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D70" s="4" t="inlineStr">
@@ -4015,7 +4015,7 @@
     <row r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>Dr. Manjuth KV</t>
+          <t>Dr.Rajesh N S</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
@@ -4025,7 +4025,7 @@
       </c>
       <c r="C71" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D71" s="4" t="inlineStr">
@@ -4058,7 +4058,7 @@
     <row r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pramod Yelmewad</t>
+          <t>Dr. Suvadip H</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
@@ -4068,7 +4068,7 @@
       </c>
       <c r="C72" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D72" s="4" t="inlineStr">
@@ -4101,7 +4101,7 @@
     <row r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>Dr. Suvadip H</t>
+          <t>Dr. Chandrika Kamat</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="C73" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D73" s="4" t="inlineStr">
@@ -4144,7 +4144,7 @@
     <row r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>Dr. Siddharth</t>
+          <t>Dr. Vivekraj</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
@@ -4154,7 +4154,7 @@
       </c>
       <c r="C74" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D74" s="4" t="inlineStr">
@@ -4177,7 +4177,7 @@
       </c>
       <c r="H74" s="4" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="I74" s="4" t="n">
@@ -4187,7 +4187,7 @@
     <row r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sibasankar Padhy</t>
+          <t>Dr. Girirsh GN</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="C75" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D75" s="4" t="inlineStr">
@@ -4220,7 +4220,7 @@
       </c>
       <c r="H75" s="4" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>C408</t>
         </is>
       </c>
       <c r="I75" s="4" t="n">
@@ -4230,7 +4230,7 @@
     <row r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>Dr.Shirshendu Layek</t>
+          <t>Dr. Prakash Pawar</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
@@ -4240,7 +4240,7 @@
       </c>
       <c r="C76" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D76" s="4" t="inlineStr">
@@ -4263,7 +4263,7 @@
       </c>
       <c r="H76" s="4" t="inlineStr">
         <is>
-          <t>C408</t>
+          <t>C407</t>
         </is>
       </c>
       <c r="I76" s="4" t="n">
@@ -4273,7 +4273,7 @@
     <row r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>Dr Ramesh Athe</t>
+          <t>Dr. Malay</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
@@ -4283,7 +4283,7 @@
       </c>
       <c r="C77" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D77" s="4" t="inlineStr">
@@ -4306,7 +4306,7 @@
       </c>
       <c r="H77" s="4" t="inlineStr">
         <is>
-          <t>C407</t>
+          <t>C406</t>
         </is>
       </c>
       <c r="I77" s="4" t="n">
@@ -4316,7 +4316,7 @@
     <row r="78">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>Dr. Dibyajoti Guha</t>
+          <t>Dr. Sibasankar Padhy</t>
         </is>
       </c>
       <c r="B78" s="4" t="inlineStr">
@@ -4326,7 +4326,7 @@
       </c>
       <c r="C78" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D78" s="4" t="inlineStr">
@@ -4349,7 +4349,7 @@
       </c>
       <c r="H78" s="4" t="inlineStr">
         <is>
-          <t>C406</t>
+          <t>C405</t>
         </is>
       </c>
       <c r="I78" s="4" t="n">
@@ -4359,7 +4359,7 @@
     <row r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>Dr. Manjuth KV</t>
+          <t>Dr.Utkarsh Khaire</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
@@ -4369,7 +4369,7 @@
       </c>
       <c r="C79" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D79" s="4" t="inlineStr">
@@ -4402,7 +4402,7 @@
     <row r="80">
       <c r="A80" s="4" t="inlineStr">
         <is>
-          <t>Dr.Ramesh Athe</t>
+          <t>Dr. Rajendra H</t>
         </is>
       </c>
       <c r="B80" s="4" t="inlineStr">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="C80" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D80" s="4" t="inlineStr">
@@ -4435,7 +4435,7 @@
       </c>
       <c r="H80" s="4" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="I80" s="4" t="n">
@@ -4445,7 +4445,7 @@
     <row r="81">
       <c r="A81" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pavan Kumar</t>
+          <t>Dr. Jagadeesha R Bhat</t>
         </is>
       </c>
       <c r="B81" s="4" t="inlineStr">
@@ -4455,7 +4455,7 @@
       </c>
       <c r="C81" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D81" s="4" t="inlineStr">
@@ -4488,7 +4488,7 @@
     <row r="82">
       <c r="A82" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pramod Yelmewad</t>
+          <t>Dr.Animesh Chaturvedi</t>
         </is>
       </c>
       <c r="B82" s="4" t="inlineStr">
@@ -4498,7 +4498,7 @@
       </c>
       <c r="C82" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D82" s="4" t="inlineStr">
@@ -4531,7 +4531,7 @@
     <row r="83">
       <c r="A83" s="4" t="inlineStr">
         <is>
-          <t>Dr. Suvadip H</t>
+          <t>Dr. Chandrika Kamat</t>
         </is>
       </c>
       <c r="B83" s="4" t="inlineStr">
@@ -4541,7 +4541,7 @@
       </c>
       <c r="C83" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D83" s="4" t="inlineStr">
@@ -4574,7 +4574,7 @@
     <row r="84">
       <c r="A84" s="4" t="inlineStr">
         <is>
-          <t>Dr. Ashwath Babu &amp; Prof. Ravi Shankar</t>
+          <t>Dr. Sandesh P</t>
         </is>
       </c>
       <c r="B84" s="4" t="inlineStr">
@@ -4584,7 +4584,7 @@
       </c>
       <c r="C84" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D84" s="4" t="inlineStr">
@@ -4617,7 +4617,7 @@
     <row r="85">
       <c r="A85" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sibasankar Padhy</t>
+          <t>Dr. Chandrika Kamath</t>
         </is>
       </c>
       <c r="B85" s="4" t="inlineStr">
@@ -4627,7 +4627,7 @@
       </c>
       <c r="C85" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D85" s="4" t="inlineStr">
@@ -4660,7 +4660,7 @@
     <row r="86">
       <c r="A86" s="4" t="inlineStr">
         <is>
-          <t>Dr. Rajesh Kumar</t>
+          <t>Dr. Jagdish R.B</t>
         </is>
       </c>
       <c r="B86" s="4" t="inlineStr">
@@ -4670,7 +4670,7 @@
       </c>
       <c r="C86" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D86" s="4" t="inlineStr">
@@ -4713,7 +4713,7 @@
       </c>
       <c r="C87" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D87" s="4" t="inlineStr">
@@ -4746,7 +4746,7 @@
     <row r="88">
       <c r="A88" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagdeesh DN</t>
+          <t>Dr.Rajesh Kumar</t>
         </is>
       </c>
       <c r="B88" s="4" t="inlineStr">
@@ -4756,7 +4756,7 @@
       </c>
       <c r="C88" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D88" s="4" t="inlineStr">
@@ -4789,7 +4789,7 @@
     <row r="89">
       <c r="A89" s="4" t="inlineStr">
         <is>
-          <t>Dr. Anushree Kini</t>
+          <t>Dr.Manjunath K V</t>
         </is>
       </c>
       <c r="B89" s="4" t="inlineStr">
@@ -4799,7 +4799,7 @@
       </c>
       <c r="C89" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D89" s="4" t="inlineStr">
@@ -4832,7 +4832,7 @@
     <row r="90">
       <c r="A90" s="4" t="inlineStr">
         <is>
-          <t>Prof. SRM Prasanna</t>
+          <t>Dr.Rajesh N S</t>
         </is>
       </c>
       <c r="B90" s="4" t="inlineStr">
@@ -4842,7 +4842,7 @@
       </c>
       <c r="C90" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D90" s="4" t="inlineStr">
@@ -4875,7 +4875,7 @@
     <row r="91">
       <c r="A91" s="4" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Dr. Pankaj Kumar</t>
         </is>
       </c>
       <c r="B91" s="4" t="inlineStr">
@@ -4885,7 +4885,7 @@
       </c>
       <c r="C91" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D91" s="4" t="inlineStr">
@@ -4918,7 +4918,7 @@
     <row r="92">
       <c r="A92" s="4" t="inlineStr">
         <is>
-          <t>Dr. Somen Bhattacharjee</t>
+          <t>Dr. Ramesh Athe</t>
         </is>
       </c>
       <c r="B92" s="4" t="inlineStr">
@@ -4928,7 +4928,7 @@
       </c>
       <c r="C92" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D92" s="4" t="inlineStr">
@@ -4961,7 +4961,7 @@
     <row r="93">
       <c r="A93" s="4" t="inlineStr">
         <is>
-          <t>Dr. Rajendra H</t>
+          <t>Dr. Sandesh P</t>
         </is>
       </c>
       <c r="B93" s="4" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="C93" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D93" s="4" t="inlineStr">
@@ -5004,7 +5004,7 @@
     <row r="94">
       <c r="A94" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagdish R.B</t>
+          <t>Dr. Sunil CK</t>
         </is>
       </c>
       <c r="B94" s="4" t="inlineStr">
@@ -5014,7 +5014,7 @@
       </c>
       <c r="C94" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D94" s="4" t="inlineStr">
@@ -5047,7 +5047,7 @@
     <row r="95">
       <c r="A95" s="4" t="inlineStr">
         <is>
-          <t>Dr.Animesh Chaturvedi</t>
+          <t>D. Rajesh Kumar</t>
         </is>
       </c>
       <c r="B95" s="4" t="inlineStr">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="C95" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D95" s="4" t="inlineStr">
@@ -5090,7 +5090,7 @@
     <row r="96">
       <c r="A96" s="4" t="inlineStr">
         <is>
-          <t>Dr. Shirshendu Layek</t>
+          <t>Dr. Ashwath Babu &amp; Prof. Ravi Shankar</t>
         </is>
       </c>
       <c r="B96" s="4" t="inlineStr">
@@ -5100,7 +5100,7 @@
       </c>
       <c r="C96" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D96" s="4" t="inlineStr">
@@ -5143,7 +5143,7 @@
       </c>
       <c r="C97" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D97" s="4" t="inlineStr">
@@ -5176,7 +5176,7 @@
     <row r="98">
       <c r="A98" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sunil CK</t>
+          <t>Dr. Prabhu Prasad</t>
         </is>
       </c>
       <c r="B98" s="4" t="inlineStr">
@@ -5186,7 +5186,7 @@
       </c>
       <c r="C98" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D98" s="4" t="inlineStr">
@@ -5219,7 +5219,7 @@
     <row r="99">
       <c r="A99" s="4" t="inlineStr">
         <is>
-          <t>Dr. Girish Revadigar</t>
+          <t>Dr.Utkarsh Khaire</t>
         </is>
       </c>
       <c r="B99" s="4" t="inlineStr">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="C99" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D99" s="4" t="inlineStr">
@@ -5262,7 +5262,7 @@
     <row r="100">
       <c r="A100" s="4" t="inlineStr">
         <is>
-          <t>Dr. Anand B</t>
+          <t>Dr. Girirsh Revadigar</t>
         </is>
       </c>
       <c r="B100" s="4" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="C100" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D100" s="4" t="inlineStr">
@@ -5305,7 +5305,7 @@
     <row r="101">
       <c r="A101" s="4" t="inlineStr">
         <is>
-          <t>Dr. Chinmayananda</t>
+          <t>Dr. Jagadeesha R Bhat</t>
         </is>
       </c>
       <c r="B101" s="4" t="inlineStr">
@@ -5315,7 +5315,7 @@
       </c>
       <c r="C101" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D101" s="4" t="inlineStr">
@@ -5348,7 +5348,7 @@
     <row r="102">
       <c r="A102" s="4" t="inlineStr">
         <is>
-          <t>Dr. Dibyajyothi Guha</t>
+          <t>Dr.Utkarsh Khaire</t>
         </is>
       </c>
       <c r="B102" s="4" t="inlineStr">
@@ -5358,7 +5358,7 @@
       </c>
       <c r="C102" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D102" s="4" t="inlineStr">
@@ -5391,7 +5391,7 @@
     <row r="103">
       <c r="A103" s="4" t="inlineStr">
         <is>
-          <t>Dr. Dibyajyothi Guha</t>
+          <t>Dr. Mallikarjun</t>
         </is>
       </c>
       <c r="B103" s="4" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="C103" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D103" s="4" t="inlineStr">
@@ -5434,7 +5434,7 @@
     <row r="104">
       <c r="A104" s="4" t="inlineStr">
         <is>
-          <t>Dr.Animesh chaturvedi</t>
+          <t>Dr. Jagadeesha R Bhat</t>
         </is>
       </c>
       <c r="B104" s="4" t="inlineStr">
@@ -5444,7 +5444,7 @@
       </c>
       <c r="C104" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D104" s="4" t="inlineStr">
@@ -5477,7 +5477,7 @@
     <row r="105">
       <c r="A105" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagdish R.B</t>
+          <t>Dr. Pramod Yelmewad</t>
         </is>
       </c>
       <c r="B105" s="4" t="inlineStr">
@@ -5487,7 +5487,7 @@
       </c>
       <c r="C105" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D105" s="4" t="inlineStr">
@@ -5520,7 +5520,7 @@
     <row r="106">
       <c r="A106" s="4" t="inlineStr">
         <is>
-          <t>Dr. Anand B</t>
+          <t>Dr.Jagadeesha R Bhat</t>
         </is>
       </c>
       <c r="B106" s="4" t="inlineStr">
@@ -5530,7 +5530,7 @@
       </c>
       <c r="C106" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D106" s="4" t="inlineStr">
@@ -5563,7 +5563,7 @@
     <row r="107">
       <c r="A107" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagdish D.N</t>
+          <t>Dr. Rajesh Kumar</t>
         </is>
       </c>
       <c r="B107" s="4" t="inlineStr">
@@ -5573,7 +5573,7 @@
       </c>
       <c r="C107" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D107" s="4" t="inlineStr">
@@ -5606,7 +5606,7 @@
     <row r="108">
       <c r="A108" s="4" t="inlineStr">
         <is>
-          <t>Dr. Prakash Pawar</t>
+          <t>Dr. Anushree Kini</t>
         </is>
       </c>
       <c r="B108" s="4" t="inlineStr">
@@ -5616,7 +5616,7 @@
       </c>
       <c r="C108" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D108" s="4" t="inlineStr">
@@ -5649,7 +5649,7 @@
     <row r="109">
       <c r="A109" s="4" t="inlineStr">
         <is>
-          <t>Dr. Anushree Kini</t>
+          <t>Dr. Mallikarjun</t>
         </is>
       </c>
       <c r="B109" s="4" t="inlineStr">
@@ -5659,7 +5659,7 @@
       </c>
       <c r="C109" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D109" s="4" t="inlineStr">
@@ -5692,7 +5692,7 @@
     <row r="110">
       <c r="A110" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sunil CK</t>
+          <t>Dr. Pramod Yelmewad</t>
         </is>
       </c>
       <c r="B110" s="4" t="inlineStr">
@@ -5702,7 +5702,7 @@
       </c>
       <c r="C110" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D110" s="4" t="inlineStr">
@@ -5735,7 +5735,7 @@
     <row r="111">
       <c r="A111" s="4" t="inlineStr">
         <is>
-          <t>Dr.Ramesh Athe</t>
+          <t>Dr. Pavan</t>
         </is>
       </c>
       <c r="B111" s="4" t="inlineStr">
@@ -5745,7 +5745,7 @@
       </c>
       <c r="C111" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D111" s="4" t="inlineStr">
@@ -5778,7 +5778,7 @@
     <row r="112">
       <c r="A112" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sandesh P</t>
+          <t>Dr. Chinmayananda A</t>
         </is>
       </c>
       <c r="B112" s="4" t="inlineStr">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="C112" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D112" s="4" t="inlineStr">
@@ -5821,7 +5821,7 @@
     <row r="113">
       <c r="A113" s="4" t="inlineStr">
         <is>
-          <t>Dr. Manjuth KV</t>
+          <t>Dr. Sibasankar Padhy</t>
         </is>
       </c>
       <c r="B113" s="4" t="inlineStr">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="C113" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D113" s="4" t="inlineStr">
@@ -5864,7 +5864,7 @@
     <row r="114">
       <c r="A114" s="4" t="inlineStr">
         <is>
-          <t>Dr.Ramesh Athe</t>
+          <t>Dr. Anushree Kini</t>
         </is>
       </c>
       <c r="B114" s="4" t="inlineStr">
@@ -5874,7 +5874,7 @@
       </c>
       <c r="C114" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D114" s="4" t="inlineStr">
@@ -5907,7 +5907,7 @@
     <row r="115">
       <c r="A115" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagadeesha R Bhat</t>
+          <t>Dr. Girish Revadigar</t>
         </is>
       </c>
       <c r="B115" s="4" t="inlineStr">
@@ -5917,7 +5917,7 @@
       </c>
       <c r="C115" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D115" s="4" t="inlineStr">
@@ -5950,7 +5950,7 @@
     <row r="116">
       <c r="A116" s="4" t="inlineStr">
         <is>
-          <t>Dr. Girirsh GN</t>
+          <t>Dr. Girish Revadigar</t>
         </is>
       </c>
       <c r="B116" s="4" t="inlineStr">
@@ -5960,7 +5960,7 @@
       </c>
       <c r="C116" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D116" s="4" t="inlineStr">
@@ -5993,7 +5993,7 @@
     <row r="117">
       <c r="A117" s="4" t="inlineStr">
         <is>
-          <t>Dr. Malay</t>
+          <t>Dr Ramesh Athe</t>
         </is>
       </c>
       <c r="B117" s="4" t="inlineStr">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="C117" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D117" s="4" t="inlineStr">
@@ -6036,7 +6036,7 @@
     <row r="118">
       <c r="A118" s="4" t="inlineStr">
         <is>
-          <t>D. Rajesh Kumar</t>
+          <t>Dr. Prakash Pawar</t>
         </is>
       </c>
       <c r="B118" s="4" t="inlineStr">
@@ -6046,7 +6046,7 @@
       </c>
       <c r="C118" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D118" s="4" t="inlineStr">
@@ -6079,7 +6079,7 @@
     <row r="119">
       <c r="A119" s="4" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Dr. Pramod Yelmewad</t>
         </is>
       </c>
       <c r="B119" s="4" t="inlineStr">
@@ -6089,7 +6089,7 @@
       </c>
       <c r="C119" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D119" s="4" t="inlineStr">
@@ -6122,7 +6122,7 @@
     <row r="120">
       <c r="A120" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagadeesha R Bhat</t>
+          <t>Dr. Animesh Roy</t>
         </is>
       </c>
       <c r="B120" s="4" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="C120" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D120" s="4" t="inlineStr">
@@ -6165,7 +6165,7 @@
     <row r="121">
       <c r="A121" s="4" t="inlineStr">
         <is>
-          <t>Dr. Chandrika Kamat</t>
+          <t>Dr. Chinmayananda A</t>
         </is>
       </c>
       <c r="B121" s="4" t="inlineStr">
@@ -6175,7 +6175,7 @@
       </c>
       <c r="C121" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D121" s="4" t="inlineStr">
@@ -6208,7 +6208,7 @@
     <row r="122">
       <c r="A122" s="4" t="inlineStr">
         <is>
-          <t>Dr.Animesh Chaturvedi</t>
+          <t>Dr.Rajesh Kumar</t>
         </is>
       </c>
       <c r="B122" s="4" t="inlineStr">
@@ -6218,7 +6218,7 @@
       </c>
       <c r="C122" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D122" s="4" t="inlineStr">
@@ -6251,7 +6251,7 @@
     <row r="123">
       <c r="A123" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pankaj Kumar</t>
+          <t>Dr. Siddharth</t>
         </is>
       </c>
       <c r="B123" s="4" t="inlineStr">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="C123" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D123" s="4" t="inlineStr">
@@ -6284,7 +6284,7 @@
       </c>
       <c r="H123" s="4" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="I123" s="4" t="n">
@@ -6294,7 +6294,7 @@
     <row r="124">
       <c r="A124" s="4" t="inlineStr">
         <is>
-          <t>Dr. Girirsh Revadigar</t>
+          <t>Dr.Anushree Kini</t>
         </is>
       </c>
       <c r="B124" s="4" t="inlineStr">
@@ -6304,7 +6304,7 @@
       </c>
       <c r="C124" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D124" s="4" t="inlineStr">
@@ -6327,7 +6327,7 @@
       </c>
       <c r="H124" s="4" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="I124" s="4" t="n">
@@ -6337,7 +6337,7 @@
     <row r="125">
       <c r="A125" s="4" t="inlineStr">
         <is>
-          <t>Dr. Girirsh</t>
+          <t>Dr. Pramod Y</t>
         </is>
       </c>
       <c r="B125" s="4" t="inlineStr">
@@ -6347,7 +6347,7 @@
       </c>
       <c r="C125" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D125" s="4" t="inlineStr">
@@ -6370,7 +6370,7 @@
       </c>
       <c r="H125" s="4" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="I125" s="4" t="n">
@@ -6380,7 +6380,7 @@
     <row r="126">
       <c r="A126" s="4" t="inlineStr">
         <is>
-          <t>Dr. Girish Revadigar</t>
+          <t>Dr. Utkarsh Khaire</t>
         </is>
       </c>
       <c r="B126" s="4" t="inlineStr">
@@ -6390,7 +6390,7 @@
       </c>
       <c r="C126" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D126" s="4" t="inlineStr">
@@ -6413,7 +6413,7 @@
       </c>
       <c r="H126" s="4" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C408</t>
         </is>
       </c>
       <c r="I126" s="4" t="n">
@@ -6423,7 +6423,7 @@
     <row r="127">
       <c r="A127" s="4" t="inlineStr">
         <is>
-          <t>Dr. Ashwath Babu</t>
+          <t>Dr. Girirsh</t>
         </is>
       </c>
       <c r="B127" s="4" t="inlineStr">
@@ -6433,7 +6433,7 @@
       </c>
       <c r="C127" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D127" s="4" t="inlineStr">
@@ -6456,7 +6456,7 @@
       </c>
       <c r="H127" s="4" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C407</t>
         </is>
       </c>
       <c r="I127" s="4" t="n">
@@ -6466,7 +6466,7 @@
     <row r="128">
       <c r="A128" s="4" t="inlineStr">
         <is>
-          <t>Dr.Ramesh Athe</t>
+          <t>Dr. Prakash Pawar</t>
         </is>
       </c>
       <c r="B128" s="4" t="inlineStr">
@@ -6476,7 +6476,7 @@
       </c>
       <c r="C128" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D128" s="4" t="inlineStr">
@@ -6499,7 +6499,7 @@
       </c>
       <c r="H128" s="4" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C406</t>
         </is>
       </c>
       <c r="I128" s="4" t="n">
@@ -6509,7 +6509,7 @@
     <row r="129">
       <c r="A129" s="4" t="inlineStr">
         <is>
-          <t>Dr. Chinmayananda</t>
+          <t>Dr.Jagadeesha R Bhat</t>
         </is>
       </c>
       <c r="B129" s="4" t="inlineStr">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="C129" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D129" s="4" t="inlineStr">
@@ -6552,7 +6552,7 @@
     <row r="130">
       <c r="A130" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagdeesh DN</t>
+          <t>Dr Ramesh Athe</t>
         </is>
       </c>
       <c r="B130" s="4" t="inlineStr">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="C130" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D130" s="4" t="inlineStr">
@@ -6585,7 +6585,7 @@
       </c>
       <c r="H130" s="4" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>C405</t>
         </is>
       </c>
       <c r="I130" s="4" t="n">
@@ -6595,7 +6595,7 @@
     <row r="131">
       <c r="A131" s="4" t="inlineStr">
         <is>
-          <t>Dr. Girirsh Revadigar</t>
+          <t>Dr. Jagdeesh DN</t>
         </is>
       </c>
       <c r="B131" s="4" t="inlineStr">
@@ -6605,7 +6605,7 @@
       </c>
       <c r="C131" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D131" s="4" t="inlineStr">
@@ -6628,7 +6628,7 @@
       </c>
       <c r="H131" s="4" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="I131" s="4" t="n">
@@ -6638,7 +6638,7 @@
     <row r="132">
       <c r="A132" s="4" t="inlineStr">
         <is>
-          <t>Dr. Somen Bhattacharjee</t>
+          <t>Dr. Somen B</t>
         </is>
       </c>
       <c r="B132" s="4" t="inlineStr">
@@ -6648,7 +6648,7 @@
       </c>
       <c r="C132" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D132" s="4" t="inlineStr">
@@ -6671,7 +6671,7 @@
       </c>
       <c r="H132" s="4" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="I132" s="4" t="n">
@@ -6681,7 +6681,7 @@
     <row r="133">
       <c r="A133" s="4" t="inlineStr">
         <is>
-          <t>Dr.Anushree Kini</t>
+          <t>Dr.Manjunath K V</t>
         </is>
       </c>
       <c r="B133" s="4" t="inlineStr">
@@ -6691,7 +6691,7 @@
       </c>
       <c r="C133" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D133" s="4" t="inlineStr">
@@ -6714,7 +6714,7 @@
       </c>
       <c r="H133" s="4" t="inlineStr">
         <is>
-          <t>C408</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="I133" s="4" t="n">
@@ -6724,7 +6724,7 @@
     <row r="134">
       <c r="A134" s="4" t="inlineStr">
         <is>
-          <t>Dr. Shirshendu Layek</t>
+          <t>Dr.Animesh Chaturvedi</t>
         </is>
       </c>
       <c r="B134" s="4" t="inlineStr">
@@ -6734,7 +6734,7 @@
       </c>
       <c r="C134" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D134" s="4" t="inlineStr">
@@ -6757,7 +6757,7 @@
       </c>
       <c r="H134" s="4" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="I134" s="4" t="n">
@@ -6767,7 +6767,7 @@
     <row r="135">
       <c r="A135" s="4" t="inlineStr">
         <is>
-          <t>Dr.Manjunath K V</t>
+          <t>Dr. Dibyajoti Guha</t>
         </is>
       </c>
       <c r="B135" s="4" t="inlineStr">
@@ -6777,7 +6777,7 @@
       </c>
       <c r="C135" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D135" s="4" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="H135" s="4" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="I135" s="4" t="n">
@@ -6810,7 +6810,7 @@
     <row r="136">
       <c r="A136" s="4" t="inlineStr">
         <is>
-          <t>Dr. Vivekraj</t>
+          <t>Dr.Utkarsh Khaire</t>
         </is>
       </c>
       <c r="B136" s="4" t="inlineStr">
@@ -6820,7 +6820,7 @@
       </c>
       <c r="C136" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D136" s="4" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="H136" s="4" t="inlineStr">
         <is>
-          <t>C103</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="I136" s="4" t="n">
@@ -6853,7 +6853,7 @@
     <row r="137">
       <c r="A137" s="4" t="inlineStr">
         <is>
-          <t>Dr. Girirsh Revadigar</t>
+          <t>Dr. Ashwath Babu &amp; Prof. Ravi Shankar</t>
         </is>
       </c>
       <c r="B137" s="4" t="inlineStr">
@@ -6863,7 +6863,7 @@
       </c>
       <c r="C137" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D137" s="4" t="inlineStr">
@@ -6886,7 +6886,7 @@
       </c>
       <c r="H137" s="4" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="I137" s="4" t="n">
@@ -6896,7 +6896,7 @@
     <row r="138">
       <c r="A138" s="4" t="inlineStr">
         <is>
-          <t>Dr.Shirshendu Layek</t>
+          <t>Dr. Ashwath Babu</t>
         </is>
       </c>
       <c r="B138" s="4" t="inlineStr">
@@ -6906,7 +6906,7 @@
       </c>
       <c r="C138" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D138" s="4" t="inlineStr">
@@ -6939,7 +6939,7 @@
     <row r="139">
       <c r="A139" s="4" t="inlineStr">
         <is>
-          <t>Dr.Animesh Chaturvedi</t>
+          <t>Dr. Suvadip H</t>
         </is>
       </c>
       <c r="B139" s="4" t="inlineStr">
@@ -6949,7 +6949,7 @@
       </c>
       <c r="C139" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D139" s="4" t="inlineStr">
@@ -6972,7 +6972,7 @@
       </c>
       <c r="H139" s="4" t="inlineStr">
         <is>
-          <t>C407</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="I139" s="4" t="n">
@@ -6982,7 +6982,7 @@
     <row r="140">
       <c r="A140" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sunil CK</t>
+          <t>Dr. Malay</t>
         </is>
       </c>
       <c r="B140" s="4" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="C140" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D140" s="4" t="inlineStr">
@@ -7015,7 +7015,7 @@
       </c>
       <c r="H140" s="4" t="inlineStr">
         <is>
-          <t>C406</t>
+          <t>C103</t>
         </is>
       </c>
       <c r="I140" s="4" t="n">
@@ -7025,7 +7025,7 @@
     <row r="141">
       <c r="A141" s="4" t="inlineStr">
         <is>
-          <t>Dr. Abdul Wahid</t>
+          <t>Dr. Pankaj Kumar</t>
         </is>
       </c>
       <c r="B141" s="4" t="inlineStr">
@@ -7035,7 +7035,7 @@
       </c>
       <c r="C141" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D141" s="4" t="inlineStr">
@@ -7058,7 +7058,7 @@
       </c>
       <c r="H141" s="4" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="I141" s="4" t="n">
@@ -7068,7 +7068,7 @@
     <row r="142">
       <c r="A142" s="4" t="inlineStr">
         <is>
-          <t>Dr. Chandrika Kamath</t>
+          <t>Dr.Anushree Kini</t>
         </is>
       </c>
       <c r="B142" s="4" t="inlineStr">
@@ -7078,7 +7078,7 @@
       </c>
       <c r="C142" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D142" s="4" t="inlineStr">
@@ -7101,7 +7101,7 @@
       </c>
       <c r="H142" s="4" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="I142" s="4" t="n">
@@ -7111,7 +7111,7 @@
     <row r="143">
       <c r="A143" s="4" t="inlineStr">
         <is>
-          <t>Dr. Somen Bhattacharjee</t>
+          <t>Dr.Shirshendu Layek</t>
         </is>
       </c>
       <c r="B143" s="4" t="inlineStr">
@@ -7121,7 +7121,7 @@
       </c>
       <c r="C143" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D143" s="4" t="inlineStr">
@@ -7154,7 +7154,7 @@
     <row r="144">
       <c r="A144" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sunil Saumya</t>
+          <t>Dr. Prakash Pawar</t>
         </is>
       </c>
       <c r="B144" s="4" t="inlineStr">
@@ -7164,7 +7164,7 @@
       </c>
       <c r="C144" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D144" s="4" t="inlineStr">
@@ -7197,7 +7197,7 @@
     <row r="145">
       <c r="A145" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sibasankar Padhy</t>
+          <t>Dr. Krishnendu</t>
         </is>
       </c>
       <c r="B145" s="4" t="inlineStr">
@@ -7207,7 +7207,7 @@
       </c>
       <c r="C145" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D145" s="4" t="inlineStr">
@@ -7240,7 +7240,7 @@
     <row r="146">
       <c r="A146" s="4" t="inlineStr">
         <is>
-          <t>Dr. Chinmayananda</t>
+          <t>Dr. Deepak K.T</t>
         </is>
       </c>
       <c r="B146" s="4" t="inlineStr">
@@ -7250,7 +7250,7 @@
       </c>
       <c r="C146" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D146" s="4" t="inlineStr">
@@ -7283,7 +7283,7 @@
     <row r="147">
       <c r="A147" s="4" t="inlineStr">
         <is>
-          <t>Dr.Animesh Chaturvedi</t>
+          <t>Dr. Sunil PV</t>
         </is>
       </c>
       <c r="B147" s="4" t="inlineStr">
@@ -7293,7 +7293,7 @@
       </c>
       <c r="C147" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D147" s="4" t="inlineStr">
@@ -7326,7 +7326,7 @@
     <row r="148">
       <c r="A148" s="4" t="inlineStr">
         <is>
-          <t>Dr. Somen B</t>
+          <t>Dr. Somen Bhattacharjee</t>
         </is>
       </c>
       <c r="B148" s="4" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="C148" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D148" s="4" t="inlineStr">
@@ -7369,7 +7369,7 @@
     <row r="149">
       <c r="A149" s="4" t="inlineStr">
         <is>
-          <t>Dr. Manjuth KV</t>
+          <t>Dr.Rajesh N S</t>
         </is>
       </c>
       <c r="B149" s="4" t="inlineStr">
@@ -7379,7 +7379,7 @@
       </c>
       <c r="C149" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D149" s="4" t="inlineStr">
@@ -7412,7 +7412,7 @@
     <row r="150">
       <c r="A150" s="4" t="inlineStr">
         <is>
-          <t>Dr. Deepak K.T</t>
+          <t>Dr. Utkarsh Khaire</t>
         </is>
       </c>
       <c r="B150" s="4" t="inlineStr">
@@ -7422,7 +7422,7 @@
       </c>
       <c r="C150" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D150" s="4" t="inlineStr">
@@ -7455,7 +7455,7 @@
     <row r="151">
       <c r="A151" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pavan Kumar</t>
+          <t>Dr. Ashwath Babu</t>
         </is>
       </c>
       <c r="B151" s="4" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="C151" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D151" s="4" t="inlineStr">
@@ -7488,7 +7488,7 @@
       </c>
       <c r="H151" s="4" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="I151" s="4" t="n">
@@ -7498,7 +7498,7 @@
     <row r="152">
       <c r="A152" s="4" t="inlineStr">
         <is>
-          <t>Dr. Suvadip H</t>
+          <t>Dr. Vivekraj</t>
         </is>
       </c>
       <c r="B152" s="4" t="inlineStr">
@@ -7508,7 +7508,7 @@
       </c>
       <c r="C152" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D152" s="4" t="inlineStr">
@@ -7541,7 +7541,7 @@
     <row r="153">
       <c r="A153" s="4" t="inlineStr">
         <is>
-          <t>Dr.Anushree Kini</t>
+          <t>Dr. Pavan Kumar</t>
         </is>
       </c>
       <c r="B153" s="4" t="inlineStr">
@@ -7551,7 +7551,7 @@
       </c>
       <c r="C153" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D153" s="4" t="inlineStr">
@@ -7574,7 +7574,7 @@
       </c>
       <c r="H153" s="4" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="I153" s="4" t="n">
@@ -7584,7 +7584,7 @@
     <row r="154">
       <c r="A154" s="4" t="inlineStr">
         <is>
-          <t>Dr. Somen Bhattacharjee</t>
+          <t>Dr. Abdul Wahid</t>
         </is>
       </c>
       <c r="B154" s="4" t="inlineStr">
@@ -7594,7 +7594,7 @@
       </c>
       <c r="C154" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D154" s="4" t="inlineStr">
@@ -7627,7 +7627,7 @@
     <row r="155">
       <c r="A155" s="4" t="inlineStr">
         <is>
-          <t>Dr. Ramesh Athe</t>
+          <t>Dr. Sunil CK</t>
         </is>
       </c>
       <c r="B155" s="4" t="inlineStr">
@@ -7637,7 +7637,7 @@
       </c>
       <c r="C155" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D155" s="4" t="inlineStr">
@@ -7660,7 +7660,7 @@
       </c>
       <c r="H155" s="4" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>C408</t>
         </is>
       </c>
       <c r="I155" s="4" t="n">
@@ -7680,7 +7680,7 @@
       </c>
       <c r="C156" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D156" s="4" t="inlineStr">
@@ -7713,7 +7713,7 @@
     <row r="157">
       <c r="A157" s="4" t="inlineStr">
         <is>
-          <t>Dr. Chandrika Kamath</t>
+          <t>Dr.Rajesh Kumar</t>
         </is>
       </c>
       <c r="B157" s="4" t="inlineStr">
@@ -7723,7 +7723,7 @@
       </c>
       <c r="C157" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D157" s="4" t="inlineStr">
@@ -7756,7 +7756,7 @@
     <row r="158">
       <c r="A158" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pramod Yelmewad</t>
+          <t>Dr. Jagdish R.B</t>
         </is>
       </c>
       <c r="B158" s="4" t="inlineStr">
@@ -7766,7 +7766,7 @@
       </c>
       <c r="C158" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D158" s="4" t="inlineStr">
@@ -7799,7 +7799,7 @@
     <row r="159">
       <c r="A159" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pavan Kumar</t>
+          <t>Dr. Sunil PV</t>
         </is>
       </c>
       <c r="B159" s="4" t="inlineStr">
@@ -7809,7 +7809,7 @@
       </c>
       <c r="C159" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D159" s="4" t="inlineStr">
@@ -7832,7 +7832,7 @@
       </c>
       <c r="H159" s="4" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="I159" s="4" t="n">
@@ -7842,7 +7842,7 @@
     <row r="160">
       <c r="A160" s="4" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Dr. Jagadeesha R Bhat</t>
         </is>
       </c>
       <c r="B160" s="4" t="inlineStr">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="C160" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D160" s="4" t="inlineStr">
@@ -7885,7 +7885,7 @@
     <row r="161">
       <c r="A161" s="4" t="inlineStr">
         <is>
-          <t>Dr. Dibyajyothi Guha</t>
+          <t>Dr.Shirshendu Layek</t>
         </is>
       </c>
       <c r="B161" s="4" t="inlineStr">
@@ -7895,7 +7895,7 @@
       </c>
       <c r="C161" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D161" s="4" t="inlineStr">
@@ -7918,7 +7918,7 @@
       </c>
       <c r="H161" s="4" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="I161" s="4" t="n">
@@ -7928,7 +7928,7 @@
     <row r="162">
       <c r="A162" s="4" t="inlineStr">
         <is>
-          <t>Dr.Rajesh N S</t>
+          <t>Dr.Rajesh Kumar</t>
         </is>
       </c>
       <c r="B162" s="4" t="inlineStr">
@@ -7938,7 +7938,7 @@
       </c>
       <c r="C162" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D162" s="4" t="inlineStr">
@@ -7971,7 +7971,7 @@
     <row r="163">
       <c r="A163" s="4" t="inlineStr">
         <is>
-          <t>Dr. Siddharth</t>
+          <t>Dr. Girirsh Revadigar</t>
         </is>
       </c>
       <c r="B163" s="4" t="inlineStr">
@@ -7981,7 +7981,7 @@
       </c>
       <c r="C163" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D163" s="4" t="inlineStr">
@@ -8014,7 +8014,7 @@
     <row r="164">
       <c r="A164" s="4" t="inlineStr">
         <is>
-          <t>Dr. Somen B</t>
+          <t>Dr. Utkarsh Khaire</t>
         </is>
       </c>
       <c r="B164" s="4" t="inlineStr">
@@ -8024,7 +8024,7 @@
       </c>
       <c r="C164" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D164" s="4" t="inlineStr">
@@ -8057,7 +8057,7 @@
     <row r="165">
       <c r="A165" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sunil PV</t>
+          <t>Dr. Sunil CK</t>
         </is>
       </c>
       <c r="B165" s="4" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="C165" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D165" s="4" t="inlineStr">
@@ -8100,7 +8100,7 @@
     <row r="166">
       <c r="A166" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sandesh P</t>
+          <t>Dr. Vivekraj</t>
         </is>
       </c>
       <c r="B166" s="4" t="inlineStr">
@@ -8110,7 +8110,7 @@
       </c>
       <c r="C166" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D166" s="4" t="inlineStr">
@@ -8143,7 +8143,7 @@
     <row r="167">
       <c r="A167" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sunil Saumya</t>
+          <t>Dr.Ramesh Athe</t>
         </is>
       </c>
       <c r="B167" s="4" t="inlineStr">
@@ -8153,7 +8153,7 @@
       </c>
       <c r="C167" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D167" s="4" t="inlineStr">
@@ -8186,7 +8186,7 @@
     <row r="168">
       <c r="A168" s="4" t="inlineStr">
         <is>
-          <t>Dr.Animesh Chaturvedi</t>
+          <t>Dr. Pavan Kumar</t>
         </is>
       </c>
       <c r="B168" s="4" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="C168" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D168" s="4" t="inlineStr">
@@ -8219,7 +8219,7 @@
       </c>
       <c r="H168" s="4" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="I168" s="4" t="n">
@@ -8229,7 +8229,7 @@
     <row r="169">
       <c r="A169" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagadeesha R Bhat</t>
+          <t>Dr.Ramesh Athe</t>
         </is>
       </c>
       <c r="B169" s="4" t="inlineStr">
@@ -8239,7 +8239,7 @@
       </c>
       <c r="C169" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D169" s="4" t="inlineStr">
@@ -8262,7 +8262,7 @@
       </c>
       <c r="H169" s="4" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>C408</t>
         </is>
       </c>
       <c r="I169" s="4" t="n">
@@ -8272,7 +8272,7 @@
     <row r="170">
       <c r="A170" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagdeesh DN</t>
+          <t>Dr. Sandesh P</t>
         </is>
       </c>
       <c r="B170" s="4" t="inlineStr">
@@ -8282,7 +8282,7 @@
       </c>
       <c r="C170" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D170" s="4" t="inlineStr">
@@ -8305,7 +8305,7 @@
       </c>
       <c r="H170" s="4" t="inlineStr">
         <is>
-          <t>C408</t>
+          <t>C407</t>
         </is>
       </c>
       <c r="I170" s="4" t="n">
@@ -8315,7 +8315,7 @@
     <row r="171">
       <c r="A171" s="4" t="inlineStr">
         <is>
-          <t>Dr. Somen Bhattacharjee</t>
+          <t>Dr.Ramesh Athe</t>
         </is>
       </c>
       <c r="B171" s="4" t="inlineStr">
@@ -8325,7 +8325,7 @@
       </c>
       <c r="C171" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D171" s="4" t="inlineStr">
@@ -8348,7 +8348,7 @@
       </c>
       <c r="H171" s="4" t="inlineStr">
         <is>
-          <t>C407</t>
+          <t>C406</t>
         </is>
       </c>
       <c r="I171" s="4" t="n">
@@ -8358,7 +8358,7 @@
     <row r="172">
       <c r="A172" s="4" t="inlineStr">
         <is>
-          <t>Dr. Suvadip H</t>
+          <t>Dr. Somen B</t>
         </is>
       </c>
       <c r="B172" s="4" t="inlineStr">
@@ -8368,7 +8368,7 @@
       </c>
       <c r="C172" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D172" s="4" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="H172" s="4" t="inlineStr">
         <is>
-          <t>C406</t>
+          <t>C405</t>
         </is>
       </c>
       <c r="I172" s="4" t="n">
@@ -8401,7 +8401,7 @@
     <row r="173">
       <c r="A173" s="4" t="inlineStr">
         <is>
-          <t>Dr. Anand P Barangi</t>
+          <t>Dr.Anushree Kini</t>
         </is>
       </c>
       <c r="B173" s="4" t="inlineStr">
@@ -8411,7 +8411,7 @@
       </c>
       <c r="C173" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D173" s="4" t="inlineStr">
@@ -8434,7 +8434,7 @@
       </c>
       <c r="H173" s="4" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="I173" s="4" t="n">
@@ -8444,7 +8444,7 @@
     <row r="174">
       <c r="A174" s="4" t="inlineStr">
         <is>
-          <t>Dr.Manjunath K V</t>
+          <t>Dr. Aswath Babu</t>
         </is>
       </c>
       <c r="B174" s="4" t="inlineStr">
@@ -8454,7 +8454,7 @@
       </c>
       <c r="C174" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D174" s="4" t="inlineStr">
@@ -8487,7 +8487,7 @@
     <row r="175">
       <c r="A175" s="4" t="inlineStr">
         <is>
-          <t>Dr. Girirsh Revadigar</t>
+          <t>Dr. Pavan</t>
         </is>
       </c>
       <c r="B175" s="4" t="inlineStr">
@@ -8497,7 +8497,7 @@
       </c>
       <c r="C175" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D175" s="4" t="inlineStr">
@@ -8530,7 +8530,7 @@
     <row r="176">
       <c r="A176" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pramod Yelmewad</t>
+          <t>Dr.Animesh Chaturvedi</t>
         </is>
       </c>
       <c r="B176" s="4" t="inlineStr">
@@ -8540,7 +8540,7 @@
       </c>
       <c r="C176" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D176" s="4" t="inlineStr">
@@ -8573,7 +8573,7 @@
     <row r="177">
       <c r="A177" s="4" t="inlineStr">
         <is>
-          <t>Dr.Manjunath K V</t>
+          <t>Dr. Prakash Pawar</t>
         </is>
       </c>
       <c r="B177" s="4" t="inlineStr">
@@ -8583,7 +8583,7 @@
       </c>
       <c r="C177" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D177" s="4" t="inlineStr">
@@ -8626,7 +8626,7 @@
       </c>
       <c r="C178" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D178" s="4" t="inlineStr">
@@ -8659,7 +8659,7 @@
     <row r="179">
       <c r="A179" s="4" t="inlineStr">
         <is>
-          <t>Dr. Manjuth KV</t>
+          <t>Dr. Chandrika Kamat</t>
         </is>
       </c>
       <c r="B179" s="4" t="inlineStr">
@@ -8669,7 +8669,7 @@
       </c>
       <c r="C179" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D179" s="4" t="inlineStr">
@@ -8702,7 +8702,7 @@
     <row r="180">
       <c r="A180" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sibasankar Padhy</t>
+          <t>Dr.Utkarsh Khaire</t>
         </is>
       </c>
       <c r="B180" s="4" t="inlineStr">
@@ -8712,7 +8712,7 @@
       </c>
       <c r="C180" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D180" s="4" t="inlineStr">
@@ -8745,7 +8745,7 @@
     <row r="181">
       <c r="A181" s="4" t="inlineStr">
         <is>
-          <t>Dr. Ashwath Babu</t>
+          <t>Dr. Ramesh Athe</t>
         </is>
       </c>
       <c r="B181" s="4" t="inlineStr">
@@ -8755,7 +8755,7 @@
       </c>
       <c r="C181" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D181" s="4" t="inlineStr">
@@ -8788,7 +8788,7 @@
     <row r="182">
       <c r="A182" s="4" t="inlineStr">
         <is>
-          <t>Dr. Suvadip H</t>
+          <t>Dr. Anushree Kini</t>
         </is>
       </c>
       <c r="B182" s="4" t="inlineStr">
@@ -8798,7 +8798,7 @@
       </c>
       <c r="C182" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D182" s="4" t="inlineStr">
@@ -8831,7 +8831,7 @@
     <row r="183">
       <c r="A183" s="4" t="inlineStr">
         <is>
-          <t>Dr. Girirsh</t>
+          <t>Dr.Rajesh N S</t>
         </is>
       </c>
       <c r="B183" s="4" t="inlineStr">
@@ -8841,7 +8841,7 @@
       </c>
       <c r="C183" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D183" s="4" t="inlineStr">
@@ -8874,7 +8874,7 @@
     <row r="184">
       <c r="A184" s="4" t="inlineStr">
         <is>
-          <t>Dr. Animesh Roy</t>
+          <t>Prof. SRM Prasanna</t>
         </is>
       </c>
       <c r="B184" s="4" t="inlineStr">
@@ -8884,7 +8884,7 @@
       </c>
       <c r="C184" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D184" s="4" t="inlineStr">
@@ -8917,7 +8917,7 @@
     <row r="185">
       <c r="A185" s="4" t="inlineStr">
         <is>
-          <t>Dr. Chinmayananda</t>
+          <t>Dr. Rajesh NS</t>
         </is>
       </c>
       <c r="B185" s="4" t="inlineStr">
@@ -8927,7 +8927,7 @@
       </c>
       <c r="C185" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D185" s="4" t="inlineStr">
@@ -8960,7 +8960,7 @@
     <row r="186">
       <c r="A186" s="4" t="inlineStr">
         <is>
-          <t>Dr. Dibyajyothi Guha</t>
+          <t>Dr. Chandrika Kamat</t>
         </is>
       </c>
       <c r="B186" s="4" t="inlineStr">
@@ -8970,7 +8970,7 @@
       </c>
       <c r="C186" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D186" s="4" t="inlineStr">
@@ -9003,7 +9003,7 @@
     <row r="187">
       <c r="A187" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sunil PV</t>
+          <t>Dr. Ramesh Athe</t>
         </is>
       </c>
       <c r="B187" s="4" t="inlineStr">
@@ -9013,7 +9013,7 @@
       </c>
       <c r="C187" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D187" s="4" t="inlineStr">
@@ -9046,7 +9046,7 @@
     <row r="188">
       <c r="A188" s="4" t="inlineStr">
         <is>
-          <t>Dr. Dibyajoti Guha</t>
+          <t>Dr. Jagadeesha R Bhat</t>
         </is>
       </c>
       <c r="B188" s="4" t="inlineStr">
@@ -9056,7 +9056,7 @@
       </c>
       <c r="C188" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D188" s="4" t="inlineStr">
@@ -9079,7 +9079,7 @@
       </c>
       <c r="H188" s="4" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="I188" s="4" t="n">
@@ -9089,7 +9089,7 @@
     <row r="189">
       <c r="A189" s="4" t="inlineStr">
         <is>
-          <t>Dr. Girirsh Revadigar</t>
+          <t>Dr. Pramod Y</t>
         </is>
       </c>
       <c r="B189" s="4" t="inlineStr">
@@ -9099,7 +9099,7 @@
       </c>
       <c r="C189" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D189" s="4" t="inlineStr">
@@ -9122,7 +9122,7 @@
       </c>
       <c r="H189" s="4" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="I189" s="4" t="n">
@@ -9132,7 +9132,7 @@
     <row r="190">
       <c r="A190" s="4" t="inlineStr">
         <is>
-          <t>Dr. Chandrika Kamat</t>
+          <t>D. Rajesh Kumar</t>
         </is>
       </c>
       <c r="B190" s="4" t="inlineStr">
@@ -9142,7 +9142,7 @@
       </c>
       <c r="C190" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D190" s="4" t="inlineStr">
@@ -9165,7 +9165,7 @@
       </c>
       <c r="H190" s="4" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="I190" s="4" t="n">
@@ -9175,7 +9175,7 @@
     <row r="191">
       <c r="A191" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pavan</t>
+          <t>Dr. Rajesh Kumar</t>
         </is>
       </c>
       <c r="B191" s="4" t="inlineStr">
@@ -9185,7 +9185,7 @@
       </c>
       <c r="C191" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D191" s="4" t="inlineStr">
@@ -9218,7 +9218,7 @@
     <row r="192">
       <c r="A192" s="4" t="inlineStr">
         <is>
-          <t>Dr. Sunil CK</t>
+          <t>Dr.Anushree Kini</t>
         </is>
       </c>
       <c r="B192" s="4" t="inlineStr">
@@ -9228,7 +9228,7 @@
       </c>
       <c r="C192" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D192" s="4" t="inlineStr">
@@ -9261,7 +9261,7 @@
     <row r="193">
       <c r="A193" s="4" t="inlineStr">
         <is>
-          <t>Dr. Mallikarjun</t>
+          <t>Dr. Ramesh Athe</t>
         </is>
       </c>
       <c r="B193" s="4" t="inlineStr">
@@ -9271,7 +9271,7 @@
       </c>
       <c r="C193" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D193" s="4" t="inlineStr">
@@ -9304,7 +9304,7 @@
     <row r="194">
       <c r="A194" s="4" t="inlineStr">
         <is>
-          <t>Dr. Jagadeesha R Bhat</t>
+          <t>Dr. Girish Revadigar</t>
         </is>
       </c>
       <c r="B194" s="4" t="inlineStr">
@@ -9314,7 +9314,7 @@
       </c>
       <c r="C194" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D194" s="4" t="inlineStr">
@@ -9347,7 +9347,7 @@
     <row r="195">
       <c r="A195" s="4" t="inlineStr">
         <is>
-          <t>Dr. Girirsh</t>
+          <t>Dr. Vivekraj</t>
         </is>
       </c>
       <c r="B195" s="4" t="inlineStr">
@@ -9357,7 +9357,7 @@
       </c>
       <c r="C195" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D195" s="4" t="inlineStr">
@@ -9390,7 +9390,7 @@
     <row r="196">
       <c r="A196" s="4" t="inlineStr">
         <is>
-          <t>Dr. Aswath Babu</t>
+          <t>Dr. Sandesh P</t>
         </is>
       </c>
       <c r="B196" s="4" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="C196" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D196" s="4" t="inlineStr">
@@ -9423,7 +9423,7 @@
       </c>
       <c r="H196" s="4" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C408</t>
         </is>
       </c>
       <c r="I196" s="4" t="n">
@@ -9433,7 +9433,7 @@
     <row r="197">
       <c r="A197" s="4" t="inlineStr">
         <is>
-          <t>Dr.Sandesh</t>
+          <t>Dr Ramesh Athe</t>
         </is>
       </c>
       <c r="B197" s="4" t="inlineStr">
@@ -9443,7 +9443,7 @@
       </c>
       <c r="C197" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D197" s="4" t="inlineStr">
@@ -9476,7 +9476,7 @@
     <row r="198">
       <c r="A198" s="4" t="inlineStr">
         <is>
-          <t>Dr. Anand B</t>
+          <t>Dr. Chandrika Kamat</t>
         </is>
       </c>
       <c r="B198" s="4" t="inlineStr">
@@ -9486,7 +9486,7 @@
       </c>
       <c r="C198" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D198" s="4" t="inlineStr">
@@ -9509,7 +9509,7 @@
       </c>
       <c r="H198" s="4" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>C407</t>
         </is>
       </c>
       <c r="I198" s="4" t="n">
@@ -9519,7 +9519,7 @@
     <row r="199">
       <c r="A199" s="4" t="inlineStr">
         <is>
-          <t>Dr. Pankaj Kumar</t>
+          <t>Dr.Rajesh Kumar</t>
         </is>
       </c>
       <c r="B199" s="4" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="C199" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D199" s="4" t="inlineStr">
@@ -9552,7 +9552,7 @@
       </c>
       <c r="H199" s="4" t="inlineStr">
         <is>
-          <t>C408</t>
+          <t>C406</t>
         </is>
       </c>
       <c r="I199" s="4" t="n">
@@ -9562,7 +9562,7 @@
     <row r="200">
       <c r="A200" s="4" t="inlineStr">
         <is>
-          <t>Dr. Ashwath Babu &amp; Prof. Ravi Shankar</t>
+          <t>Dr.Manjunath K V</t>
         </is>
       </c>
       <c r="B200" s="4" t="inlineStr">
@@ -9572,7 +9572,7 @@
       </c>
       <c r="C200" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D200" s="4" t="inlineStr">
@@ -9595,7 +9595,7 @@
       </c>
       <c r="H200" s="4" t="inlineStr">
         <is>
-          <t>C407</t>
+          <t>C405</t>
         </is>
       </c>
       <c r="I200" s="4" t="n">
@@ -9605,7 +9605,7 @@
     <row r="201">
       <c r="A201" s="4" t="inlineStr">
         <is>
-          <t>Dr. Girirsh GN</t>
+          <t>Dr.Rajesh Kumar</t>
         </is>
       </c>
       <c r="B201" s="4" t="inlineStr">
@@ -9615,7 +9615,7 @@
       </c>
       <c r="C201" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D201" s="4" t="inlineStr">
@@ -9638,7 +9638,7 @@
       </c>
       <c r="H201" s="4" t="inlineStr">
         <is>
-          <t>C406</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="I201" s="4" t="n">
@@ -9648,7 +9648,7 @@
     <row r="202">
       <c r="A202" s="4" t="inlineStr">
         <is>
-          <t>Dr.Jagadeesha R Bhat</t>
+          <t>Dr. Rajesh Kumar</t>
         </is>
       </c>
       <c r="B202" s="4" t="inlineStr">
@@ -9658,7 +9658,7 @@
       </c>
       <c r="C202" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D202" s="4" t="inlineStr">
@@ -9681,7 +9681,7 @@
       </c>
       <c r="H202" s="4" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="I202" s="4" t="n">
@@ -9691,7 +9691,7 @@
     <row r="203">
       <c r="A203" s="4" t="inlineStr">
         <is>
-          <t>Dr. Deepak K.T</t>
+          <t>Dr. Sandesh P</t>
         </is>
       </c>
       <c r="B203" s="4" t="inlineStr">
@@ -9701,7 +9701,7 @@
       </c>
       <c r="C203" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D203" s="4" t="inlineStr">
@@ -9734,7 +9734,7 @@
     <row r="204">
       <c r="A204" s="4" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Dr. Rajesh NS</t>
         </is>
       </c>
       <c r="B204" s="4" t="inlineStr">
@@ -9744,7 +9744,7 @@
       </c>
       <c r="C204" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D204" s="4" t="inlineStr">
@@ -9777,7 +9777,7 @@
     <row r="205">
       <c r="A205" s="4" t="inlineStr">
         <is>
-          <t>Dr. Animesh Roy</t>
+          <t>Dr. Ashwath Babu</t>
         </is>
       </c>
       <c r="B205" s="4" t="inlineStr">
@@ -9787,7 +9787,7 @@
       </c>
       <c r="C205" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D205" s="4" t="inlineStr">
@@ -9830,7 +9830,7 @@
       </c>
       <c r="C206" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D206" s="4" t="inlineStr">
@@ -9863,7 +9863,7 @@
     <row r="207">
       <c r="A207" s="4" t="inlineStr">
         <is>
-          <t>Dr. Somen B</t>
+          <t>Dr.Animesh chaturvedi</t>
         </is>
       </c>
       <c r="B207" s="4" t="inlineStr">
@@ -9873,7 +9873,7 @@
       </c>
       <c r="C207" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D207" s="4" t="inlineStr">
@@ -9906,7 +9906,7 @@
     <row r="208">
       <c r="A208" s="4" t="inlineStr">
         <is>
-          <t>Dr.Manjunath K V</t>
+          <t>Dr. Jagdeesh DN</t>
         </is>
       </c>
       <c r="B208" s="4" t="inlineStr">
@@ -9916,7 +9916,7 @@
       </c>
       <c r="C208" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D208" s="4" t="inlineStr">
@@ -9949,7 +9949,7 @@
     <row r="209">
       <c r="A209" s="4" t="inlineStr">
         <is>
-          <t>Dr Ramesh Athe</t>
+          <t>Dr. Rajendra H</t>
         </is>
       </c>
       <c r="B209" s="4" t="inlineStr">
@@ -9959,7 +9959,7 @@
       </c>
       <c r="C209" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D209" s="4" t="inlineStr">
@@ -9992,7 +9992,7 @@
     <row r="210">
       <c r="A210" s="4" t="inlineStr">
         <is>
-          <t>Dr. Somen B</t>
+          <t>Dr.Siddharth</t>
         </is>
       </c>
       <c r="B210" s="4" t="inlineStr">
@@ -10002,7 +10002,7 @@
       </c>
       <c r="C210" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D210" s="4" t="inlineStr">
@@ -10035,7 +10035,7 @@
     <row r="211">
       <c r="A211" s="4" t="inlineStr">
         <is>
-          <t>Dr. Dibyajyothi Guha</t>
+          <t>Dr. Jagdish R.B</t>
         </is>
       </c>
       <c r="B211" s="4" t="inlineStr">
@@ -10045,7 +10045,7 @@
       </c>
       <c r="C211" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D211" s="4" t="inlineStr">
@@ -10078,7 +10078,7 @@
     <row r="212">
       <c r="A212" s="4" t="inlineStr">
         <is>
-          <t>Dr. Prabhu Prasad</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="B212" s="4" t="inlineStr">
@@ -10088,7 +10088,7 @@
       </c>
       <c r="C212" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D212" s="4" t="inlineStr">
@@ -10121,7 +10121,7 @@
     <row r="213">
       <c r="A213" s="4" t="inlineStr">
         <is>
-          <t>Dr. Prakash Pawar</t>
+          <t>Dr.Animesh chaturvedi</t>
         </is>
       </c>
       <c r="B213" s="4" t="inlineStr">
@@ -10131,7 +10131,7 @@
       </c>
       <c r="C213" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D213" s="4" t="inlineStr">
@@ -10164,7 +10164,7 @@
     <row r="214">
       <c r="A214" s="4" t="inlineStr">
         <is>
-          <t>Dr. Rajesh NS</t>
+          <t>Dr. Sandesh P</t>
         </is>
       </c>
       <c r="B214" s="4" t="inlineStr">
@@ -10174,7 +10174,7 @@
       </c>
       <c r="C214" s="4" t="inlineStr">
         <is>
-          <t>03:00 PM–04:30 PM</t>
+          <t>03:00 PM—04:30 PM</t>
         </is>
       </c>
       <c r="D214" s="4" t="inlineStr">
